--- a/Table/Table_xls/g怪物刷新/定时刷新表.xlsx
+++ b/Table/Table_xls/g怪物刷新/定时刷新表.xlsx
@@ -443,7 +443,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86">
   <si>
     <t>定时活动配置表id</t>
   </si>
@@ -716,6 +716,9 @@
   <si>
     <t>211165,211166,211167,211168</t>
   </si>
+  <si>
+    <t>魔化黑龙</t>
+  </si>
 </sst>
 </file>
 
@@ -723,8 +726,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="31">
@@ -793,7 +796,36 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -807,43 +839,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -854,7 +849,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -869,15 +871,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -891,14 +885,23 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -913,7 +916,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -927,11 +930,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -942,7 +945,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="49">
+  <fills count="50">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1023,6 +1026,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1053,13 +1062,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="0" tint="-0.25"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1071,19 +1074,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1095,7 +1104,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1113,13 +1122,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1137,13 +1146,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1155,7 +1194,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1167,67 +1224,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1256,6 +1265,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1271,11 +1289,26 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1306,30 +1339,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1348,8 +1357,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1361,10 +1370,10 @@
     <xf numFmtId="42" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1373,7 +1382,7 @@
     <xf numFmtId="41" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1382,128 +1391,128 @@
     <xf numFmtId="43" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="34" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="33" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="22" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="39" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="84">
+  <cellXfs count="93">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1541,6 +1550,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
@@ -1554,7 +1566,7 @@
     <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
@@ -1600,7 +1612,7 @@
     <xf numFmtId="49" fontId="2" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1">
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
@@ -1636,14 +1648,14 @@
     <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="32" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1">
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1">
@@ -1676,13 +1688,21 @@
     <xf numFmtId="49" fontId="0" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="14" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
@@ -1692,6 +1712,12 @@
     <xf numFmtId="49" fontId="0" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
@@ -1701,7 +1727,13 @@
     <xf numFmtId="0" fontId="10" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" xfId="0" applyFill="1">
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2090,14 +2122,14 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:AS99"/>
+  <dimension ref="A1:AS106"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="N22" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C70" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="T30" sqref="T30:T99"/>
+      <selection pane="bottomRight" activeCell="G100" sqref="G100:G106"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2109,7 +2141,7 @@
     <col min="6" max="6" width="12.2416666666667" customWidth="1"/>
     <col min="7" max="7" width="23.5083333333333" customWidth="1"/>
     <col min="8" max="9" width="12.125" customWidth="1"/>
-    <col min="10" max="10" width="30.7583333333333" style="13" customWidth="1"/>
+    <col min="10" max="10" width="30.7583333333333" style="14" customWidth="1"/>
     <col min="11" max="11" width="58.3666666666667" customWidth="1"/>
     <col min="12" max="12" width="12.2416666666667" customWidth="1"/>
     <col min="13" max="13" width="21.2416666666667" customWidth="1"/>
@@ -2127,7 +2159,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
@@ -2151,19 +2183,19 @@
       <c r="H1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="40" t="s">
+      <c r="I1" s="41" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="40" t="s">
+      <c r="J1" s="41" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="13" t="s">
+      <c r="K1" s="14" t="s">
         <v>10</v>
       </c>
       <c r="L1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="40" t="s">
+      <c r="M1" s="41" t="s">
         <v>12</v>
       </c>
       <c r="N1" t="s">
@@ -2175,94 +2207,94 @@
       <c r="P1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="40" t="s">
+      <c r="Q1" s="41" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="40" t="s">
+      <c r="R1" s="41" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="40" t="s">
+      <c r="S1" s="41" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="40" t="s">
+      <c r="T1" s="41" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="40" t="s">
+      <c r="U1" s="41" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="40" t="s">
+      <c r="V1" s="41" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="40" t="s">
+      <c r="W1" s="41" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="40" t="s">
+      <c r="X1" s="41" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="40" t="s">
+      <c r="Y1" s="41" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="40" t="s">
+      <c r="Z1" s="41" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" s="40" t="s">
+      <c r="AA1" s="41" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" s="40" t="s">
+      <c r="AB1" s="41" t="s">
         <v>27</v>
       </c>
-      <c r="AC1" s="40" t="s">
+      <c r="AC1" s="41" t="s">
         <v>28</v>
       </c>
-      <c r="AD1" s="52" t="s">
+      <c r="AD1" s="53" t="s">
         <v>29</v>
       </c>
-      <c r="AE1" s="53" t="s">
+      <c r="AE1" s="54" t="s">
         <v>30</v>
       </c>
-      <c r="AF1" s="52" t="s">
+      <c r="AF1" s="53" t="s">
         <v>31</v>
       </c>
-      <c r="AG1" s="52" t="s">
+      <c r="AG1" s="53" t="s">
         <v>32</v>
       </c>
-      <c r="AH1" s="52" t="s">
+      <c r="AH1" s="53" t="s">
         <v>33</v>
       </c>
-      <c r="AI1" s="52" t="s">
+      <c r="AI1" s="53" t="s">
         <v>34</v>
       </c>
-      <c r="AJ1" s="52" t="s">
+      <c r="AJ1" s="53" t="s">
         <v>35</v>
       </c>
-      <c r="AK1" s="40" t="s">
+      <c r="AK1" s="41" t="s">
         <v>36</v>
       </c>
-      <c r="AL1" s="57" t="s">
+      <c r="AL1" s="58" t="s">
         <v>37</v>
       </c>
-      <c r="AM1" s="52" t="s">
+      <c r="AM1" s="53" t="s">
         <v>38</v>
       </c>
-      <c r="AN1" s="52" t="s">
+      <c r="AN1" s="53" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" ht="14.25" spans="1:30">
-      <c r="A2" s="15">
+      <c r="A2" s="16">
         <v>200001</v>
       </c>
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="C2" s="17" t="s">
+      <c r="C2" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17" t="s">
+      <c r="D2" s="18"/>
+      <c r="E2" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="F2" s="17"/>
+      <c r="F2" s="18"/>
       <c r="G2" s="1">
         <v>150222</v>
       </c>
@@ -2275,7 +2307,7 @@
       <c r="J2" s="1">
         <v>0</v>
       </c>
-      <c r="K2" s="17" t="s">
+      <c r="K2" s="18" t="s">
         <v>43</v>
       </c>
       <c r="L2" s="1">
@@ -2296,11 +2328,11 @@
       <c r="Q2" s="1">
         <v>50</v>
       </c>
-      <c r="R2" s="45">
+      <c r="R2" s="46">
         <v>6916</v>
       </c>
-      <c r="S2" s="45"/>
-      <c r="T2" s="46">
+      <c r="S2" s="46"/>
+      <c r="T2" s="47">
         <v>170057</v>
       </c>
       <c r="U2" s="1">
@@ -2327,25 +2359,25 @@
       <c r="AC2" s="1">
         <v>0</v>
       </c>
-      <c r="AD2" s="54">
+      <c r="AD2" s="55">
         <v>200</v>
       </c>
     </row>
     <row r="3" s="1" customFormat="1" ht="14.25" spans="1:30">
-      <c r="A3" s="15">
+      <c r="A3" s="16">
         <v>200002</v>
       </c>
-      <c r="B3" s="16" t="s">
+      <c r="B3" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="C3" s="17" t="s">
+      <c r="C3" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="D3" s="17"/>
-      <c r="E3" s="17" t="s">
+      <c r="D3" s="18"/>
+      <c r="E3" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="F3" s="17"/>
+      <c r="F3" s="18"/>
       <c r="G3" s="1">
         <v>150222</v>
       </c>
@@ -2358,7 +2390,7 @@
       <c r="J3" s="1">
         <v>0</v>
       </c>
-      <c r="K3" s="17" t="s">
+      <c r="K3" s="18" t="s">
         <v>43</v>
       </c>
       <c r="L3" s="1">
@@ -2379,11 +2411,11 @@
       <c r="Q3" s="1">
         <v>50</v>
       </c>
-      <c r="R3" s="45">
+      <c r="R3" s="46">
         <v>6916</v>
       </c>
-      <c r="S3" s="45"/>
-      <c r="T3" s="46">
+      <c r="S3" s="46"/>
+      <c r="T3" s="47">
         <v>170057</v>
       </c>
       <c r="U3" s="1">
@@ -2410,25 +2442,25 @@
       <c r="AC3" s="1">
         <v>0</v>
       </c>
-      <c r="AD3" s="54">
+      <c r="AD3" s="55">
         <v>200</v>
       </c>
     </row>
     <row r="4" s="1" customFormat="1" ht="14.25" spans="1:30">
-      <c r="A4" s="15">
+      <c r="A4" s="16">
         <v>200003</v>
       </c>
-      <c r="B4" s="16" t="s">
+      <c r="B4" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="C4" s="17" t="s">
+      <c r="C4" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="D4" s="17"/>
-      <c r="E4" s="17" t="s">
+      <c r="D4" s="18"/>
+      <c r="E4" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="F4" s="17"/>
+      <c r="F4" s="18"/>
       <c r="G4" s="1">
         <v>150222</v>
       </c>
@@ -2441,7 +2473,7 @@
       <c r="J4" s="1">
         <v>0</v>
       </c>
-      <c r="K4" s="17" t="s">
+      <c r="K4" s="18" t="s">
         <v>43</v>
       </c>
       <c r="L4" s="1">
@@ -2462,11 +2494,11 @@
       <c r="Q4" s="1">
         <v>50</v>
       </c>
-      <c r="R4" s="45">
+      <c r="R4" s="46">
         <v>6916</v>
       </c>
-      <c r="S4" s="45"/>
-      <c r="T4" s="46">
+      <c r="S4" s="46"/>
+      <c r="T4" s="47">
         <v>170057</v>
       </c>
       <c r="U4" s="1">
@@ -2493,25 +2525,25 @@
       <c r="AC4" s="1">
         <v>0</v>
       </c>
-      <c r="AD4" s="54">
+      <c r="AD4" s="55">
         <v>200</v>
       </c>
     </row>
     <row r="5" s="1" customFormat="1" ht="14.25" spans="1:30">
-      <c r="A5" s="15">
+      <c r="A5" s="16">
         <v>200004</v>
       </c>
-      <c r="B5" s="16" t="s">
+      <c r="B5" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="C5" s="17" t="s">
+      <c r="C5" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="D5" s="17"/>
-      <c r="E5" s="17" t="s">
+      <c r="D5" s="18"/>
+      <c r="E5" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="F5" s="17"/>
+      <c r="F5" s="18"/>
       <c r="G5" s="1">
         <v>150222</v>
       </c>
@@ -2524,7 +2556,7 @@
       <c r="J5" s="1">
         <v>0</v>
       </c>
-      <c r="K5" s="17" t="s">
+      <c r="K5" s="18" t="s">
         <v>43</v>
       </c>
       <c r="L5" s="1">
@@ -2545,11 +2577,11 @@
       <c r="Q5" s="1">
         <v>50</v>
       </c>
-      <c r="R5" s="45">
+      <c r="R5" s="46">
         <v>6916</v>
       </c>
-      <c r="S5" s="45"/>
-      <c r="T5" s="46">
+      <c r="S5" s="46"/>
+      <c r="T5" s="47">
         <v>170057</v>
       </c>
       <c r="U5" s="1">
@@ -2576,25 +2608,25 @@
       <c r="AC5" s="1">
         <v>0</v>
       </c>
-      <c r="AD5" s="54">
+      <c r="AD5" s="55">
         <v>200</v>
       </c>
     </row>
     <row r="6" s="1" customFormat="1" ht="14.25" spans="1:30">
-      <c r="A6" s="15">
+      <c r="A6" s="16">
         <v>200005</v>
       </c>
-      <c r="B6" s="16" t="s">
+      <c r="B6" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="C6" s="17" t="s">
+      <c r="C6" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="D6" s="17"/>
-      <c r="E6" s="17" t="s">
+      <c r="D6" s="18"/>
+      <c r="E6" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="F6" s="17"/>
+      <c r="F6" s="18"/>
       <c r="G6" s="1">
         <v>150222</v>
       </c>
@@ -2607,7 +2639,7 @@
       <c r="J6" s="1">
         <v>0</v>
       </c>
-      <c r="K6" s="17" t="s">
+      <c r="K6" s="18" t="s">
         <v>43</v>
       </c>
       <c r="L6" s="1">
@@ -2628,11 +2660,11 @@
       <c r="Q6" s="1">
         <v>50</v>
       </c>
-      <c r="R6" s="45">
+      <c r="R6" s="46">
         <v>6916</v>
       </c>
-      <c r="S6" s="45"/>
-      <c r="T6" s="46">
+      <c r="S6" s="46"/>
+      <c r="T6" s="47">
         <v>170057</v>
       </c>
       <c r="U6" s="1">
@@ -2659,25 +2691,25 @@
       <c r="AC6" s="1">
         <v>0</v>
       </c>
-      <c r="AD6" s="54">
+      <c r="AD6" s="55">
         <v>200</v>
       </c>
     </row>
     <row r="7" s="1" customFormat="1" ht="14.25" spans="1:30">
-      <c r="A7" s="15">
+      <c r="A7" s="16">
         <v>200006</v>
       </c>
-      <c r="B7" s="16" t="s">
+      <c r="B7" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="C7" s="17" t="s">
+      <c r="C7" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="D7" s="17"/>
-      <c r="E7" s="17" t="s">
+      <c r="D7" s="18"/>
+      <c r="E7" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="F7" s="17"/>
+      <c r="F7" s="18"/>
       <c r="G7" s="1">
         <v>150222</v>
       </c>
@@ -2690,7 +2722,7 @@
       <c r="J7" s="1">
         <v>0</v>
       </c>
-      <c r="K7" s="17" t="s">
+      <c r="K7" s="18" t="s">
         <v>43</v>
       </c>
       <c r="L7" s="1">
@@ -2711,11 +2743,11 @@
       <c r="Q7" s="1">
         <v>50</v>
       </c>
-      <c r="R7" s="45">
+      <c r="R7" s="46">
         <v>6916</v>
       </c>
-      <c r="S7" s="45"/>
-      <c r="T7" s="46">
+      <c r="S7" s="46"/>
+      <c r="T7" s="47">
         <v>170057</v>
       </c>
       <c r="U7" s="1">
@@ -2742,25 +2774,25 @@
       <c r="AC7" s="1">
         <v>0</v>
       </c>
-      <c r="AD7" s="54">
+      <c r="AD7" s="55">
         <v>200</v>
       </c>
     </row>
     <row r="8" s="1" customFormat="1" ht="14.25" spans="1:30">
-      <c r="A8" s="15">
+      <c r="A8" s="16">
         <v>200007</v>
       </c>
-      <c r="B8" s="16" t="s">
+      <c r="B8" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="C8" s="17" t="s">
+      <c r="C8" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="D8" s="17"/>
-      <c r="E8" s="17" t="s">
+      <c r="D8" s="18"/>
+      <c r="E8" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="F8" s="17"/>
+      <c r="F8" s="18"/>
       <c r="G8" s="1">
         <v>150222</v>
       </c>
@@ -2773,7 +2805,7 @@
       <c r="J8" s="1">
         <v>0</v>
       </c>
-      <c r="K8" s="17" t="s">
+      <c r="K8" s="18" t="s">
         <v>43</v>
       </c>
       <c r="L8" s="1">
@@ -2794,11 +2826,11 @@
       <c r="Q8" s="1">
         <v>50</v>
       </c>
-      <c r="R8" s="45">
+      <c r="R8" s="46">
         <v>6916</v>
       </c>
-      <c r="S8" s="45"/>
-      <c r="T8" s="46">
+      <c r="S8" s="46"/>
+      <c r="T8" s="47">
         <v>170057</v>
       </c>
       <c r="U8" s="1">
@@ -2825,7 +2857,7 @@
       <c r="AC8" s="1">
         <v>0</v>
       </c>
-      <c r="AD8" s="54">
+      <c r="AD8" s="55">
         <v>200</v>
       </c>
     </row>
@@ -2836,14 +2868,14 @@
       <c r="B9" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="C9" s="17" t="s">
+      <c r="C9" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="D9" s="17"/>
-      <c r="E9" s="17" t="s">
+      <c r="D9" s="18"/>
+      <c r="E9" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="F9" s="17"/>
+      <c r="F9" s="18"/>
       <c r="G9" s="1">
         <v>150223</v>
       </c>
@@ -2856,7 +2888,7 @@
       <c r="J9" s="1">
         <v>0</v>
       </c>
-      <c r="K9" s="41" t="s">
+      <c r="K9" s="42" t="s">
         <v>47</v>
       </c>
       <c r="L9" s="1">
@@ -2877,11 +2909,11 @@
       <c r="Q9" s="1">
         <v>60</v>
       </c>
-      <c r="R9" s="47">
+      <c r="R9" s="48">
         <v>6917</v>
       </c>
-      <c r="S9" s="47"/>
-      <c r="T9" s="46">
+      <c r="S9" s="48"/>
+      <c r="T9" s="47">
         <v>170057</v>
       </c>
       <c r="U9" s="1">
@@ -2908,7 +2940,7 @@
       <c r="AC9" s="1">
         <v>0</v>
       </c>
-      <c r="AD9" s="54">
+      <c r="AD9" s="55">
         <v>201</v>
       </c>
     </row>
@@ -2919,14 +2951,14 @@
       <c r="B10" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="C10" s="17" t="s">
+      <c r="C10" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="D10" s="17"/>
-      <c r="E10" s="17" t="s">
+      <c r="D10" s="18"/>
+      <c r="E10" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="F10" s="17"/>
+      <c r="F10" s="18"/>
       <c r="G10" s="1">
         <v>150223</v>
       </c>
@@ -2939,7 +2971,7 @@
       <c r="J10" s="1">
         <v>0</v>
       </c>
-      <c r="K10" s="41" t="s">
+      <c r="K10" s="42" t="s">
         <v>47</v>
       </c>
       <c r="L10" s="1">
@@ -2960,11 +2992,11 @@
       <c r="Q10" s="1">
         <v>60</v>
       </c>
-      <c r="R10" s="47">
+      <c r="R10" s="48">
         <v>6917</v>
       </c>
-      <c r="S10" s="47"/>
-      <c r="T10" s="46">
+      <c r="S10" s="48"/>
+      <c r="T10" s="47">
         <v>170057</v>
       </c>
       <c r="U10" s="1">
@@ -2991,7 +3023,7 @@
       <c r="AC10" s="1">
         <v>0</v>
       </c>
-      <c r="AD10" s="54">
+      <c r="AD10" s="55">
         <v>201</v>
       </c>
     </row>
@@ -3002,14 +3034,14 @@
       <c r="B11" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="C11" s="17" t="s">
+      <c r="C11" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="D11" s="17"/>
-      <c r="E11" s="17" t="s">
+      <c r="D11" s="18"/>
+      <c r="E11" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="F11" s="17"/>
+      <c r="F11" s="18"/>
       <c r="G11" s="1">
         <v>150223</v>
       </c>
@@ -3022,7 +3054,7 @@
       <c r="J11" s="1">
         <v>0</v>
       </c>
-      <c r="K11" s="41" t="s">
+      <c r="K11" s="42" t="s">
         <v>47</v>
       </c>
       <c r="L11" s="1">
@@ -3043,11 +3075,11 @@
       <c r="Q11" s="1">
         <v>60</v>
       </c>
-      <c r="R11" s="47">
+      <c r="R11" s="48">
         <v>6917</v>
       </c>
-      <c r="S11" s="47"/>
-      <c r="T11" s="46">
+      <c r="S11" s="48"/>
+      <c r="T11" s="47">
         <v>170057</v>
       </c>
       <c r="U11" s="1">
@@ -3074,7 +3106,7 @@
       <c r="AC11" s="1">
         <v>0</v>
       </c>
-      <c r="AD11" s="54">
+      <c r="AD11" s="55">
         <v>201</v>
       </c>
     </row>
@@ -3085,14 +3117,14 @@
       <c r="B12" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="C12" s="17" t="s">
+      <c r="C12" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="D12" s="17"/>
-      <c r="E12" s="17" t="s">
+      <c r="D12" s="18"/>
+      <c r="E12" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="F12" s="17"/>
+      <c r="F12" s="18"/>
       <c r="G12" s="1">
         <v>150223</v>
       </c>
@@ -3105,7 +3137,7 @@
       <c r="J12" s="1">
         <v>0</v>
       </c>
-      <c r="K12" s="41" t="s">
+      <c r="K12" s="42" t="s">
         <v>47</v>
       </c>
       <c r="L12" s="1">
@@ -3126,11 +3158,11 @@
       <c r="Q12" s="1">
         <v>60</v>
       </c>
-      <c r="R12" s="47">
+      <c r="R12" s="48">
         <v>6917</v>
       </c>
-      <c r="S12" s="47"/>
-      <c r="T12" s="46">
+      <c r="S12" s="48"/>
+      <c r="T12" s="47">
         <v>170057</v>
       </c>
       <c r="U12" s="1">
@@ -3157,7 +3189,7 @@
       <c r="AC12" s="1">
         <v>0</v>
       </c>
-      <c r="AD12" s="54">
+      <c r="AD12" s="55">
         <v>201</v>
       </c>
     </row>
@@ -3168,14 +3200,14 @@
       <c r="B13" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="C13" s="17" t="s">
+      <c r="C13" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="D13" s="17"/>
-      <c r="E13" s="17" t="s">
+      <c r="D13" s="18"/>
+      <c r="E13" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="F13" s="17"/>
+      <c r="F13" s="18"/>
       <c r="G13" s="1">
         <v>150223</v>
       </c>
@@ -3188,7 +3220,7 @@
       <c r="J13" s="1">
         <v>0</v>
       </c>
-      <c r="K13" s="41" t="s">
+      <c r="K13" s="42" t="s">
         <v>47</v>
       </c>
       <c r="L13" s="1">
@@ -3209,11 +3241,11 @@
       <c r="Q13" s="1">
         <v>60</v>
       </c>
-      <c r="R13" s="47">
+      <c r="R13" s="48">
         <v>6917</v>
       </c>
-      <c r="S13" s="47"/>
-      <c r="T13" s="46">
+      <c r="S13" s="48"/>
+      <c r="T13" s="47">
         <v>170057</v>
       </c>
       <c r="U13" s="1">
@@ -3240,7 +3272,7 @@
       <c r="AC13" s="1">
         <v>0</v>
       </c>
-      <c r="AD13" s="54">
+      <c r="AD13" s="55">
         <v>201</v>
       </c>
     </row>
@@ -3251,14 +3283,14 @@
       <c r="B14" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="C14" s="17" t="s">
+      <c r="C14" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="D14" s="17"/>
-      <c r="E14" s="17" t="s">
+      <c r="D14" s="18"/>
+      <c r="E14" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="F14" s="17"/>
+      <c r="F14" s="18"/>
       <c r="G14" s="1">
         <v>150223</v>
       </c>
@@ -3271,7 +3303,7 @@
       <c r="J14" s="1">
         <v>0</v>
       </c>
-      <c r="K14" s="41" t="s">
+      <c r="K14" s="42" t="s">
         <v>47</v>
       </c>
       <c r="L14" s="1">
@@ -3292,11 +3324,11 @@
       <c r="Q14" s="1">
         <v>60</v>
       </c>
-      <c r="R14" s="47">
+      <c r="R14" s="48">
         <v>6917</v>
       </c>
-      <c r="S14" s="47"/>
-      <c r="T14" s="46">
+      <c r="S14" s="48"/>
+      <c r="T14" s="47">
         <v>170057</v>
       </c>
       <c r="U14" s="1">
@@ -3323,7 +3355,7 @@
       <c r="AC14" s="1">
         <v>0</v>
       </c>
-      <c r="AD14" s="54">
+      <c r="AD14" s="55">
         <v>201</v>
       </c>
     </row>
@@ -3334,14 +3366,14 @@
       <c r="B15" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="C15" s="17" t="s">
+      <c r="C15" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="D15" s="17"/>
-      <c r="E15" s="17" t="s">
+      <c r="D15" s="18"/>
+      <c r="E15" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="F15" s="17"/>
+      <c r="F15" s="18"/>
       <c r="G15" s="1">
         <v>150223</v>
       </c>
@@ -3354,7 +3386,7 @@
       <c r="J15" s="1">
         <v>0</v>
       </c>
-      <c r="K15" s="41" t="s">
+      <c r="K15" s="42" t="s">
         <v>47</v>
       </c>
       <c r="L15" s="1">
@@ -3375,11 +3407,11 @@
       <c r="Q15" s="1">
         <v>60</v>
       </c>
-      <c r="R15" s="47">
+      <c r="R15" s="48">
         <v>6917</v>
       </c>
-      <c r="S15" s="47"/>
-      <c r="T15" s="46">
+      <c r="S15" s="48"/>
+      <c r="T15" s="47">
         <v>170057</v>
       </c>
       <c r="U15" s="1">
@@ -3406,7 +3438,7 @@
       <c r="AC15" s="1">
         <v>0</v>
       </c>
-      <c r="AD15" s="54">
+      <c r="AD15" s="55">
         <v>201</v>
       </c>
     </row>
@@ -3417,14 +3449,14 @@
       <c r="B16" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="C16" s="17" t="s">
+      <c r="C16" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="D16" s="17"/>
-      <c r="E16" s="17" t="s">
+      <c r="D16" s="18"/>
+      <c r="E16" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="F16" s="17"/>
+      <c r="F16" s="18"/>
       <c r="G16" s="1">
         <v>150224</v>
       </c>
@@ -3437,10 +3469,10 @@
       <c r="J16" s="1">
         <v>0</v>
       </c>
-      <c r="K16" s="41" t="s">
+      <c r="K16" s="42" t="s">
         <v>49</v>
       </c>
-      <c r="L16" s="42">
+      <c r="L16" s="43">
         <v>2</v>
       </c>
       <c r="M16" s="1">
@@ -3458,11 +3490,11 @@
       <c r="Q16" s="1">
         <v>60</v>
       </c>
-      <c r="R16" s="47">
+      <c r="R16" s="48">
         <v>6914</v>
       </c>
-      <c r="S16" s="47"/>
-      <c r="T16" s="46">
+      <c r="S16" s="48"/>
+      <c r="T16" s="47">
         <v>170057</v>
       </c>
       <c r="U16" s="1">
@@ -3489,7 +3521,7 @@
       <c r="AC16" s="1">
         <v>0</v>
       </c>
-      <c r="AD16" s="54">
+      <c r="AD16" s="55">
         <v>201</v>
       </c>
     </row>
@@ -3500,14 +3532,14 @@
       <c r="B17" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="C17" s="17" t="s">
+      <c r="C17" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="D17" s="17"/>
-      <c r="E17" s="17" t="s">
+      <c r="D17" s="18"/>
+      <c r="E17" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="F17" s="17"/>
+      <c r="F17" s="18"/>
       <c r="G17" s="1">
         <v>150224</v>
       </c>
@@ -3520,7 +3552,7 @@
       <c r="J17" s="1">
         <v>0</v>
       </c>
-      <c r="K17" s="41" t="s">
+      <c r="K17" s="42" t="s">
         <v>49</v>
       </c>
       <c r="L17" s="1">
@@ -3541,11 +3573,11 @@
       <c r="Q17" s="1">
         <v>60</v>
       </c>
-      <c r="R17" s="47">
+      <c r="R17" s="48">
         <v>6914</v>
       </c>
-      <c r="S17" s="47"/>
-      <c r="T17" s="46">
+      <c r="S17" s="48"/>
+      <c r="T17" s="47">
         <v>170057</v>
       </c>
       <c r="U17" s="1">
@@ -3572,7 +3604,7 @@
       <c r="AC17" s="1">
         <v>0</v>
       </c>
-      <c r="AD17" s="54">
+      <c r="AD17" s="55">
         <v>201</v>
       </c>
     </row>
@@ -3583,14 +3615,14 @@
       <c r="B18" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="C18" s="17" t="s">
+      <c r="C18" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="D18" s="17"/>
-      <c r="E18" s="17" t="s">
+      <c r="D18" s="18"/>
+      <c r="E18" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="F18" s="17"/>
+      <c r="F18" s="18"/>
       <c r="G18" s="1">
         <v>150224</v>
       </c>
@@ -3603,7 +3635,7 @@
       <c r="J18" s="1">
         <v>0</v>
       </c>
-      <c r="K18" s="41" t="s">
+      <c r="K18" s="42" t="s">
         <v>49</v>
       </c>
       <c r="L18" s="1">
@@ -3624,11 +3656,11 @@
       <c r="Q18" s="1">
         <v>60</v>
       </c>
-      <c r="R18" s="47">
+      <c r="R18" s="48">
         <v>6914</v>
       </c>
-      <c r="S18" s="47"/>
-      <c r="T18" s="46">
+      <c r="S18" s="48"/>
+      <c r="T18" s="47">
         <v>170057</v>
       </c>
       <c r="U18" s="1">
@@ -3655,7 +3687,7 @@
       <c r="AC18" s="1">
         <v>0</v>
       </c>
-      <c r="AD18" s="54">
+      <c r="AD18" s="55">
         <v>201</v>
       </c>
     </row>
@@ -3666,14 +3698,14 @@
       <c r="B19" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="C19" s="17" t="s">
+      <c r="C19" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="D19" s="17"/>
-      <c r="E19" s="17" t="s">
+      <c r="D19" s="18"/>
+      <c r="E19" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="F19" s="17"/>
+      <c r="F19" s="18"/>
       <c r="G19" s="1">
         <v>150224</v>
       </c>
@@ -3686,7 +3718,7 @@
       <c r="J19" s="1">
         <v>0</v>
       </c>
-      <c r="K19" s="41" t="s">
+      <c r="K19" s="42" t="s">
         <v>49</v>
       </c>
       <c r="L19" s="1">
@@ -3707,11 +3739,11 @@
       <c r="Q19" s="1">
         <v>60</v>
       </c>
-      <c r="R19" s="47">
+      <c r="R19" s="48">
         <v>6914</v>
       </c>
-      <c r="S19" s="47"/>
-      <c r="T19" s="46">
+      <c r="S19" s="48"/>
+      <c r="T19" s="47">
         <v>170057</v>
       </c>
       <c r="U19" s="1">
@@ -3738,7 +3770,7 @@
       <c r="AC19" s="1">
         <v>0</v>
       </c>
-      <c r="AD19" s="54">
+      <c r="AD19" s="55">
         <v>201</v>
       </c>
     </row>
@@ -3749,14 +3781,14 @@
       <c r="B20" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="C20" s="17" t="s">
+      <c r="C20" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="D20" s="17"/>
-      <c r="E20" s="17" t="s">
+      <c r="D20" s="18"/>
+      <c r="E20" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="F20" s="17"/>
+      <c r="F20" s="18"/>
       <c r="G20" s="1">
         <v>150224</v>
       </c>
@@ -3769,7 +3801,7 @@
       <c r="J20" s="1">
         <v>0</v>
       </c>
-      <c r="K20" s="41" t="s">
+      <c r="K20" s="42" t="s">
         <v>49</v>
       </c>
       <c r="L20" s="1">
@@ -3790,11 +3822,11 @@
       <c r="Q20" s="1">
         <v>60</v>
       </c>
-      <c r="R20" s="47">
+      <c r="R20" s="48">
         <v>6914</v>
       </c>
-      <c r="S20" s="47"/>
-      <c r="T20" s="46">
+      <c r="S20" s="48"/>
+      <c r="T20" s="47">
         <v>170057</v>
       </c>
       <c r="U20" s="1">
@@ -3821,7 +3853,7 @@
       <c r="AC20" s="1">
         <v>0</v>
       </c>
-      <c r="AD20" s="54">
+      <c r="AD20" s="55">
         <v>201</v>
       </c>
     </row>
@@ -3832,14 +3864,14 @@
       <c r="B21" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="C21" s="17" t="s">
+      <c r="C21" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="D21" s="17"/>
-      <c r="E21" s="17" t="s">
+      <c r="D21" s="18"/>
+      <c r="E21" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="F21" s="17"/>
+      <c r="F21" s="18"/>
       <c r="G21" s="1">
         <v>150224</v>
       </c>
@@ -3852,7 +3884,7 @@
       <c r="J21" s="1">
         <v>0</v>
       </c>
-      <c r="K21" s="41" t="s">
+      <c r="K21" s="42" t="s">
         <v>49</v>
       </c>
       <c r="L21" s="1">
@@ -3873,11 +3905,11 @@
       <c r="Q21" s="1">
         <v>60</v>
       </c>
-      <c r="R21" s="47">
+      <c r="R21" s="48">
         <v>6914</v>
       </c>
-      <c r="S21" s="47"/>
-      <c r="T21" s="46">
+      <c r="S21" s="48"/>
+      <c r="T21" s="47">
         <v>170057</v>
       </c>
       <c r="U21" s="1">
@@ -3904,7 +3936,7 @@
       <c r="AC21" s="1">
         <v>0</v>
       </c>
-      <c r="AD21" s="54">
+      <c r="AD21" s="55">
         <v>201</v>
       </c>
     </row>
@@ -3915,14 +3947,14 @@
       <c r="B22" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="C22" s="17" t="s">
+      <c r="C22" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="D22" s="17"/>
-      <c r="E22" s="17" t="s">
+      <c r="D22" s="18"/>
+      <c r="E22" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="F22" s="17"/>
+      <c r="F22" s="18"/>
       <c r="G22" s="1">
         <v>150224</v>
       </c>
@@ -3935,7 +3967,7 @@
       <c r="J22" s="1">
         <v>0</v>
       </c>
-      <c r="K22" s="41" t="s">
+      <c r="K22" s="42" t="s">
         <v>49</v>
       </c>
       <c r="L22" s="1">
@@ -3956,11 +3988,11 @@
       <c r="Q22" s="1">
         <v>60</v>
       </c>
-      <c r="R22" s="47">
+      <c r="R22" s="48">
         <v>6914</v>
       </c>
-      <c r="S22" s="47"/>
-      <c r="T22" s="46">
+      <c r="S22" s="48"/>
+      <c r="T22" s="47">
         <v>170057</v>
       </c>
       <c r="U22" s="1">
@@ -3987,24 +4019,24 @@
       <c r="AC22" s="1">
         <v>0</v>
       </c>
-      <c r="AD22" s="54">
+      <c r="AD22" s="55">
         <v>201</v>
       </c>
     </row>
     <row r="23" s="2" customFormat="1" spans="1:29">
-      <c r="A23" s="18">
+      <c r="A23" s="19">
         <v>230001</v>
       </c>
-      <c r="B23" s="19" t="s">
+      <c r="B23" s="20" t="s">
         <v>50</v>
       </c>
-      <c r="C23" s="20" t="s">
+      <c r="C23" s="21" t="s">
         <v>51</v>
       </c>
-      <c r="E23" s="21" t="s">
+      <c r="E23" s="22" t="s">
         <v>52</v>
       </c>
-      <c r="F23" s="21"/>
+      <c r="F23" s="22"/>
       <c r="G23" s="2">
         <v>170015</v>
       </c>
@@ -4017,7 +4049,7 @@
       <c r="J23" s="2">
         <v>0</v>
       </c>
-      <c r="K23" s="20" t="s">
+      <c r="K23" s="21" t="s">
         <v>53</v>
       </c>
       <c r="L23" s="2">
@@ -4056,7 +4088,7 @@
       <c r="X23" s="2">
         <v>300</v>
       </c>
-      <c r="Y23" s="55">
+      <c r="Y23" s="56">
         <v>0</v>
       </c>
       <c r="Z23" s="2">
@@ -4070,19 +4102,19 @@
       </c>
     </row>
     <row r="24" s="2" customFormat="1" spans="1:29">
-      <c r="A24" s="18">
+      <c r="A24" s="19">
         <v>230002</v>
       </c>
-      <c r="B24" s="19" t="s">
+      <c r="B24" s="20" t="s">
         <v>50</v>
       </c>
-      <c r="C24" s="20" t="s">
+      <c r="C24" s="21" t="s">
         <v>51</v>
       </c>
-      <c r="E24" s="21" t="s">
+      <c r="E24" s="22" t="s">
         <v>52</v>
       </c>
-      <c r="F24" s="21"/>
+      <c r="F24" s="22"/>
       <c r="G24" s="2">
         <v>170015</v>
       </c>
@@ -4095,7 +4127,7 @@
       <c r="J24" s="2">
         <v>0</v>
       </c>
-      <c r="K24" s="20" t="s">
+      <c r="K24" s="21" t="s">
         <v>53</v>
       </c>
       <c r="L24" s="2">
@@ -4134,7 +4166,7 @@
       <c r="X24" s="2">
         <v>300</v>
       </c>
-      <c r="Y24" s="55">
+      <c r="Y24" s="56">
         <v>0</v>
       </c>
       <c r="Z24" s="2">
@@ -4148,20 +4180,20 @@
       </c>
     </row>
     <row r="25" customFormat="1" spans="1:45">
-      <c r="A25" s="18">
+      <c r="A25" s="19">
         <v>230003</v>
       </c>
-      <c r="B25" s="19" t="s">
+      <c r="B25" s="20" t="s">
         <v>50</v>
       </c>
-      <c r="C25" s="20" t="s">
+      <c r="C25" s="21" t="s">
         <v>51</v>
       </c>
       <c r="D25" s="2"/>
-      <c r="E25" s="21" t="s">
+      <c r="E25" s="22" t="s">
         <v>52</v>
       </c>
-      <c r="F25" s="21"/>
+      <c r="F25" s="22"/>
       <c r="G25" s="2">
         <v>170015</v>
       </c>
@@ -4174,7 +4206,7 @@
       <c r="J25" s="2">
         <v>0</v>
       </c>
-      <c r="K25" s="20" t="s">
+      <c r="K25" s="21" t="s">
         <v>53</v>
       </c>
       <c r="L25" s="2">
@@ -4214,7 +4246,7 @@
       <c r="X25" s="2">
         <v>300</v>
       </c>
-      <c r="Y25" s="55">
+      <c r="Y25" s="56">
         <v>0</v>
       </c>
       <c r="Z25" s="2">
@@ -4245,20 +4277,20 @@
       <c r="AS25" s="2"/>
     </row>
     <row r="26" customFormat="1" spans="1:45">
-      <c r="A26" s="18">
+      <c r="A26" s="19">
         <v>230004</v>
       </c>
-      <c r="B26" s="19" t="s">
+      <c r="B26" s="20" t="s">
         <v>50</v>
       </c>
-      <c r="C26" s="20" t="s">
+      <c r="C26" s="21" t="s">
         <v>51</v>
       </c>
       <c r="D26" s="2"/>
-      <c r="E26" s="21" t="s">
+      <c r="E26" s="22" t="s">
         <v>52</v>
       </c>
-      <c r="F26" s="21"/>
+      <c r="F26" s="22"/>
       <c r="G26" s="2">
         <v>170015</v>
       </c>
@@ -4271,7 +4303,7 @@
       <c r="J26" s="2">
         <v>0</v>
       </c>
-      <c r="K26" s="20" t="s">
+      <c r="K26" s="21" t="s">
         <v>53</v>
       </c>
       <c r="L26" s="2">
@@ -4311,7 +4343,7 @@
       <c r="X26" s="2">
         <v>300</v>
       </c>
-      <c r="Y26" s="55">
+      <c r="Y26" s="56">
         <v>0</v>
       </c>
       <c r="Z26" s="2">
@@ -4342,20 +4374,20 @@
       <c r="AS26" s="2"/>
     </row>
     <row r="27" customFormat="1" spans="1:45">
-      <c r="A27" s="18">
+      <c r="A27" s="19">
         <v>230005</v>
       </c>
-      <c r="B27" s="19" t="s">
+      <c r="B27" s="20" t="s">
         <v>50</v>
       </c>
-      <c r="C27" s="20" t="s">
+      <c r="C27" s="21" t="s">
         <v>51</v>
       </c>
       <c r="D27" s="2"/>
-      <c r="E27" s="21" t="s">
+      <c r="E27" s="22" t="s">
         <v>52</v>
       </c>
-      <c r="F27" s="21"/>
+      <c r="F27" s="22"/>
       <c r="G27" s="2">
         <v>170015</v>
       </c>
@@ -4368,7 +4400,7 @@
       <c r="J27" s="2">
         <v>0</v>
       </c>
-      <c r="K27" s="20" t="s">
+      <c r="K27" s="21" t="s">
         <v>53</v>
       </c>
       <c r="L27" s="2">
@@ -4408,7 +4440,7 @@
       <c r="X27" s="2">
         <v>300</v>
       </c>
-      <c r="Y27" s="55">
+      <c r="Y27" s="56">
         <v>0</v>
       </c>
       <c r="Z27" s="2">
@@ -4439,20 +4471,20 @@
       <c r="AS27" s="2"/>
     </row>
     <row r="28" customFormat="1" spans="1:45">
-      <c r="A28" s="18">
+      <c r="A28" s="19">
         <v>230006</v>
       </c>
-      <c r="B28" s="19" t="s">
+      <c r="B28" s="20" t="s">
         <v>50</v>
       </c>
-      <c r="C28" s="20" t="s">
+      <c r="C28" s="21" t="s">
         <v>51</v>
       </c>
       <c r="D28" s="2"/>
-      <c r="E28" s="21" t="s">
+      <c r="E28" s="22" t="s">
         <v>52</v>
       </c>
-      <c r="F28" s="21"/>
+      <c r="F28" s="22"/>
       <c r="G28" s="2">
         <v>170015</v>
       </c>
@@ -4465,7 +4497,7 @@
       <c r="J28" s="2">
         <v>0</v>
       </c>
-      <c r="K28" s="20" t="s">
+      <c r="K28" s="21" t="s">
         <v>53</v>
       </c>
       <c r="L28" s="2">
@@ -4505,7 +4537,7 @@
       <c r="X28" s="2">
         <v>300</v>
       </c>
-      <c r="Y28" s="55">
+      <c r="Y28" s="56">
         <v>0</v>
       </c>
       <c r="Z28" s="2">
@@ -4536,20 +4568,20 @@
       <c r="AS28" s="2"/>
     </row>
     <row r="29" customFormat="1" spans="1:45">
-      <c r="A29" s="18">
+      <c r="A29" s="19">
         <v>230007</v>
       </c>
-      <c r="B29" s="19" t="s">
+      <c r="B29" s="20" t="s">
         <v>50</v>
       </c>
-      <c r="C29" s="20" t="s">
+      <c r="C29" s="21" t="s">
         <v>51</v>
       </c>
       <c r="D29" s="2"/>
-      <c r="E29" s="21" t="s">
+      <c r="E29" s="22" t="s">
         <v>52</v>
       </c>
-      <c r="F29" s="21"/>
+      <c r="F29" s="22"/>
       <c r="G29" s="2">
         <v>170015</v>
       </c>
@@ -4562,7 +4594,7 @@
       <c r="J29" s="2">
         <v>0</v>
       </c>
-      <c r="K29" s="20" t="s">
+      <c r="K29" s="21" t="s">
         <v>53</v>
       </c>
       <c r="L29" s="2">
@@ -4602,7 +4634,7 @@
       <c r="X29" s="2">
         <v>300</v>
       </c>
-      <c r="Y29" s="55">
+      <c r="Y29" s="56">
         <v>0</v>
       </c>
       <c r="Z29" s="2">
@@ -4633,19 +4665,19 @@
       <c r="AS29" s="2"/>
     </row>
     <row r="30" s="3" customFormat="1" ht="14.25" spans="1:30">
-      <c r="A30" s="22">
+      <c r="A30" s="23">
         <v>231001</v>
       </c>
-      <c r="B30" s="23" t="s">
+      <c r="B30" s="24" t="s">
         <v>55</v>
       </c>
-      <c r="C30" s="24" t="s">
+      <c r="C30" s="25" t="s">
         <v>56</v>
       </c>
-      <c r="E30" s="25" t="s">
+      <c r="E30" s="26" t="s">
         <v>42</v>
       </c>
-      <c r="F30" s="25"/>
+      <c r="F30" s="26"/>
       <c r="G30" s="3">
         <v>150230</v>
       </c>
@@ -4658,7 +4690,7 @@
       <c r="J30" s="3">
         <v>0</v>
       </c>
-      <c r="K30" s="24" t="s">
+      <c r="K30" s="25" t="s">
         <v>57</v>
       </c>
       <c r="L30" s="3">
@@ -4679,10 +4711,10 @@
       <c r="Q30" s="3">
         <v>50</v>
       </c>
-      <c r="R30" s="48">
+      <c r="R30" s="49">
         <v>6915</v>
       </c>
-      <c r="T30" s="46">
+      <c r="T30" s="47">
         <v>170057</v>
       </c>
       <c r="U30" s="3">
@@ -4714,19 +4746,19 @@
       </c>
     </row>
     <row r="31" s="3" customFormat="1" ht="14.25" spans="1:30">
-      <c r="A31" s="22">
+      <c r="A31" s="23">
         <v>231002</v>
       </c>
-      <c r="B31" s="23" t="s">
+      <c r="B31" s="24" t="s">
         <v>55</v>
       </c>
-      <c r="C31" s="24" t="s">
+      <c r="C31" s="25" t="s">
         <v>56</v>
       </c>
-      <c r="E31" s="25" t="s">
+      <c r="E31" s="26" t="s">
         <v>42</v>
       </c>
-      <c r="F31" s="25"/>
+      <c r="F31" s="26"/>
       <c r="G31" s="3">
         <v>150230</v>
       </c>
@@ -4739,7 +4771,7 @@
       <c r="J31" s="3">
         <v>0</v>
       </c>
-      <c r="K31" s="24" t="s">
+      <c r="K31" s="25" t="s">
         <v>57</v>
       </c>
       <c r="L31" s="3">
@@ -4760,10 +4792,10 @@
       <c r="Q31" s="3">
         <v>50</v>
       </c>
-      <c r="R31" s="48">
+      <c r="R31" s="49">
         <v>6915</v>
       </c>
-      <c r="T31" s="46">
+      <c r="T31" s="47">
         <v>170057</v>
       </c>
       <c r="U31" s="3">
@@ -4795,19 +4827,19 @@
       </c>
     </row>
     <row r="32" s="3" customFormat="1" ht="14.25" spans="1:30">
-      <c r="A32" s="22">
+      <c r="A32" s="23">
         <v>231003</v>
       </c>
-      <c r="B32" s="23" t="s">
+      <c r="B32" s="24" t="s">
         <v>55</v>
       </c>
-      <c r="C32" s="24" t="s">
+      <c r="C32" s="25" t="s">
         <v>56</v>
       </c>
-      <c r="E32" s="25" t="s">
+      <c r="E32" s="26" t="s">
         <v>42</v>
       </c>
-      <c r="F32" s="25"/>
+      <c r="F32" s="26"/>
       <c r="G32" s="3">
         <v>150230</v>
       </c>
@@ -4820,7 +4852,7 @@
       <c r="J32" s="3">
         <v>0</v>
       </c>
-      <c r="K32" s="24" t="s">
+      <c r="K32" s="25" t="s">
         <v>57</v>
       </c>
       <c r="L32" s="3">
@@ -4841,10 +4873,10 @@
       <c r="Q32" s="3">
         <v>50</v>
       </c>
-      <c r="R32" s="48">
+      <c r="R32" s="49">
         <v>6915</v>
       </c>
-      <c r="T32" s="46">
+      <c r="T32" s="47">
         <v>170057</v>
       </c>
       <c r="U32" s="3">
@@ -4876,19 +4908,19 @@
       </c>
     </row>
     <row r="33" s="3" customFormat="1" ht="14.25" spans="1:30">
-      <c r="A33" s="22">
+      <c r="A33" s="23">
         <v>231004</v>
       </c>
-      <c r="B33" s="23" t="s">
+      <c r="B33" s="24" t="s">
         <v>55</v>
       </c>
-      <c r="C33" s="24" t="s">
+      <c r="C33" s="25" t="s">
         <v>56</v>
       </c>
-      <c r="E33" s="25" t="s">
+      <c r="E33" s="26" t="s">
         <v>42</v>
       </c>
-      <c r="F33" s="25"/>
+      <c r="F33" s="26"/>
       <c r="G33" s="3">
         <v>150230</v>
       </c>
@@ -4901,7 +4933,7 @@
       <c r="J33" s="3">
         <v>0</v>
       </c>
-      <c r="K33" s="24" t="s">
+      <c r="K33" s="25" t="s">
         <v>57</v>
       </c>
       <c r="L33" s="3">
@@ -4922,10 +4954,10 @@
       <c r="Q33" s="3">
         <v>50</v>
       </c>
-      <c r="R33" s="48">
+      <c r="R33" s="49">
         <v>6915</v>
       </c>
-      <c r="T33" s="46">
+      <c r="T33" s="47">
         <v>170057</v>
       </c>
       <c r="U33" s="3">
@@ -4957,19 +4989,19 @@
       </c>
     </row>
     <row r="34" s="3" customFormat="1" ht="14.25" spans="1:30">
-      <c r="A34" s="22">
+      <c r="A34" s="23">
         <v>231005</v>
       </c>
-      <c r="B34" s="23" t="s">
+      <c r="B34" s="24" t="s">
         <v>55</v>
       </c>
-      <c r="C34" s="24" t="s">
+      <c r="C34" s="25" t="s">
         <v>56</v>
       </c>
-      <c r="E34" s="25" t="s">
+      <c r="E34" s="26" t="s">
         <v>42</v>
       </c>
-      <c r="F34" s="25"/>
+      <c r="F34" s="26"/>
       <c r="G34" s="3">
         <v>150230</v>
       </c>
@@ -4982,7 +5014,7 @@
       <c r="J34" s="3">
         <v>0</v>
       </c>
-      <c r="K34" s="24" t="s">
+      <c r="K34" s="25" t="s">
         <v>57</v>
       </c>
       <c r="L34" s="3">
@@ -5003,10 +5035,10 @@
       <c r="Q34" s="3">
         <v>50</v>
       </c>
-      <c r="R34" s="48">
+      <c r="R34" s="49">
         <v>6915</v>
       </c>
-      <c r="T34" s="46">
+      <c r="T34" s="47">
         <v>170057</v>
       </c>
       <c r="U34" s="3">
@@ -5038,19 +5070,19 @@
       </c>
     </row>
     <row r="35" s="3" customFormat="1" ht="14.25" spans="1:30">
-      <c r="A35" s="22">
+      <c r="A35" s="23">
         <v>231006</v>
       </c>
-      <c r="B35" s="23" t="s">
+      <c r="B35" s="24" t="s">
         <v>55</v>
       </c>
-      <c r="C35" s="24" t="s">
+      <c r="C35" s="25" t="s">
         <v>56</v>
       </c>
-      <c r="E35" s="25" t="s">
+      <c r="E35" s="26" t="s">
         <v>42</v>
       </c>
-      <c r="F35" s="25"/>
+      <c r="F35" s="26"/>
       <c r="G35" s="3">
         <v>150230</v>
       </c>
@@ -5063,7 +5095,7 @@
       <c r="J35" s="3">
         <v>0</v>
       </c>
-      <c r="K35" s="24" t="s">
+      <c r="K35" s="25" t="s">
         <v>57</v>
       </c>
       <c r="L35" s="3">
@@ -5084,10 +5116,10 @@
       <c r="Q35" s="3">
         <v>50</v>
       </c>
-      <c r="R35" s="48">
+      <c r="R35" s="49">
         <v>6915</v>
       </c>
-      <c r="T35" s="46">
+      <c r="T35" s="47">
         <v>170057</v>
       </c>
       <c r="U35" s="3">
@@ -5119,19 +5151,19 @@
       </c>
     </row>
     <row r="36" s="3" customFormat="1" ht="14.25" spans="1:30">
-      <c r="A36" s="22">
+      <c r="A36" s="23">
         <v>231007</v>
       </c>
-      <c r="B36" s="23" t="s">
+      <c r="B36" s="24" t="s">
         <v>55</v>
       </c>
-      <c r="C36" s="24" t="s">
+      <c r="C36" s="25" t="s">
         <v>56</v>
       </c>
-      <c r="E36" s="25" t="s">
+      <c r="E36" s="26" t="s">
         <v>42</v>
       </c>
-      <c r="F36" s="25"/>
+      <c r="F36" s="26"/>
       <c r="G36" s="3">
         <v>150230</v>
       </c>
@@ -5144,7 +5176,7 @@
       <c r="J36" s="3">
         <v>0</v>
       </c>
-      <c r="K36" s="24" t="s">
+      <c r="K36" s="25" t="s">
         <v>57</v>
       </c>
       <c r="L36" s="3">
@@ -5165,10 +5197,10 @@
       <c r="Q36" s="3">
         <v>50</v>
       </c>
-      <c r="R36" s="48">
+      <c r="R36" s="49">
         <v>6915</v>
       </c>
-      <c r="T36" s="46">
+      <c r="T36" s="47">
         <v>170057</v>
       </c>
       <c r="U36" s="3">
@@ -5200,20 +5232,20 @@
       </c>
     </row>
     <row r="37" s="4" customFormat="1" ht="14.25" spans="1:30">
-      <c r="A37" s="26">
+      <c r="A37" s="27">
         <v>232001</v>
       </c>
-      <c r="B37" s="27" t="s">
+      <c r="B37" s="28" t="s">
         <v>58</v>
       </c>
-      <c r="C37" s="28" t="s">
+      <c r="C37" s="29" t="s">
         <v>51</v>
       </c>
-      <c r="D37" s="29"/>
-      <c r="E37" s="29" t="s">
+      <c r="D37" s="30"/>
+      <c r="E37" s="30" t="s">
         <v>42</v>
       </c>
-      <c r="F37" s="29"/>
+      <c r="F37" s="30"/>
       <c r="H37" s="4">
         <v>0</v>
       </c>
@@ -5223,7 +5255,7 @@
       <c r="J37" s="4">
         <v>0</v>
       </c>
-      <c r="K37" s="43" t="s">
+      <c r="K37" s="44" t="s">
         <v>59</v>
       </c>
       <c r="L37" s="4">
@@ -5247,7 +5279,7 @@
       <c r="R37" s="4">
         <v>6913</v>
       </c>
-      <c r="T37" s="46">
+      <c r="T37" s="47">
         <v>170057</v>
       </c>
       <c r="U37" s="4">
@@ -5256,10 +5288,10 @@
       <c r="V37" s="4">
         <v>0</v>
       </c>
-      <c r="W37" s="49">
+      <c r="W37" s="50">
         <v>25</v>
       </c>
-      <c r="X37" s="49">
+      <c r="X37" s="50">
         <v>300</v>
       </c>
       <c r="Y37" s="4">
@@ -5268,31 +5300,31 @@
       <c r="Z37" s="4">
         <v>0</v>
       </c>
-      <c r="AA37" s="49"/>
+      <c r="AA37" s="50"/>
       <c r="AB37" s="4">
         <v>0</v>
       </c>
       <c r="AC37" s="4">
         <v>0</v>
       </c>
-      <c r="AD37" s="26">
+      <c r="AD37" s="27">
         <v>232</v>
       </c>
     </row>
     <row r="38" s="4" customFormat="1" ht="14.25" spans="1:30">
-      <c r="A38" s="26">
+      <c r="A38" s="27">
         <v>232002</v>
       </c>
-      <c r="B38" s="27" t="s">
+      <c r="B38" s="28" t="s">
         <v>58</v>
       </c>
-      <c r="C38" s="28" t="s">
+      <c r="C38" s="29" t="s">
         <v>51</v>
       </c>
-      <c r="E38" s="29" t="s">
+      <c r="E38" s="30" t="s">
         <v>42</v>
       </c>
-      <c r="F38" s="29"/>
+      <c r="F38" s="30"/>
       <c r="H38" s="4">
         <v>0</v>
       </c>
@@ -5302,7 +5334,7 @@
       <c r="J38" s="4">
         <v>0</v>
       </c>
-      <c r="K38" s="43" t="s">
+      <c r="K38" s="44" t="s">
         <v>59</v>
       </c>
       <c r="L38" s="4">
@@ -5326,7 +5358,7 @@
       <c r="R38" s="4">
         <v>6913</v>
       </c>
-      <c r="T38" s="46">
+      <c r="T38" s="47">
         <v>170057</v>
       </c>
       <c r="U38" s="4">
@@ -5335,10 +5367,10 @@
       <c r="V38" s="4">
         <v>0</v>
       </c>
-      <c r="W38" s="49">
+      <c r="W38" s="50">
         <v>25</v>
       </c>
-      <c r="X38" s="49">
+      <c r="X38" s="50">
         <v>300</v>
       </c>
       <c r="Y38" s="4">
@@ -5347,31 +5379,31 @@
       <c r="Z38" s="4">
         <v>0</v>
       </c>
-      <c r="AA38" s="49"/>
+      <c r="AA38" s="50"/>
       <c r="AB38" s="4">
         <v>0</v>
       </c>
       <c r="AC38" s="4">
         <v>0</v>
       </c>
-      <c r="AD38" s="26">
+      <c r="AD38" s="27">
         <v>232</v>
       </c>
     </row>
     <row r="39" s="4" customFormat="1" ht="14.25" spans="1:30">
-      <c r="A39" s="26">
+      <c r="A39" s="27">
         <v>232003</v>
       </c>
-      <c r="B39" s="27" t="s">
+      <c r="B39" s="28" t="s">
         <v>58</v>
       </c>
-      <c r="C39" s="28" t="s">
+      <c r="C39" s="29" t="s">
         <v>51</v>
       </c>
-      <c r="E39" s="29" t="s">
+      <c r="E39" s="30" t="s">
         <v>42</v>
       </c>
-      <c r="F39" s="29"/>
+      <c r="F39" s="30"/>
       <c r="H39" s="4">
         <v>0</v>
       </c>
@@ -5381,7 +5413,7 @@
       <c r="J39" s="4">
         <v>0</v>
       </c>
-      <c r="K39" s="43" t="s">
+      <c r="K39" s="44" t="s">
         <v>59</v>
       </c>
       <c r="L39" s="4">
@@ -5405,7 +5437,7 @@
       <c r="R39" s="4">
         <v>6913</v>
       </c>
-      <c r="T39" s="46">
+      <c r="T39" s="47">
         <v>170057</v>
       </c>
       <c r="U39" s="4">
@@ -5414,10 +5446,10 @@
       <c r="V39" s="4">
         <v>0</v>
       </c>
-      <c r="W39" s="49">
+      <c r="W39" s="50">
         <v>25</v>
       </c>
-      <c r="X39" s="49">
+      <c r="X39" s="50">
         <v>300</v>
       </c>
       <c r="Y39" s="4">
@@ -5426,31 +5458,31 @@
       <c r="Z39" s="4">
         <v>0</v>
       </c>
-      <c r="AA39" s="49"/>
+      <c r="AA39" s="50"/>
       <c r="AB39" s="4">
         <v>0</v>
       </c>
       <c r="AC39" s="4">
         <v>0</v>
       </c>
-      <c r="AD39" s="26">
+      <c r="AD39" s="27">
         <v>232</v>
       </c>
     </row>
     <row r="40" s="4" customFormat="1" ht="14.25" spans="1:30">
-      <c r="A40" s="26">
+      <c r="A40" s="27">
         <v>232004</v>
       </c>
-      <c r="B40" s="27" t="s">
+      <c r="B40" s="28" t="s">
         <v>58</v>
       </c>
-      <c r="C40" s="28" t="s">
+      <c r="C40" s="29" t="s">
         <v>51</v>
       </c>
-      <c r="E40" s="29" t="s">
+      <c r="E40" s="30" t="s">
         <v>42</v>
       </c>
-      <c r="F40" s="29"/>
+      <c r="F40" s="30"/>
       <c r="H40" s="4">
         <v>0</v>
       </c>
@@ -5460,7 +5492,7 @@
       <c r="J40" s="4">
         <v>0</v>
       </c>
-      <c r="K40" s="43" t="s">
+      <c r="K40" s="44" t="s">
         <v>59</v>
       </c>
       <c r="L40" s="4">
@@ -5484,7 +5516,7 @@
       <c r="R40" s="4">
         <v>6913</v>
       </c>
-      <c r="T40" s="46">
+      <c r="T40" s="47">
         <v>170057</v>
       </c>
       <c r="U40" s="4">
@@ -5493,10 +5525,10 @@
       <c r="V40" s="4">
         <v>0</v>
       </c>
-      <c r="W40" s="49">
+      <c r="W40" s="50">
         <v>25</v>
       </c>
-      <c r="X40" s="49">
+      <c r="X40" s="50">
         <v>300</v>
       </c>
       <c r="Y40" s="4">
@@ -5505,31 +5537,31 @@
       <c r="Z40" s="4">
         <v>0</v>
       </c>
-      <c r="AA40" s="49"/>
+      <c r="AA40" s="50"/>
       <c r="AB40" s="4">
         <v>0</v>
       </c>
       <c r="AC40" s="4">
         <v>0</v>
       </c>
-      <c r="AD40" s="26">
+      <c r="AD40" s="27">
         <v>232</v>
       </c>
     </row>
     <row r="41" s="4" customFormat="1" ht="14.25" spans="1:30">
-      <c r="A41" s="26">
+      <c r="A41" s="27">
         <v>232005</v>
       </c>
-      <c r="B41" s="27" t="s">
+      <c r="B41" s="28" t="s">
         <v>58</v>
       </c>
-      <c r="C41" s="28" t="s">
+      <c r="C41" s="29" t="s">
         <v>51</v>
       </c>
-      <c r="E41" s="29" t="s">
+      <c r="E41" s="30" t="s">
         <v>42</v>
       </c>
-      <c r="F41" s="29"/>
+      <c r="F41" s="30"/>
       <c r="H41" s="4">
         <v>0</v>
       </c>
@@ -5539,7 +5571,7 @@
       <c r="J41" s="4">
         <v>0</v>
       </c>
-      <c r="K41" s="43" t="s">
+      <c r="K41" s="44" t="s">
         <v>59</v>
       </c>
       <c r="L41" s="4">
@@ -5563,7 +5595,7 @@
       <c r="R41" s="4">
         <v>6913</v>
       </c>
-      <c r="T41" s="46">
+      <c r="T41" s="47">
         <v>170057</v>
       </c>
       <c r="U41" s="4">
@@ -5572,10 +5604,10 @@
       <c r="V41" s="4">
         <v>0</v>
       </c>
-      <c r="W41" s="49">
+      <c r="W41" s="50">
         <v>25</v>
       </c>
-      <c r="X41" s="49">
+      <c r="X41" s="50">
         <v>300</v>
       </c>
       <c r="Y41" s="4">
@@ -5584,31 +5616,31 @@
       <c r="Z41" s="4">
         <v>0</v>
       </c>
-      <c r="AA41" s="49"/>
+      <c r="AA41" s="50"/>
       <c r="AB41" s="4">
         <v>0</v>
       </c>
       <c r="AC41" s="4">
         <v>0</v>
       </c>
-      <c r="AD41" s="26">
+      <c r="AD41" s="27">
         <v>232</v>
       </c>
     </row>
     <row r="42" s="4" customFormat="1" ht="14.25" spans="1:30">
-      <c r="A42" s="26">
+      <c r="A42" s="27">
         <v>232006</v>
       </c>
-      <c r="B42" s="27" t="s">
+      <c r="B42" s="28" t="s">
         <v>58</v>
       </c>
-      <c r="C42" s="28" t="s">
+      <c r="C42" s="29" t="s">
         <v>51</v>
       </c>
-      <c r="E42" s="29" t="s">
+      <c r="E42" s="30" t="s">
         <v>42</v>
       </c>
-      <c r="F42" s="29"/>
+      <c r="F42" s="30"/>
       <c r="H42" s="4">
         <v>0</v>
       </c>
@@ -5618,7 +5650,7 @@
       <c r="J42" s="4">
         <v>0</v>
       </c>
-      <c r="K42" s="43" t="s">
+      <c r="K42" s="44" t="s">
         <v>59</v>
       </c>
       <c r="L42" s="4">
@@ -5642,7 +5674,7 @@
       <c r="R42" s="4">
         <v>6913</v>
       </c>
-      <c r="T42" s="46">
+      <c r="T42" s="47">
         <v>170057</v>
       </c>
       <c r="U42" s="4">
@@ -5651,10 +5683,10 @@
       <c r="V42" s="4">
         <v>0</v>
       </c>
-      <c r="W42" s="49">
+      <c r="W42" s="50">
         <v>25</v>
       </c>
-      <c r="X42" s="49">
+      <c r="X42" s="50">
         <v>300</v>
       </c>
       <c r="Y42" s="4">
@@ -5663,31 +5695,31 @@
       <c r="Z42" s="4">
         <v>0</v>
       </c>
-      <c r="AA42" s="49"/>
+      <c r="AA42" s="50"/>
       <c r="AB42" s="4">
         <v>0</v>
       </c>
       <c r="AC42" s="4">
         <v>0</v>
       </c>
-      <c r="AD42" s="26">
+      <c r="AD42" s="27">
         <v>232</v>
       </c>
     </row>
     <row r="43" s="4" customFormat="1" ht="14.25" spans="1:30">
-      <c r="A43" s="26">
+      <c r="A43" s="27">
         <v>232007</v>
       </c>
-      <c r="B43" s="27" t="s">
+      <c r="B43" s="28" t="s">
         <v>58</v>
       </c>
-      <c r="C43" s="28" t="s">
+      <c r="C43" s="29" t="s">
         <v>51</v>
       </c>
-      <c r="E43" s="29" t="s">
+      <c r="E43" s="30" t="s">
         <v>42</v>
       </c>
-      <c r="F43" s="29"/>
+      <c r="F43" s="30"/>
       <c r="H43" s="4">
         <v>0</v>
       </c>
@@ -5697,7 +5729,7 @@
       <c r="J43" s="4">
         <v>0</v>
       </c>
-      <c r="K43" s="43" t="s">
+      <c r="K43" s="44" t="s">
         <v>59</v>
       </c>
       <c r="L43" s="4">
@@ -5721,7 +5753,7 @@
       <c r="R43" s="4">
         <v>6913</v>
       </c>
-      <c r="T43" s="46">
+      <c r="T43" s="47">
         <v>170057</v>
       </c>
       <c r="U43" s="4">
@@ -5730,10 +5762,10 @@
       <c r="V43" s="4">
         <v>0</v>
       </c>
-      <c r="W43" s="49">
+      <c r="W43" s="50">
         <v>25</v>
       </c>
-      <c r="X43" s="49">
+      <c r="X43" s="50">
         <v>300</v>
       </c>
       <c r="Y43" s="4">
@@ -5742,31 +5774,31 @@
       <c r="Z43" s="4">
         <v>0</v>
       </c>
-      <c r="AA43" s="49"/>
+      <c r="AA43" s="50"/>
       <c r="AB43" s="4">
         <v>0</v>
       </c>
       <c r="AC43" s="4">
         <v>0</v>
       </c>
-      <c r="AD43" s="26">
+      <c r="AD43" s="27">
         <v>232</v>
       </c>
     </row>
     <row r="44" s="5" customFormat="1" ht="14.25" spans="1:30">
-      <c r="A44" s="30">
+      <c r="A44" s="31">
         <v>245001</v>
       </c>
-      <c r="B44" s="31" t="s">
+      <c r="B44" s="32" t="s">
         <v>61</v>
       </c>
-      <c r="C44" s="32" t="s">
+      <c r="C44" s="33" t="s">
         <v>62</v>
       </c>
-      <c r="E44" s="33" t="s">
+      <c r="E44" s="34" t="s">
         <v>42</v>
       </c>
-      <c r="F44" s="33"/>
+      <c r="F44" s="34"/>
       <c r="G44" s="5">
         <v>191061</v>
       </c>
@@ -5779,7 +5811,7 @@
       <c r="J44" s="5">
         <v>0</v>
       </c>
-      <c r="K44" s="32" t="s">
+      <c r="K44" s="33" t="s">
         <v>63</v>
       </c>
       <c r="L44" s="5">
@@ -5800,10 +5832,10 @@
       <c r="Q44" s="5">
         <v>30</v>
       </c>
-      <c r="R44" s="50">
+      <c r="R44" s="51">
         <v>6922</v>
       </c>
-      <c r="T44" s="46">
+      <c r="T44" s="47">
         <v>170057</v>
       </c>
       <c r="U44" s="5">
@@ -5824,31 +5856,31 @@
       <c r="Z44" s="5">
         <v>0</v>
       </c>
-      <c r="AA44" s="56"/>
+      <c r="AA44" s="57"/>
       <c r="AB44" s="5">
         <v>1</v>
       </c>
       <c r="AC44" s="5">
         <v>0</v>
       </c>
-      <c r="AD44" s="30">
+      <c r="AD44" s="31">
         <v>245</v>
       </c>
     </row>
     <row r="45" s="5" customFormat="1" ht="14.25" spans="1:30">
-      <c r="A45" s="30">
+      <c r="A45" s="31">
         <v>245002</v>
       </c>
-      <c r="B45" s="31" t="s">
+      <c r="B45" s="32" t="s">
         <v>61</v>
       </c>
-      <c r="C45" s="32" t="s">
+      <c r="C45" s="33" t="s">
         <v>62</v>
       </c>
-      <c r="E45" s="33" t="s">
+      <c r="E45" s="34" t="s">
         <v>42</v>
       </c>
-      <c r="F45" s="33"/>
+      <c r="F45" s="34"/>
       <c r="G45" s="5">
         <v>191061</v>
       </c>
@@ -5861,7 +5893,7 @@
       <c r="J45" s="5">
         <v>0</v>
       </c>
-      <c r="K45" s="32" t="s">
+      <c r="K45" s="33" t="s">
         <v>63</v>
       </c>
       <c r="L45" s="5">
@@ -5882,10 +5914,10 @@
       <c r="Q45" s="5">
         <v>30</v>
       </c>
-      <c r="R45" s="50">
+      <c r="R45" s="51">
         <v>6922</v>
       </c>
-      <c r="T45" s="46">
+      <c r="T45" s="47">
         <v>170057</v>
       </c>
       <c r="U45" s="5">
@@ -5906,31 +5938,31 @@
       <c r="Z45" s="5">
         <v>0</v>
       </c>
-      <c r="AA45" s="56"/>
+      <c r="AA45" s="57"/>
       <c r="AB45" s="5">
         <v>1</v>
       </c>
       <c r="AC45" s="5">
         <v>0</v>
       </c>
-      <c r="AD45" s="30">
+      <c r="AD45" s="31">
         <v>245</v>
       </c>
     </row>
     <row r="46" s="5" customFormat="1" ht="14.25" spans="1:30">
-      <c r="A46" s="30">
+      <c r="A46" s="31">
         <v>245003</v>
       </c>
-      <c r="B46" s="31" t="s">
+      <c r="B46" s="32" t="s">
         <v>61</v>
       </c>
-      <c r="C46" s="32" t="s">
+      <c r="C46" s="33" t="s">
         <v>62</v>
       </c>
-      <c r="E46" s="33" t="s">
+      <c r="E46" s="34" t="s">
         <v>42</v>
       </c>
-      <c r="F46" s="33"/>
+      <c r="F46" s="34"/>
       <c r="G46" s="5">
         <v>191061</v>
       </c>
@@ -5943,7 +5975,7 @@
       <c r="J46" s="5">
         <v>0</v>
       </c>
-      <c r="K46" s="32" t="s">
+      <c r="K46" s="33" t="s">
         <v>63</v>
       </c>
       <c r="L46" s="5">
@@ -5964,10 +5996,10 @@
       <c r="Q46" s="5">
         <v>30</v>
       </c>
-      <c r="R46" s="50">
+      <c r="R46" s="51">
         <v>6922</v>
       </c>
-      <c r="T46" s="46">
+      <c r="T46" s="47">
         <v>170057</v>
       </c>
       <c r="U46" s="5">
@@ -5988,31 +6020,31 @@
       <c r="Z46" s="5">
         <v>0</v>
       </c>
-      <c r="AA46" s="56"/>
+      <c r="AA46" s="57"/>
       <c r="AB46" s="5">
         <v>1</v>
       </c>
       <c r="AC46" s="5">
         <v>0</v>
       </c>
-      <c r="AD46" s="30">
+      <c r="AD46" s="31">
         <v>245</v>
       </c>
     </row>
     <row r="47" s="5" customFormat="1" ht="14.25" spans="1:30">
-      <c r="A47" s="30">
+      <c r="A47" s="31">
         <v>245004</v>
       </c>
-      <c r="B47" s="31" t="s">
+      <c r="B47" s="32" t="s">
         <v>61</v>
       </c>
-      <c r="C47" s="32" t="s">
+      <c r="C47" s="33" t="s">
         <v>62</v>
       </c>
-      <c r="E47" s="33" t="s">
+      <c r="E47" s="34" t="s">
         <v>42</v>
       </c>
-      <c r="F47" s="33"/>
+      <c r="F47" s="34"/>
       <c r="G47" s="5">
         <v>191061</v>
       </c>
@@ -6025,7 +6057,7 @@
       <c r="J47" s="5">
         <v>0</v>
       </c>
-      <c r="K47" s="32" t="s">
+      <c r="K47" s="33" t="s">
         <v>63</v>
       </c>
       <c r="L47" s="5">
@@ -6046,10 +6078,10 @@
       <c r="Q47" s="5">
         <v>30</v>
       </c>
-      <c r="R47" s="50">
+      <c r="R47" s="51">
         <v>6922</v>
       </c>
-      <c r="T47" s="46">
+      <c r="T47" s="47">
         <v>170057</v>
       </c>
       <c r="U47" s="5">
@@ -6070,31 +6102,31 @@
       <c r="Z47" s="5">
         <v>0</v>
       </c>
-      <c r="AA47" s="56"/>
+      <c r="AA47" s="57"/>
       <c r="AB47" s="5">
         <v>1</v>
       </c>
       <c r="AC47" s="5">
         <v>0</v>
       </c>
-      <c r="AD47" s="30">
+      <c r="AD47" s="31">
         <v>245</v>
       </c>
     </row>
     <row r="48" s="5" customFormat="1" ht="14.25" spans="1:30">
-      <c r="A48" s="30">
+      <c r="A48" s="31">
         <v>245005</v>
       </c>
-      <c r="B48" s="31" t="s">
+      <c r="B48" s="32" t="s">
         <v>61</v>
       </c>
-      <c r="C48" s="32" t="s">
+      <c r="C48" s="33" t="s">
         <v>62</v>
       </c>
-      <c r="E48" s="33" t="s">
+      <c r="E48" s="34" t="s">
         <v>42</v>
       </c>
-      <c r="F48" s="33"/>
+      <c r="F48" s="34"/>
       <c r="G48" s="5">
         <v>191061</v>
       </c>
@@ -6107,7 +6139,7 @@
       <c r="J48" s="5">
         <v>0</v>
       </c>
-      <c r="K48" s="32" t="s">
+      <c r="K48" s="33" t="s">
         <v>63</v>
       </c>
       <c r="L48" s="5">
@@ -6128,10 +6160,10 @@
       <c r="Q48" s="5">
         <v>30</v>
       </c>
-      <c r="R48" s="50">
+      <c r="R48" s="51">
         <v>6922</v>
       </c>
-      <c r="T48" s="46">
+      <c r="T48" s="47">
         <v>170057</v>
       </c>
       <c r="U48" s="5">
@@ -6152,31 +6184,31 @@
       <c r="Z48" s="5">
         <v>0</v>
       </c>
-      <c r="AA48" s="56"/>
+      <c r="AA48" s="57"/>
       <c r="AB48" s="5">
         <v>1</v>
       </c>
       <c r="AC48" s="5">
         <v>0</v>
       </c>
-      <c r="AD48" s="30">
+      <c r="AD48" s="31">
         <v>245</v>
       </c>
     </row>
     <row r="49" s="5" customFormat="1" ht="14.25" spans="1:30">
-      <c r="A49" s="30">
+      <c r="A49" s="31">
         <v>245006</v>
       </c>
-      <c r="B49" s="31" t="s">
+      <c r="B49" s="32" t="s">
         <v>61</v>
       </c>
-      <c r="C49" s="32" t="s">
+      <c r="C49" s="33" t="s">
         <v>62</v>
       </c>
-      <c r="E49" s="33" t="s">
+      <c r="E49" s="34" t="s">
         <v>42</v>
       </c>
-      <c r="F49" s="33"/>
+      <c r="F49" s="34"/>
       <c r="G49" s="5">
         <v>191061</v>
       </c>
@@ -6189,7 +6221,7 @@
       <c r="J49" s="5">
         <v>0</v>
       </c>
-      <c r="K49" s="32" t="s">
+      <c r="K49" s="33" t="s">
         <v>63</v>
       </c>
       <c r="L49" s="5">
@@ -6210,10 +6242,10 @@
       <c r="Q49" s="5">
         <v>30</v>
       </c>
-      <c r="R49" s="50">
+      <c r="R49" s="51">
         <v>6922</v>
       </c>
-      <c r="T49" s="46">
+      <c r="T49" s="47">
         <v>170057</v>
       </c>
       <c r="U49" s="5">
@@ -6234,31 +6266,31 @@
       <c r="Z49" s="5">
         <v>0</v>
       </c>
-      <c r="AA49" s="56"/>
+      <c r="AA49" s="57"/>
       <c r="AB49" s="5">
         <v>1</v>
       </c>
       <c r="AC49" s="5">
         <v>0</v>
       </c>
-      <c r="AD49" s="30">
+      <c r="AD49" s="31">
         <v>245</v>
       </c>
     </row>
     <row r="50" s="5" customFormat="1" ht="14.25" spans="1:30">
-      <c r="A50" s="30">
+      <c r="A50" s="31">
         <v>245007</v>
       </c>
-      <c r="B50" s="31" t="s">
+      <c r="B50" s="32" t="s">
         <v>61</v>
       </c>
-      <c r="C50" s="32" t="s">
+      <c r="C50" s="33" t="s">
         <v>62</v>
       </c>
-      <c r="E50" s="33" t="s">
+      <c r="E50" s="34" t="s">
         <v>42</v>
       </c>
-      <c r="F50" s="33"/>
+      <c r="F50" s="34"/>
       <c r="G50" s="5">
         <v>191061</v>
       </c>
@@ -6271,7 +6303,7 @@
       <c r="J50" s="5">
         <v>0</v>
       </c>
-      <c r="K50" s="32" t="s">
+      <c r="K50" s="33" t="s">
         <v>63</v>
       </c>
       <c r="L50" s="5">
@@ -6292,10 +6324,10 @@
       <c r="Q50" s="5">
         <v>30</v>
       </c>
-      <c r="R50" s="50">
+      <c r="R50" s="51">
         <v>6922</v>
       </c>
-      <c r="T50" s="46">
+      <c r="T50" s="47">
         <v>170057</v>
       </c>
       <c r="U50" s="5">
@@ -6316,32 +6348,32 @@
       <c r="Z50" s="5">
         <v>0</v>
       </c>
-      <c r="AA50" s="56"/>
+      <c r="AA50" s="57"/>
       <c r="AB50" s="5">
         <v>1</v>
       </c>
       <c r="AC50" s="5">
         <v>0</v>
       </c>
-      <c r="AD50" s="30">
+      <c r="AD50" s="31">
         <v>245</v>
       </c>
     </row>
     <row r="51" s="6" customFormat="1" ht="14.25" spans="1:30">
-      <c r="A51" s="34">
+      <c r="A51" s="35">
         <v>234001</v>
       </c>
       <c r="B51" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="C51" s="35" t="s">
+      <c r="C51" s="36" t="s">
         <v>65</v>
       </c>
-      <c r="D51" s="35"/>
-      <c r="E51" s="35" t="s">
+      <c r="D51" s="36"/>
+      <c r="E51" s="36" t="s">
         <v>42</v>
       </c>
-      <c r="F51" s="35"/>
+      <c r="F51" s="36"/>
       <c r="G51" s="6">
         <v>191060</v>
       </c>
@@ -6354,7 +6386,7 @@
       <c r="J51" s="6">
         <v>0</v>
       </c>
-      <c r="K51" s="35" t="s">
+      <c r="K51" s="36" t="s">
         <v>66</v>
       </c>
       <c r="L51" s="6">
@@ -6375,11 +6407,11 @@
       <c r="Q51" s="6">
         <v>60</v>
       </c>
-      <c r="R51" s="51">
+      <c r="R51" s="52">
         <v>6918</v>
       </c>
-      <c r="S51" s="51"/>
-      <c r="T51" s="46">
+      <c r="S51" s="52"/>
+      <c r="T51" s="47">
         <v>170057</v>
       </c>
       <c r="U51" s="6">
@@ -6406,25 +6438,25 @@
       <c r="AC51" s="6">
         <v>0</v>
       </c>
-      <c r="AD51" s="34">
+      <c r="AD51" s="35">
         <v>234</v>
       </c>
     </row>
     <row r="52" s="6" customFormat="1" ht="14.25" spans="1:30">
-      <c r="A52" s="34">
+      <c r="A52" s="35">
         <v>234002</v>
       </c>
       <c r="B52" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="C52" s="35" t="s">
+      <c r="C52" s="36" t="s">
         <v>65</v>
       </c>
-      <c r="D52" s="35"/>
-      <c r="E52" s="35" t="s">
+      <c r="D52" s="36"/>
+      <c r="E52" s="36" t="s">
         <v>42</v>
       </c>
-      <c r="F52" s="35"/>
+      <c r="F52" s="36"/>
       <c r="G52" s="6">
         <v>191060</v>
       </c>
@@ -6437,10 +6469,10 @@
       <c r="J52" s="6">
         <v>0</v>
       </c>
-      <c r="K52" s="35" t="s">
+      <c r="K52" s="36" t="s">
         <v>66</v>
       </c>
-      <c r="L52" s="44">
+      <c r="L52" s="45">
         <v>2</v>
       </c>
       <c r="M52" s="6">
@@ -6458,11 +6490,11 @@
       <c r="Q52" s="6">
         <v>60</v>
       </c>
-      <c r="R52" s="51">
+      <c r="R52" s="52">
         <v>6918</v>
       </c>
-      <c r="S52" s="51"/>
-      <c r="T52" s="46">
+      <c r="S52" s="52"/>
+      <c r="T52" s="47">
         <v>170057</v>
       </c>
       <c r="U52" s="6">
@@ -6489,25 +6521,25 @@
       <c r="AC52" s="6">
         <v>0</v>
       </c>
-      <c r="AD52" s="34">
+      <c r="AD52" s="35">
         <v>234</v>
       </c>
     </row>
     <row r="53" s="6" customFormat="1" ht="14.25" spans="1:30">
-      <c r="A53" s="34">
+      <c r="A53" s="35">
         <v>234003</v>
       </c>
       <c r="B53" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="C53" s="35" t="s">
+      <c r="C53" s="36" t="s">
         <v>65</v>
       </c>
-      <c r="D53" s="35"/>
-      <c r="E53" s="35" t="s">
+      <c r="D53" s="36"/>
+      <c r="E53" s="36" t="s">
         <v>42</v>
       </c>
-      <c r="F53" s="35"/>
+      <c r="F53" s="36"/>
       <c r="G53" s="6">
         <v>191060</v>
       </c>
@@ -6520,7 +6552,7 @@
       <c r="J53" s="6">
         <v>0</v>
       </c>
-      <c r="K53" s="35" t="s">
+      <c r="K53" s="36" t="s">
         <v>66</v>
       </c>
       <c r="L53" s="6">
@@ -6541,11 +6573,11 @@
       <c r="Q53" s="6">
         <v>60</v>
       </c>
-      <c r="R53" s="51">
+      <c r="R53" s="52">
         <v>6918</v>
       </c>
-      <c r="S53" s="51"/>
-      <c r="T53" s="46">
+      <c r="S53" s="52"/>
+      <c r="T53" s="47">
         <v>170057</v>
       </c>
       <c r="U53" s="6">
@@ -6572,25 +6604,25 @@
       <c r="AC53" s="6">
         <v>0</v>
       </c>
-      <c r="AD53" s="34">
+      <c r="AD53" s="35">
         <v>234</v>
       </c>
     </row>
     <row r="54" s="6" customFormat="1" ht="14.25" spans="1:30">
-      <c r="A54" s="34">
+      <c r="A54" s="35">
         <v>234004</v>
       </c>
       <c r="B54" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="C54" s="35" t="s">
+      <c r="C54" s="36" t="s">
         <v>65</v>
       </c>
-      <c r="D54" s="35"/>
-      <c r="E54" s="35" t="s">
+      <c r="D54" s="36"/>
+      <c r="E54" s="36" t="s">
         <v>42</v>
       </c>
-      <c r="F54" s="35"/>
+      <c r="F54" s="36"/>
       <c r="G54" s="6">
         <v>191060</v>
       </c>
@@ -6603,7 +6635,7 @@
       <c r="J54" s="6">
         <v>0</v>
       </c>
-      <c r="K54" s="35" t="s">
+      <c r="K54" s="36" t="s">
         <v>66</v>
       </c>
       <c r="L54" s="6">
@@ -6624,11 +6656,11 @@
       <c r="Q54" s="6">
         <v>60</v>
       </c>
-      <c r="R54" s="51">
+      <c r="R54" s="52">
         <v>6918</v>
       </c>
-      <c r="S54" s="51"/>
-      <c r="T54" s="46">
+      <c r="S54" s="52"/>
+      <c r="T54" s="47">
         <v>170057</v>
       </c>
       <c r="U54" s="6">
@@ -6655,25 +6687,25 @@
       <c r="AC54" s="6">
         <v>0</v>
       </c>
-      <c r="AD54" s="34">
+      <c r="AD54" s="35">
         <v>234</v>
       </c>
     </row>
     <row r="55" s="6" customFormat="1" ht="14.25" spans="1:30">
-      <c r="A55" s="34">
+      <c r="A55" s="35">
         <v>234005</v>
       </c>
       <c r="B55" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="C55" s="35" t="s">
+      <c r="C55" s="36" t="s">
         <v>65</v>
       </c>
-      <c r="D55" s="35"/>
-      <c r="E55" s="35" t="s">
+      <c r="D55" s="36"/>
+      <c r="E55" s="36" t="s">
         <v>42</v>
       </c>
-      <c r="F55" s="35"/>
+      <c r="F55" s="36"/>
       <c r="G55" s="6">
         <v>191060</v>
       </c>
@@ -6686,7 +6718,7 @@
       <c r="J55" s="6">
         <v>0</v>
       </c>
-      <c r="K55" s="35" t="s">
+      <c r="K55" s="36" t="s">
         <v>66</v>
       </c>
       <c r="L55" s="6">
@@ -6707,11 +6739,11 @@
       <c r="Q55" s="6">
         <v>60</v>
       </c>
-      <c r="R55" s="51">
+      <c r="R55" s="52">
         <v>6918</v>
       </c>
-      <c r="S55" s="51"/>
-      <c r="T55" s="46">
+      <c r="S55" s="52"/>
+      <c r="T55" s="47">
         <v>170057</v>
       </c>
       <c r="U55" s="6">
@@ -6738,25 +6770,25 @@
       <c r="AC55" s="6">
         <v>0</v>
       </c>
-      <c r="AD55" s="34">
+      <c r="AD55" s="35">
         <v>234</v>
       </c>
     </row>
     <row r="56" s="6" customFormat="1" ht="14.25" spans="1:30">
-      <c r="A56" s="34">
+      <c r="A56" s="35">
         <v>234006</v>
       </c>
       <c r="B56" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="C56" s="35" t="s">
+      <c r="C56" s="36" t="s">
         <v>65</v>
       </c>
-      <c r="D56" s="35"/>
-      <c r="E56" s="35" t="s">
+      <c r="D56" s="36"/>
+      <c r="E56" s="36" t="s">
         <v>42</v>
       </c>
-      <c r="F56" s="35"/>
+      <c r="F56" s="36"/>
       <c r="G56" s="6">
         <v>191060</v>
       </c>
@@ -6769,7 +6801,7 @@
       <c r="J56" s="6">
         <v>0</v>
       </c>
-      <c r="K56" s="35" t="s">
+      <c r="K56" s="36" t="s">
         <v>66</v>
       </c>
       <c r="L56" s="6">
@@ -6790,11 +6822,11 @@
       <c r="Q56" s="6">
         <v>60</v>
       </c>
-      <c r="R56" s="51">
+      <c r="R56" s="52">
         <v>6918</v>
       </c>
-      <c r="S56" s="51"/>
-      <c r="T56" s="46">
+      <c r="S56" s="52"/>
+      <c r="T56" s="47">
         <v>170057</v>
       </c>
       <c r="U56" s="6">
@@ -6821,25 +6853,25 @@
       <c r="AC56" s="6">
         <v>0</v>
       </c>
-      <c r="AD56" s="34">
+      <c r="AD56" s="35">
         <v>234</v>
       </c>
     </row>
     <row r="57" s="6" customFormat="1" ht="14.25" spans="1:30">
-      <c r="A57" s="34">
+      <c r="A57" s="35">
         <v>234007</v>
       </c>
       <c r="B57" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="C57" s="35" t="s">
+      <c r="C57" s="36" t="s">
         <v>65</v>
       </c>
-      <c r="D57" s="35"/>
-      <c r="E57" s="35" t="s">
+      <c r="D57" s="36"/>
+      <c r="E57" s="36" t="s">
         <v>42</v>
       </c>
-      <c r="F57" s="35"/>
+      <c r="F57" s="36"/>
       <c r="G57" s="6">
         <v>191060</v>
       </c>
@@ -6852,7 +6884,7 @@
       <c r="J57" s="6">
         <v>0</v>
       </c>
-      <c r="K57" s="35" t="s">
+      <c r="K57" s="36" t="s">
         <v>66</v>
       </c>
       <c r="L57" s="6">
@@ -6873,11 +6905,11 @@
       <c r="Q57" s="6">
         <v>60</v>
       </c>
-      <c r="R57" s="51">
+      <c r="R57" s="52">
         <v>6918</v>
       </c>
-      <c r="S57" s="51"/>
-      <c r="T57" s="46">
+      <c r="S57" s="52"/>
+      <c r="T57" s="47">
         <v>170057</v>
       </c>
       <c r="U57" s="6">
@@ -6904,24 +6936,24 @@
       <c r="AC57" s="6">
         <v>0</v>
       </c>
-      <c r="AD57" s="34">
+      <c r="AD57" s="35">
         <v>234</v>
       </c>
     </row>
     <row r="58" s="7" customFormat="1" ht="14.25" spans="1:30">
-      <c r="A58" s="36">
+      <c r="A58" s="37">
         <v>235001</v>
       </c>
-      <c r="B58" s="37" t="s">
+      <c r="B58" s="38" t="s">
         <v>67</v>
       </c>
-      <c r="C58" s="38" t="s">
+      <c r="C58" s="39" t="s">
         <v>68</v>
       </c>
-      <c r="E58" s="39" t="s">
+      <c r="E58" s="40" t="s">
         <v>42</v>
       </c>
-      <c r="F58" s="39"/>
+      <c r="F58" s="40"/>
       <c r="G58" s="7">
         <v>191057</v>
       </c>
@@ -6934,7 +6966,7 @@
       <c r="J58" s="7">
         <v>0</v>
       </c>
-      <c r="K58" s="39" t="s">
+      <c r="K58" s="40" t="s">
         <v>69</v>
       </c>
       <c r="L58" s="7">
@@ -6958,7 +6990,7 @@
       <c r="R58" s="7">
         <v>6921</v>
       </c>
-      <c r="T58" s="46">
+      <c r="T58" s="47">
         <v>170057</v>
       </c>
       <c r="U58" s="7">
@@ -6985,24 +7017,24 @@
       <c r="AC58" s="7">
         <v>0</v>
       </c>
-      <c r="AD58" s="36">
+      <c r="AD58" s="37">
         <v>235</v>
       </c>
     </row>
     <row r="59" s="7" customFormat="1" ht="14.25" spans="1:30">
-      <c r="A59" s="36">
+      <c r="A59" s="37">
         <v>235002</v>
       </c>
-      <c r="B59" s="37" t="s">
+      <c r="B59" s="38" t="s">
         <v>67</v>
       </c>
-      <c r="C59" s="38" t="s">
+      <c r="C59" s="39" t="s">
         <v>68</v>
       </c>
-      <c r="E59" s="39" t="s">
+      <c r="E59" s="40" t="s">
         <v>42</v>
       </c>
-      <c r="F59" s="39"/>
+      <c r="F59" s="40"/>
       <c r="G59" s="7">
         <v>191057</v>
       </c>
@@ -7015,7 +7047,7 @@
       <c r="J59" s="7">
         <v>0</v>
       </c>
-      <c r="K59" s="39" t="s">
+      <c r="K59" s="40" t="s">
         <v>69</v>
       </c>
       <c r="L59" s="7">
@@ -7039,7 +7071,7 @@
       <c r="R59" s="7">
         <v>6921</v>
       </c>
-      <c r="T59" s="46">
+      <c r="T59" s="47">
         <v>170057</v>
       </c>
       <c r="U59" s="7">
@@ -7066,24 +7098,24 @@
       <c r="AC59" s="7">
         <v>0</v>
       </c>
-      <c r="AD59" s="36">
+      <c r="AD59" s="37">
         <v>235</v>
       </c>
     </row>
     <row r="60" s="7" customFormat="1" ht="14.25" spans="1:30">
-      <c r="A60" s="36">
+      <c r="A60" s="37">
         <v>235003</v>
       </c>
-      <c r="B60" s="37" t="s">
+      <c r="B60" s="38" t="s">
         <v>67</v>
       </c>
-      <c r="C60" s="38" t="s">
+      <c r="C60" s="39" t="s">
         <v>68</v>
       </c>
-      <c r="E60" s="39" t="s">
+      <c r="E60" s="40" t="s">
         <v>42</v>
       </c>
-      <c r="F60" s="39"/>
+      <c r="F60" s="40"/>
       <c r="G60" s="7">
         <v>191057</v>
       </c>
@@ -7096,7 +7128,7 @@
       <c r="J60" s="7">
         <v>0</v>
       </c>
-      <c r="K60" s="39" t="s">
+      <c r="K60" s="40" t="s">
         <v>69</v>
       </c>
       <c r="L60" s="7">
@@ -7120,7 +7152,7 @@
       <c r="R60" s="7">
         <v>6921</v>
       </c>
-      <c r="T60" s="46">
+      <c r="T60" s="47">
         <v>170057</v>
       </c>
       <c r="U60" s="7">
@@ -7147,24 +7179,24 @@
       <c r="AC60" s="7">
         <v>0</v>
       </c>
-      <c r="AD60" s="36">
+      <c r="AD60" s="37">
         <v>235</v>
       </c>
     </row>
     <row r="61" s="7" customFormat="1" ht="14.25" spans="1:30">
-      <c r="A61" s="36">
+      <c r="A61" s="37">
         <v>235004</v>
       </c>
-      <c r="B61" s="37" t="s">
+      <c r="B61" s="38" t="s">
         <v>67</v>
       </c>
-      <c r="C61" s="38" t="s">
+      <c r="C61" s="39" t="s">
         <v>68</v>
       </c>
-      <c r="E61" s="39" t="s">
+      <c r="E61" s="40" t="s">
         <v>42</v>
       </c>
-      <c r="F61" s="39"/>
+      <c r="F61" s="40"/>
       <c r="G61" s="7">
         <v>191057</v>
       </c>
@@ -7177,7 +7209,7 @@
       <c r="J61" s="7">
         <v>0</v>
       </c>
-      <c r="K61" s="39" t="s">
+      <c r="K61" s="40" t="s">
         <v>69</v>
       </c>
       <c r="L61" s="7">
@@ -7201,7 +7233,7 @@
       <c r="R61" s="7">
         <v>6921</v>
       </c>
-      <c r="T61" s="46">
+      <c r="T61" s="47">
         <v>170057</v>
       </c>
       <c r="U61" s="7">
@@ -7228,24 +7260,24 @@
       <c r="AC61" s="7">
         <v>0</v>
       </c>
-      <c r="AD61" s="36">
+      <c r="AD61" s="37">
         <v>235</v>
       </c>
     </row>
     <row r="62" s="7" customFormat="1" ht="14.25" spans="1:30">
-      <c r="A62" s="36">
+      <c r="A62" s="37">
         <v>235005</v>
       </c>
-      <c r="B62" s="37" t="s">
+      <c r="B62" s="38" t="s">
         <v>67</v>
       </c>
-      <c r="C62" s="38" t="s">
+      <c r="C62" s="39" t="s">
         <v>68</v>
       </c>
-      <c r="E62" s="39" t="s">
+      <c r="E62" s="40" t="s">
         <v>42</v>
       </c>
-      <c r="F62" s="39"/>
+      <c r="F62" s="40"/>
       <c r="G62" s="7">
         <v>191057</v>
       </c>
@@ -7258,7 +7290,7 @@
       <c r="J62" s="7">
         <v>0</v>
       </c>
-      <c r="K62" s="39" t="s">
+      <c r="K62" s="40" t="s">
         <v>69</v>
       </c>
       <c r="L62" s="7">
@@ -7282,7 +7314,7 @@
       <c r="R62" s="7">
         <v>6921</v>
       </c>
-      <c r="T62" s="46">
+      <c r="T62" s="47">
         <v>170057</v>
       </c>
       <c r="U62" s="7">
@@ -7309,24 +7341,24 @@
       <c r="AC62" s="7">
         <v>0</v>
       </c>
-      <c r="AD62" s="36">
+      <c r="AD62" s="37">
         <v>235</v>
       </c>
     </row>
     <row r="63" s="7" customFormat="1" ht="14.25" spans="1:30">
-      <c r="A63" s="36">
+      <c r="A63" s="37">
         <v>235006</v>
       </c>
-      <c r="B63" s="37" t="s">
+      <c r="B63" s="38" t="s">
         <v>67</v>
       </c>
-      <c r="C63" s="38" t="s">
+      <c r="C63" s="39" t="s">
         <v>68</v>
       </c>
-      <c r="E63" s="39" t="s">
+      <c r="E63" s="40" t="s">
         <v>42</v>
       </c>
-      <c r="F63" s="39"/>
+      <c r="F63" s="40"/>
       <c r="G63" s="7">
         <v>191057</v>
       </c>
@@ -7339,7 +7371,7 @@
       <c r="J63" s="7">
         <v>0</v>
       </c>
-      <c r="K63" s="39" t="s">
+      <c r="K63" s="40" t="s">
         <v>69</v>
       </c>
       <c r="L63" s="7">
@@ -7363,7 +7395,7 @@
       <c r="R63" s="7">
         <v>6921</v>
       </c>
-      <c r="T63" s="46">
+      <c r="T63" s="47">
         <v>170057</v>
       </c>
       <c r="U63" s="7">
@@ -7390,24 +7422,24 @@
       <c r="AC63" s="7">
         <v>0</v>
       </c>
-      <c r="AD63" s="36">
+      <c r="AD63" s="37">
         <v>235</v>
       </c>
     </row>
     <row r="64" s="7" customFormat="1" ht="14.25" spans="1:30">
-      <c r="A64" s="36">
+      <c r="A64" s="37">
         <v>235007</v>
       </c>
-      <c r="B64" s="37" t="s">
+      <c r="B64" s="38" t="s">
         <v>67</v>
       </c>
-      <c r="C64" s="38" t="s">
+      <c r="C64" s="39" t="s">
         <v>68</v>
       </c>
-      <c r="E64" s="39" t="s">
+      <c r="E64" s="40" t="s">
         <v>42</v>
       </c>
-      <c r="F64" s="39"/>
+      <c r="F64" s="40"/>
       <c r="G64" s="7">
         <v>191057</v>
       </c>
@@ -7420,7 +7452,7 @@
       <c r="J64" s="7">
         <v>0</v>
       </c>
-      <c r="K64" s="39" t="s">
+      <c r="K64" s="40" t="s">
         <v>69</v>
       </c>
       <c r="L64" s="7">
@@ -7444,7 +7476,7 @@
       <c r="R64" s="7">
         <v>6921</v>
       </c>
-      <c r="T64" s="46">
+      <c r="T64" s="47">
         <v>170057</v>
       </c>
       <c r="U64" s="7">
@@ -7471,24 +7503,24 @@
       <c r="AC64" s="7">
         <v>0</v>
       </c>
-      <c r="AD64" s="36">
+      <c r="AD64" s="37">
         <v>235</v>
       </c>
     </row>
     <row r="65" s="8" customFormat="1" ht="14.25" spans="1:30">
-      <c r="A65" s="58">
+      <c r="A65" s="59">
         <v>236001</v>
       </c>
-      <c r="B65" s="59" t="s">
+      <c r="B65" s="60" t="s">
         <v>70</v>
       </c>
-      <c r="C65" s="60" t="s">
+      <c r="C65" s="61" t="s">
         <v>71</v>
       </c>
-      <c r="E65" s="61" t="s">
+      <c r="E65" s="62" t="s">
         <v>42</v>
       </c>
-      <c r="F65" s="61"/>
+      <c r="F65" s="62"/>
       <c r="G65" s="8">
         <v>191054</v>
       </c>
@@ -7501,7 +7533,7 @@
       <c r="J65" s="8">
         <v>0</v>
       </c>
-      <c r="K65" s="61" t="s">
+      <c r="K65" s="62" t="s">
         <v>72</v>
       </c>
       <c r="L65" s="8">
@@ -7525,7 +7557,7 @@
       <c r="R65" s="8">
         <v>6923</v>
       </c>
-      <c r="T65" s="46">
+      <c r="T65" s="47">
         <v>170057</v>
       </c>
       <c r="U65" s="8">
@@ -7552,24 +7584,24 @@
       <c r="AC65" s="8">
         <v>0</v>
       </c>
-      <c r="AD65" s="58">
+      <c r="AD65" s="59">
         <v>236</v>
       </c>
     </row>
     <row r="66" s="8" customFormat="1" ht="14.25" spans="1:30">
-      <c r="A66" s="58">
+      <c r="A66" s="59">
         <v>236002</v>
       </c>
-      <c r="B66" s="59" t="s">
+      <c r="B66" s="60" t="s">
         <v>70</v>
       </c>
-      <c r="C66" s="60" t="s">
+      <c r="C66" s="61" t="s">
         <v>71</v>
       </c>
-      <c r="E66" s="61" t="s">
+      <c r="E66" s="62" t="s">
         <v>42</v>
       </c>
-      <c r="F66" s="61"/>
+      <c r="F66" s="62"/>
       <c r="G66" s="8">
         <v>191054</v>
       </c>
@@ -7582,7 +7614,7 @@
       <c r="J66" s="8">
         <v>0</v>
       </c>
-      <c r="K66" s="61" t="s">
+      <c r="K66" s="62" t="s">
         <v>72</v>
       </c>
       <c r="L66" s="8">
@@ -7606,7 +7638,7 @@
       <c r="R66" s="8">
         <v>6923</v>
       </c>
-      <c r="T66" s="46">
+      <c r="T66" s="47">
         <v>170057</v>
       </c>
       <c r="U66" s="8">
@@ -7633,24 +7665,24 @@
       <c r="AC66" s="8">
         <v>0</v>
       </c>
-      <c r="AD66" s="58">
+      <c r="AD66" s="59">
         <v>236</v>
       </c>
     </row>
     <row r="67" s="8" customFormat="1" ht="14.25" spans="1:30">
-      <c r="A67" s="58">
+      <c r="A67" s="59">
         <v>236003</v>
       </c>
-      <c r="B67" s="59" t="s">
+      <c r="B67" s="60" t="s">
         <v>70</v>
       </c>
-      <c r="C67" s="60" t="s">
+      <c r="C67" s="61" t="s">
         <v>71</v>
       </c>
-      <c r="E67" s="61" t="s">
+      <c r="E67" s="62" t="s">
         <v>42</v>
       </c>
-      <c r="F67" s="61"/>
+      <c r="F67" s="62"/>
       <c r="G67" s="8">
         <v>191054</v>
       </c>
@@ -7663,7 +7695,7 @@
       <c r="J67" s="8">
         <v>0</v>
       </c>
-      <c r="K67" s="61" t="s">
+      <c r="K67" s="62" t="s">
         <v>72</v>
       </c>
       <c r="L67" s="8">
@@ -7687,7 +7719,7 @@
       <c r="R67" s="8">
         <v>6923</v>
       </c>
-      <c r="T67" s="46">
+      <c r="T67" s="47">
         <v>170057</v>
       </c>
       <c r="U67" s="8">
@@ -7714,24 +7746,24 @@
       <c r="AC67" s="8">
         <v>0</v>
       </c>
-      <c r="AD67" s="58">
+      <c r="AD67" s="59">
         <v>236</v>
       </c>
     </row>
     <row r="68" s="8" customFormat="1" ht="14.25" spans="1:30">
-      <c r="A68" s="58">
+      <c r="A68" s="59">
         <v>236004</v>
       </c>
-      <c r="B68" s="59" t="s">
+      <c r="B68" s="60" t="s">
         <v>70</v>
       </c>
-      <c r="C68" s="60" t="s">
+      <c r="C68" s="61" t="s">
         <v>71</v>
       </c>
-      <c r="E68" s="61" t="s">
+      <c r="E68" s="62" t="s">
         <v>42</v>
       </c>
-      <c r="F68" s="61"/>
+      <c r="F68" s="62"/>
       <c r="G68" s="8">
         <v>191054</v>
       </c>
@@ -7744,7 +7776,7 @@
       <c r="J68" s="8">
         <v>0</v>
       </c>
-      <c r="K68" s="61" t="s">
+      <c r="K68" s="62" t="s">
         <v>72</v>
       </c>
       <c r="L68" s="8">
@@ -7768,7 +7800,7 @@
       <c r="R68" s="8">
         <v>6923</v>
       </c>
-      <c r="T68" s="46">
+      <c r="T68" s="47">
         <v>170057</v>
       </c>
       <c r="U68" s="8">
@@ -7795,24 +7827,24 @@
       <c r="AC68" s="8">
         <v>0</v>
       </c>
-      <c r="AD68" s="58">
+      <c r="AD68" s="59">
         <v>236</v>
       </c>
     </row>
     <row r="69" s="8" customFormat="1" ht="14.25" spans="1:30">
-      <c r="A69" s="58">
+      <c r="A69" s="59">
         <v>236005</v>
       </c>
-      <c r="B69" s="59" t="s">
+      <c r="B69" s="60" t="s">
         <v>70</v>
       </c>
-      <c r="C69" s="60" t="s">
+      <c r="C69" s="61" t="s">
         <v>71</v>
       </c>
-      <c r="E69" s="61" t="s">
+      <c r="E69" s="62" t="s">
         <v>42</v>
       </c>
-      <c r="F69" s="61"/>
+      <c r="F69" s="62"/>
       <c r="G69" s="8">
         <v>191054</v>
       </c>
@@ -7825,7 +7857,7 @@
       <c r="J69" s="8">
         <v>0</v>
       </c>
-      <c r="K69" s="61" t="s">
+      <c r="K69" s="62" t="s">
         <v>72</v>
       </c>
       <c r="L69" s="8">
@@ -7849,7 +7881,7 @@
       <c r="R69" s="8">
         <v>6923</v>
       </c>
-      <c r="T69" s="46">
+      <c r="T69" s="47">
         <v>170057</v>
       </c>
       <c r="U69" s="8">
@@ -7876,24 +7908,24 @@
       <c r="AC69" s="8">
         <v>0</v>
       </c>
-      <c r="AD69" s="58">
+      <c r="AD69" s="59">
         <v>236</v>
       </c>
     </row>
     <row r="70" s="8" customFormat="1" ht="14.25" spans="1:30">
-      <c r="A70" s="58">
+      <c r="A70" s="59">
         <v>236006</v>
       </c>
-      <c r="B70" s="59" t="s">
+      <c r="B70" s="60" t="s">
         <v>70</v>
       </c>
-      <c r="C70" s="60" t="s">
+      <c r="C70" s="61" t="s">
         <v>71</v>
       </c>
-      <c r="E70" s="61" t="s">
+      <c r="E70" s="62" t="s">
         <v>42</v>
       </c>
-      <c r="F70" s="61"/>
+      <c r="F70" s="62"/>
       <c r="G70" s="8">
         <v>191054</v>
       </c>
@@ -7906,7 +7938,7 @@
       <c r="J70" s="8">
         <v>0</v>
       </c>
-      <c r="K70" s="61" t="s">
+      <c r="K70" s="62" t="s">
         <v>72</v>
       </c>
       <c r="L70" s="8">
@@ -7930,7 +7962,7 @@
       <c r="R70" s="8">
         <v>6923</v>
       </c>
-      <c r="T70" s="46">
+      <c r="T70" s="47">
         <v>170057</v>
       </c>
       <c r="U70" s="8">
@@ -7957,24 +7989,24 @@
       <c r="AC70" s="8">
         <v>0</v>
       </c>
-      <c r="AD70" s="58">
+      <c r="AD70" s="59">
         <v>236</v>
       </c>
     </row>
     <row r="71" s="8" customFormat="1" ht="14.25" spans="1:30">
-      <c r="A71" s="58">
+      <c r="A71" s="59">
         <v>236007</v>
       </c>
-      <c r="B71" s="59" t="s">
+      <c r="B71" s="60" t="s">
         <v>70</v>
       </c>
-      <c r="C71" s="60" t="s">
+      <c r="C71" s="61" t="s">
         <v>71</v>
       </c>
-      <c r="E71" s="61" t="s">
+      <c r="E71" s="62" t="s">
         <v>42</v>
       </c>
-      <c r="F71" s="61"/>
+      <c r="F71" s="62"/>
       <c r="G71" s="8">
         <v>191054</v>
       </c>
@@ -7987,7 +8019,7 @@
       <c r="J71" s="8">
         <v>0</v>
       </c>
-      <c r="K71" s="61" t="s">
+      <c r="K71" s="62" t="s">
         <v>72</v>
       </c>
       <c r="L71" s="8">
@@ -8011,7 +8043,7 @@
       <c r="R71" s="8">
         <v>6923</v>
       </c>
-      <c r="T71" s="46">
+      <c r="T71" s="47">
         <v>170057</v>
       </c>
       <c r="U71" s="8">
@@ -8038,24 +8070,24 @@
       <c r="AC71" s="8">
         <v>0</v>
       </c>
-      <c r="AD71" s="58">
+      <c r="AD71" s="59">
         <v>236</v>
       </c>
     </row>
     <row r="72" s="9" customFormat="1" ht="14.25" spans="1:30">
-      <c r="A72" s="62">
+      <c r="A72" s="63">
         <v>237001</v>
       </c>
-      <c r="B72" s="63" t="s">
+      <c r="B72" s="64" t="s">
         <v>73</v>
       </c>
-      <c r="C72" s="64" t="s">
+      <c r="C72" s="65" t="s">
         <v>74</v>
       </c>
-      <c r="E72" s="65" t="s">
+      <c r="E72" s="66" t="s">
         <v>42</v>
       </c>
-      <c r="F72" s="65"/>
+      <c r="F72" s="66"/>
       <c r="G72" s="9">
         <v>191059</v>
       </c>
@@ -8068,7 +8100,7 @@
       <c r="J72" s="9">
         <v>0</v>
       </c>
-      <c r="K72" s="77" t="s">
+      <c r="K72" s="82" t="s">
         <v>75</v>
       </c>
       <c r="L72" s="9">
@@ -8092,7 +8124,7 @@
       <c r="R72" s="9">
         <v>6924</v>
       </c>
-      <c r="T72" s="46">
+      <c r="T72" s="47">
         <v>170057</v>
       </c>
       <c r="U72" s="9">
@@ -8104,7 +8136,7 @@
       <c r="W72" s="1">
         <v>60</v>
       </c>
-      <c r="X72" s="80">
+      <c r="X72" s="87">
         <v>300</v>
       </c>
       <c r="Y72" s="9">
@@ -8119,24 +8151,24 @@
       <c r="AC72" s="9">
         <v>0</v>
       </c>
-      <c r="AD72" s="62">
+      <c r="AD72" s="63">
         <v>237</v>
       </c>
     </row>
     <row r="73" s="9" customFormat="1" ht="14.25" spans="1:30">
-      <c r="A73" s="62">
+      <c r="A73" s="63">
         <v>237002</v>
       </c>
-      <c r="B73" s="63" t="s">
+      <c r="B73" s="64" t="s">
         <v>73</v>
       </c>
-      <c r="C73" s="64" t="s">
+      <c r="C73" s="65" t="s">
         <v>74</v>
       </c>
-      <c r="E73" s="65" t="s">
+      <c r="E73" s="66" t="s">
         <v>42</v>
       </c>
-      <c r="F73" s="65"/>
+      <c r="F73" s="66"/>
       <c r="G73" s="9">
         <v>191059</v>
       </c>
@@ -8149,7 +8181,7 @@
       <c r="J73" s="9">
         <v>0</v>
       </c>
-      <c r="K73" s="77" t="s">
+      <c r="K73" s="82" t="s">
         <v>75</v>
       </c>
       <c r="L73" s="9">
@@ -8173,7 +8205,7 @@
       <c r="R73" s="9">
         <v>6924</v>
       </c>
-      <c r="T73" s="46">
+      <c r="T73" s="47">
         <v>170057</v>
       </c>
       <c r="U73" s="9">
@@ -8185,7 +8217,7 @@
       <c r="W73" s="1">
         <v>60</v>
       </c>
-      <c r="X73" s="80">
+      <c r="X73" s="87">
         <v>300</v>
       </c>
       <c r="Y73" s="9">
@@ -8200,24 +8232,24 @@
       <c r="AC73" s="9">
         <v>0</v>
       </c>
-      <c r="AD73" s="62">
+      <c r="AD73" s="63">
         <v>237</v>
       </c>
     </row>
     <row r="74" s="9" customFormat="1" ht="14.25" spans="1:30">
-      <c r="A74" s="62">
+      <c r="A74" s="63">
         <v>237003</v>
       </c>
-      <c r="B74" s="63" t="s">
+      <c r="B74" s="64" t="s">
         <v>73</v>
       </c>
-      <c r="C74" s="64" t="s">
+      <c r="C74" s="65" t="s">
         <v>74</v>
       </c>
-      <c r="E74" s="65" t="s">
+      <c r="E74" s="66" t="s">
         <v>42</v>
       </c>
-      <c r="F74" s="65"/>
+      <c r="F74" s="66"/>
       <c r="G74" s="9">
         <v>191059</v>
       </c>
@@ -8230,7 +8262,7 @@
       <c r="J74" s="9">
         <v>0</v>
       </c>
-      <c r="K74" s="77" t="s">
+      <c r="K74" s="82" t="s">
         <v>75</v>
       </c>
       <c r="L74" s="9">
@@ -8254,7 +8286,7 @@
       <c r="R74" s="9">
         <v>6924</v>
       </c>
-      <c r="T74" s="46">
+      <c r="T74" s="47">
         <v>170057</v>
       </c>
       <c r="U74" s="9">
@@ -8266,7 +8298,7 @@
       <c r="W74" s="1">
         <v>60</v>
       </c>
-      <c r="X74" s="80">
+      <c r="X74" s="87">
         <v>300</v>
       </c>
       <c r="Y74" s="9">
@@ -8281,24 +8313,24 @@
       <c r="AC74" s="9">
         <v>0</v>
       </c>
-      <c r="AD74" s="62">
+      <c r="AD74" s="63">
         <v>237</v>
       </c>
     </row>
     <row r="75" s="9" customFormat="1" ht="14.25" spans="1:30">
-      <c r="A75" s="62">
+      <c r="A75" s="63">
         <v>237004</v>
       </c>
-      <c r="B75" s="63" t="s">
+      <c r="B75" s="64" t="s">
         <v>73</v>
       </c>
-      <c r="C75" s="64" t="s">
+      <c r="C75" s="65" t="s">
         <v>74</v>
       </c>
-      <c r="E75" s="65" t="s">
+      <c r="E75" s="66" t="s">
         <v>42</v>
       </c>
-      <c r="F75" s="65"/>
+      <c r="F75" s="66"/>
       <c r="G75" s="9">
         <v>191059</v>
       </c>
@@ -8311,7 +8343,7 @@
       <c r="J75" s="9">
         <v>0</v>
       </c>
-      <c r="K75" s="77" t="s">
+      <c r="K75" s="82" t="s">
         <v>75</v>
       </c>
       <c r="L75" s="9">
@@ -8335,7 +8367,7 @@
       <c r="R75" s="9">
         <v>6924</v>
       </c>
-      <c r="T75" s="46">
+      <c r="T75" s="47">
         <v>170057</v>
       </c>
       <c r="U75" s="9">
@@ -8347,7 +8379,7 @@
       <c r="W75" s="1">
         <v>60</v>
       </c>
-      <c r="X75" s="80">
+      <c r="X75" s="87">
         <v>300</v>
       </c>
       <c r="Y75" s="9">
@@ -8362,24 +8394,24 @@
       <c r="AC75" s="9">
         <v>0</v>
       </c>
-      <c r="AD75" s="62">
+      <c r="AD75" s="63">
         <v>237</v>
       </c>
     </row>
     <row r="76" s="9" customFormat="1" ht="14.25" spans="1:30">
-      <c r="A76" s="62">
+      <c r="A76" s="63">
         <v>237005</v>
       </c>
-      <c r="B76" s="63" t="s">
+      <c r="B76" s="64" t="s">
         <v>73</v>
       </c>
-      <c r="C76" s="64" t="s">
+      <c r="C76" s="65" t="s">
         <v>74</v>
       </c>
-      <c r="E76" s="65" t="s">
+      <c r="E76" s="66" t="s">
         <v>42</v>
       </c>
-      <c r="F76" s="65"/>
+      <c r="F76" s="66"/>
       <c r="G76" s="9">
         <v>191059</v>
       </c>
@@ -8392,7 +8424,7 @@
       <c r="J76" s="9">
         <v>0</v>
       </c>
-      <c r="K76" s="77" t="s">
+      <c r="K76" s="82" t="s">
         <v>75</v>
       </c>
       <c r="L76" s="9">
@@ -8416,7 +8448,7 @@
       <c r="R76" s="9">
         <v>6924</v>
       </c>
-      <c r="T76" s="46">
+      <c r="T76" s="47">
         <v>170057</v>
       </c>
       <c r="U76" s="9">
@@ -8428,7 +8460,7 @@
       <c r="W76" s="1">
         <v>60</v>
       </c>
-      <c r="X76" s="80">
+      <c r="X76" s="87">
         <v>300</v>
       </c>
       <c r="Y76" s="9">
@@ -8443,24 +8475,24 @@
       <c r="AC76" s="9">
         <v>0</v>
       </c>
-      <c r="AD76" s="62">
+      <c r="AD76" s="63">
         <v>237</v>
       </c>
     </row>
     <row r="77" s="9" customFormat="1" ht="14.25" spans="1:30">
-      <c r="A77" s="62">
+      <c r="A77" s="63">
         <v>237006</v>
       </c>
-      <c r="B77" s="63" t="s">
+      <c r="B77" s="64" t="s">
         <v>73</v>
       </c>
-      <c r="C77" s="64" t="s">
+      <c r="C77" s="65" t="s">
         <v>74</v>
       </c>
-      <c r="E77" s="65" t="s">
+      <c r="E77" s="66" t="s">
         <v>42</v>
       </c>
-      <c r="F77" s="65"/>
+      <c r="F77" s="66"/>
       <c r="G77" s="9">
         <v>191059</v>
       </c>
@@ -8473,7 +8505,7 @@
       <c r="J77" s="9">
         <v>0</v>
       </c>
-      <c r="K77" s="77" t="s">
+      <c r="K77" s="82" t="s">
         <v>75</v>
       </c>
       <c r="L77" s="9">
@@ -8497,7 +8529,7 @@
       <c r="R77" s="9">
         <v>6924</v>
       </c>
-      <c r="T77" s="46">
+      <c r="T77" s="47">
         <v>170057</v>
       </c>
       <c r="U77" s="9">
@@ -8509,7 +8541,7 @@
       <c r="W77" s="1">
         <v>60</v>
       </c>
-      <c r="X77" s="80">
+      <c r="X77" s="87">
         <v>300</v>
       </c>
       <c r="Y77" s="9">
@@ -8524,24 +8556,24 @@
       <c r="AC77" s="9">
         <v>0</v>
       </c>
-      <c r="AD77" s="62">
+      <c r="AD77" s="63">
         <v>237</v>
       </c>
     </row>
     <row r="78" s="9" customFormat="1" ht="14.25" spans="1:30">
-      <c r="A78" s="62">
+      <c r="A78" s="63">
         <v>237007</v>
       </c>
-      <c r="B78" s="63" t="s">
+      <c r="B78" s="64" t="s">
         <v>73</v>
       </c>
-      <c r="C78" s="64" t="s">
+      <c r="C78" s="65" t="s">
         <v>74</v>
       </c>
-      <c r="E78" s="65" t="s">
+      <c r="E78" s="66" t="s">
         <v>42</v>
       </c>
-      <c r="F78" s="65"/>
+      <c r="F78" s="66"/>
       <c r="G78" s="9">
         <v>191059</v>
       </c>
@@ -8554,7 +8586,7 @@
       <c r="J78" s="9">
         <v>0</v>
       </c>
-      <c r="K78" s="77" t="s">
+      <c r="K78" s="82" t="s">
         <v>75</v>
       </c>
       <c r="L78" s="9">
@@ -8578,7 +8610,7 @@
       <c r="R78" s="9">
         <v>6924</v>
       </c>
-      <c r="T78" s="46">
+      <c r="T78" s="47">
         <v>170057</v>
       </c>
       <c r="U78" s="9">
@@ -8590,7 +8622,7 @@
       <c r="W78" s="1">
         <v>60</v>
       </c>
-      <c r="X78" s="80">
+      <c r="X78" s="87">
         <v>300</v>
       </c>
       <c r="Y78" s="9">
@@ -8605,21 +8637,21 @@
       <c r="AC78" s="9">
         <v>0</v>
       </c>
-      <c r="AD78" s="62">
+      <c r="AD78" s="63">
         <v>237</v>
       </c>
     </row>
     <row r="79" s="10" customFormat="1" ht="14.25" spans="1:30">
-      <c r="A79" s="66">
+      <c r="A79" s="67">
         <v>238001</v>
       </c>
-      <c r="B79" s="67" t="s">
+      <c r="B79" s="68" t="s">
         <v>76</v>
       </c>
-      <c r="C79" s="68" t="s">
+      <c r="C79" s="69" t="s">
         <v>77</v>
       </c>
-      <c r="E79" s="69" t="s">
+      <c r="E79" s="70" t="s">
         <v>78</v>
       </c>
       <c r="G79" s="10">
@@ -8634,7 +8666,7 @@
       <c r="J79" s="10">
         <v>0</v>
       </c>
-      <c r="K79" s="78" t="s">
+      <c r="K79" s="83" t="s">
         <v>79</v>
       </c>
       <c r="L79" s="10">
@@ -8658,7 +8690,7 @@
       <c r="R79" s="10">
         <v>6925</v>
       </c>
-      <c r="T79" s="46">
+      <c r="T79" s="47">
         <v>170057</v>
       </c>
       <c r="U79" s="10">
@@ -8670,7 +8702,7 @@
       <c r="W79" s="1">
         <v>60</v>
       </c>
-      <c r="X79" s="81">
+      <c r="X79" s="88">
         <v>300</v>
       </c>
       <c r="Y79" s="10">
@@ -8685,21 +8717,21 @@
       <c r="AC79" s="10">
         <v>0</v>
       </c>
-      <c r="AD79" s="66">
+      <c r="AD79" s="67">
         <v>238</v>
       </c>
     </row>
     <row r="80" s="10" customFormat="1" ht="14.25" spans="1:30">
-      <c r="A80" s="66">
+      <c r="A80" s="67">
         <v>238002</v>
       </c>
-      <c r="B80" s="67" t="s">
+      <c r="B80" s="68" t="s">
         <v>76</v>
       </c>
-      <c r="C80" s="68" t="s">
+      <c r="C80" s="69" t="s">
         <v>77</v>
       </c>
-      <c r="E80" s="69" t="s">
+      <c r="E80" s="70" t="s">
         <v>78</v>
       </c>
       <c r="G80" s="10">
@@ -8714,7 +8746,7 @@
       <c r="J80" s="10">
         <v>0</v>
       </c>
-      <c r="K80" s="78" t="s">
+      <c r="K80" s="83" t="s">
         <v>79</v>
       </c>
       <c r="L80" s="10">
@@ -8738,7 +8770,7 @@
       <c r="R80" s="10">
         <v>6925</v>
       </c>
-      <c r="T80" s="46">
+      <c r="T80" s="47">
         <v>170057</v>
       </c>
       <c r="U80" s="10">
@@ -8750,7 +8782,7 @@
       <c r="W80" s="1">
         <v>60</v>
       </c>
-      <c r="X80" s="81">
+      <c r="X80" s="88">
         <v>300</v>
       </c>
       <c r="Y80" s="10">
@@ -8765,21 +8797,21 @@
       <c r="AC80" s="10">
         <v>0</v>
       </c>
-      <c r="AD80" s="66">
+      <c r="AD80" s="67">
         <v>238</v>
       </c>
     </row>
     <row r="81" s="10" customFormat="1" ht="14.25" spans="1:30">
-      <c r="A81" s="66">
+      <c r="A81" s="67">
         <v>238003</v>
       </c>
-      <c r="B81" s="67" t="s">
+      <c r="B81" s="68" t="s">
         <v>76</v>
       </c>
-      <c r="C81" s="68" t="s">
+      <c r="C81" s="69" t="s">
         <v>77</v>
       </c>
-      <c r="E81" s="69" t="s">
+      <c r="E81" s="70" t="s">
         <v>78</v>
       </c>
       <c r="G81" s="10">
@@ -8794,7 +8826,7 @@
       <c r="J81" s="10">
         <v>0</v>
       </c>
-      <c r="K81" s="78" t="s">
+      <c r="K81" s="83" t="s">
         <v>79</v>
       </c>
       <c r="L81" s="10">
@@ -8818,7 +8850,7 @@
       <c r="R81" s="10">
         <v>6925</v>
       </c>
-      <c r="T81" s="46">
+      <c r="T81" s="47">
         <v>170057</v>
       </c>
       <c r="U81" s="10">
@@ -8830,7 +8862,7 @@
       <c r="W81" s="1">
         <v>60</v>
       </c>
-      <c r="X81" s="81">
+      <c r="X81" s="88">
         <v>300</v>
       </c>
       <c r="Y81" s="10">
@@ -8845,21 +8877,21 @@
       <c r="AC81" s="10">
         <v>0</v>
       </c>
-      <c r="AD81" s="66">
+      <c r="AD81" s="67">
         <v>238</v>
       </c>
     </row>
     <row r="82" s="10" customFormat="1" ht="14.25" spans="1:30">
-      <c r="A82" s="66">
+      <c r="A82" s="67">
         <v>238004</v>
       </c>
-      <c r="B82" s="67" t="s">
+      <c r="B82" s="68" t="s">
         <v>76</v>
       </c>
-      <c r="C82" s="68" t="s">
+      <c r="C82" s="69" t="s">
         <v>77</v>
       </c>
-      <c r="E82" s="69" t="s">
+      <c r="E82" s="70" t="s">
         <v>78</v>
       </c>
       <c r="G82" s="10">
@@ -8874,7 +8906,7 @@
       <c r="J82" s="10">
         <v>0</v>
       </c>
-      <c r="K82" s="78" t="s">
+      <c r="K82" s="83" t="s">
         <v>79</v>
       </c>
       <c r="L82" s="10">
@@ -8898,7 +8930,7 @@
       <c r="R82" s="10">
         <v>6925</v>
       </c>
-      <c r="T82" s="46">
+      <c r="T82" s="47">
         <v>170057</v>
       </c>
       <c r="U82" s="10">
@@ -8910,7 +8942,7 @@
       <c r="W82" s="1">
         <v>60</v>
       </c>
-      <c r="X82" s="81">
+      <c r="X82" s="88">
         <v>300</v>
       </c>
       <c r="Y82" s="10">
@@ -8925,21 +8957,21 @@
       <c r="AC82" s="10">
         <v>0</v>
       </c>
-      <c r="AD82" s="66">
+      <c r="AD82" s="67">
         <v>238</v>
       </c>
     </row>
     <row r="83" s="10" customFormat="1" ht="14.25" spans="1:30">
-      <c r="A83" s="66">
+      <c r="A83" s="67">
         <v>238005</v>
       </c>
-      <c r="B83" s="67" t="s">
+      <c r="B83" s="68" t="s">
         <v>76</v>
       </c>
-      <c r="C83" s="68" t="s">
+      <c r="C83" s="69" t="s">
         <v>77</v>
       </c>
-      <c r="E83" s="69" t="s">
+      <c r="E83" s="70" t="s">
         <v>78</v>
       </c>
       <c r="G83" s="10">
@@ -8954,7 +8986,7 @@
       <c r="J83" s="10">
         <v>0</v>
       </c>
-      <c r="K83" s="78" t="s">
+      <c r="K83" s="83" t="s">
         <v>79</v>
       </c>
       <c r="L83" s="10">
@@ -8978,7 +9010,7 @@
       <c r="R83" s="10">
         <v>6925</v>
       </c>
-      <c r="T83" s="46">
+      <c r="T83" s="47">
         <v>170057</v>
       </c>
       <c r="U83" s="10">
@@ -8990,7 +9022,7 @@
       <c r="W83" s="1">
         <v>60</v>
       </c>
-      <c r="X83" s="81">
+      <c r="X83" s="88">
         <v>300</v>
       </c>
       <c r="Y83" s="10">
@@ -9005,21 +9037,21 @@
       <c r="AC83" s="10">
         <v>0</v>
       </c>
-      <c r="AD83" s="66">
+      <c r="AD83" s="67">
         <v>238</v>
       </c>
     </row>
     <row r="84" s="10" customFormat="1" ht="14.25" spans="1:30">
-      <c r="A84" s="66">
+      <c r="A84" s="67">
         <v>238006</v>
       </c>
-      <c r="B84" s="67" t="s">
+      <c r="B84" s="68" t="s">
         <v>76</v>
       </c>
-      <c r="C84" s="68" t="s">
+      <c r="C84" s="69" t="s">
         <v>77</v>
       </c>
-      <c r="E84" s="69" t="s">
+      <c r="E84" s="70" t="s">
         <v>78</v>
       </c>
       <c r="G84" s="10">
@@ -9034,7 +9066,7 @@
       <c r="J84" s="10">
         <v>0</v>
       </c>
-      <c r="K84" s="78" t="s">
+      <c r="K84" s="83" t="s">
         <v>79</v>
       </c>
       <c r="L84" s="10">
@@ -9058,7 +9090,7 @@
       <c r="R84" s="10">
         <v>6925</v>
       </c>
-      <c r="T84" s="46">
+      <c r="T84" s="47">
         <v>170057</v>
       </c>
       <c r="U84" s="10">
@@ -9070,7 +9102,7 @@
       <c r="W84" s="1">
         <v>60</v>
       </c>
-      <c r="X84" s="81">
+      <c r="X84" s="88">
         <v>300</v>
       </c>
       <c r="Y84" s="10">
@@ -9085,21 +9117,21 @@
       <c r="AC84" s="10">
         <v>0</v>
       </c>
-      <c r="AD84" s="66">
+      <c r="AD84" s="67">
         <v>238</v>
       </c>
     </row>
     <row r="85" s="10" customFormat="1" ht="14.25" spans="1:30">
-      <c r="A85" s="66">
+      <c r="A85" s="67">
         <v>238007</v>
       </c>
-      <c r="B85" s="67" t="s">
+      <c r="B85" s="68" t="s">
         <v>76</v>
       </c>
-      <c r="C85" s="68" t="s">
+      <c r="C85" s="69" t="s">
         <v>77</v>
       </c>
-      <c r="E85" s="69" t="s">
+      <c r="E85" s="70" t="s">
         <v>78</v>
       </c>
       <c r="G85" s="10">
@@ -9114,7 +9146,7 @@
       <c r="J85" s="10">
         <v>0</v>
       </c>
-      <c r="K85" s="78" t="s">
+      <c r="K85" s="83" t="s">
         <v>79</v>
       </c>
       <c r="L85" s="10">
@@ -9138,7 +9170,7 @@
       <c r="R85" s="10">
         <v>6925</v>
       </c>
-      <c r="T85" s="46">
+      <c r="T85" s="47">
         <v>170057</v>
       </c>
       <c r="U85" s="10">
@@ -9150,7 +9182,7 @@
       <c r="W85" s="1">
         <v>60</v>
       </c>
-      <c r="X85" s="81">
+      <c r="X85" s="88">
         <v>300</v>
       </c>
       <c r="Y85" s="10">
@@ -9165,21 +9197,21 @@
       <c r="AC85" s="10">
         <v>0</v>
       </c>
-      <c r="AD85" s="66">
+      <c r="AD85" s="67">
         <v>238</v>
       </c>
     </row>
     <row r="86" s="11" customFormat="1" ht="14.25" spans="1:30">
-      <c r="A86" s="70">
+      <c r="A86" s="71">
         <v>239001</v>
       </c>
-      <c r="B86" s="71" t="s">
+      <c r="B86" s="72" t="s">
         <v>80</v>
       </c>
-      <c r="C86" s="72" t="s">
+      <c r="C86" s="73" t="s">
         <v>41</v>
       </c>
-      <c r="E86" s="73" t="s">
+      <c r="E86" s="74" t="s">
         <v>42</v>
       </c>
       <c r="G86" s="11">
@@ -9194,7 +9226,7 @@
       <c r="J86" s="11">
         <v>0</v>
       </c>
-      <c r="K86" s="79" t="s">
+      <c r="K86" s="84" t="s">
         <v>81</v>
       </c>
       <c r="L86" s="11">
@@ -9218,7 +9250,7 @@
       <c r="R86" s="11">
         <v>6920</v>
       </c>
-      <c r="T86" s="46">
+      <c r="T86" s="47">
         <v>170057</v>
       </c>
       <c r="U86" s="11">
@@ -9230,7 +9262,7 @@
       <c r="W86" s="1">
         <v>60</v>
       </c>
-      <c r="X86" s="82">
+      <c r="X86" s="89">
         <v>300</v>
       </c>
       <c r="Y86" s="11">
@@ -9245,21 +9277,21 @@
       <c r="AC86" s="11">
         <v>0</v>
       </c>
-      <c r="AD86" s="70">
+      <c r="AD86" s="71">
         <v>239</v>
       </c>
     </row>
     <row r="87" s="11" customFormat="1" ht="14.25" spans="1:30">
-      <c r="A87" s="70">
+      <c r="A87" s="71">
         <v>239002</v>
       </c>
-      <c r="B87" s="71" t="s">
+      <c r="B87" s="72" t="s">
         <v>80</v>
       </c>
-      <c r="C87" s="72" t="s">
+      <c r="C87" s="73" t="s">
         <v>41</v>
       </c>
-      <c r="E87" s="73" t="s">
+      <c r="E87" s="74" t="s">
         <v>42</v>
       </c>
       <c r="G87" s="11">
@@ -9274,7 +9306,7 @@
       <c r="J87" s="11">
         <v>0</v>
       </c>
-      <c r="K87" s="79" t="s">
+      <c r="K87" s="84" t="s">
         <v>81</v>
       </c>
       <c r="L87" s="11">
@@ -9298,7 +9330,7 @@
       <c r="R87" s="11">
         <v>6920</v>
       </c>
-      <c r="T87" s="46">
+      <c r="T87" s="47">
         <v>170057</v>
       </c>
       <c r="U87" s="11">
@@ -9310,7 +9342,7 @@
       <c r="W87" s="1">
         <v>60</v>
       </c>
-      <c r="X87" s="82">
+      <c r="X87" s="89">
         <v>300</v>
       </c>
       <c r="Y87" s="11">
@@ -9325,21 +9357,21 @@
       <c r="AC87" s="11">
         <v>0</v>
       </c>
-      <c r="AD87" s="70">
+      <c r="AD87" s="71">
         <v>239</v>
       </c>
     </row>
     <row r="88" s="11" customFormat="1" ht="14.25" spans="1:30">
-      <c r="A88" s="70">
+      <c r="A88" s="71">
         <v>239003</v>
       </c>
-      <c r="B88" s="71" t="s">
+      <c r="B88" s="72" t="s">
         <v>80</v>
       </c>
-      <c r="C88" s="72" t="s">
+      <c r="C88" s="73" t="s">
         <v>41</v>
       </c>
-      <c r="E88" s="73" t="s">
+      <c r="E88" s="74" t="s">
         <v>42</v>
       </c>
       <c r="G88" s="11">
@@ -9354,7 +9386,7 @@
       <c r="J88" s="11">
         <v>0</v>
       </c>
-      <c r="K88" s="79" t="s">
+      <c r="K88" s="84" t="s">
         <v>81</v>
       </c>
       <c r="L88" s="11">
@@ -9378,7 +9410,7 @@
       <c r="R88" s="11">
         <v>6920</v>
       </c>
-      <c r="T88" s="46">
+      <c r="T88" s="47">
         <v>170057</v>
       </c>
       <c r="U88" s="11">
@@ -9390,7 +9422,7 @@
       <c r="W88" s="1">
         <v>60</v>
       </c>
-      <c r="X88" s="82">
+      <c r="X88" s="89">
         <v>300</v>
       </c>
       <c r="Y88" s="11">
@@ -9405,21 +9437,21 @@
       <c r="AC88" s="11">
         <v>0</v>
       </c>
-      <c r="AD88" s="70">
+      <c r="AD88" s="71">
         <v>239</v>
       </c>
     </row>
     <row r="89" s="11" customFormat="1" ht="14.25" spans="1:30">
-      <c r="A89" s="70">
+      <c r="A89" s="71">
         <v>239004</v>
       </c>
-      <c r="B89" s="71" t="s">
+      <c r="B89" s="72" t="s">
         <v>80</v>
       </c>
-      <c r="C89" s="72" t="s">
+      <c r="C89" s="73" t="s">
         <v>41</v>
       </c>
-      <c r="E89" s="73" t="s">
+      <c r="E89" s="74" t="s">
         <v>42</v>
       </c>
       <c r="G89" s="11">
@@ -9434,7 +9466,7 @@
       <c r="J89" s="11">
         <v>0</v>
       </c>
-      <c r="K89" s="79" t="s">
+      <c r="K89" s="84" t="s">
         <v>81</v>
       </c>
       <c r="L89" s="11">
@@ -9458,7 +9490,7 @@
       <c r="R89" s="11">
         <v>6920</v>
       </c>
-      <c r="T89" s="46">
+      <c r="T89" s="47">
         <v>170057</v>
       </c>
       <c r="U89" s="11">
@@ -9470,7 +9502,7 @@
       <c r="W89" s="1">
         <v>60</v>
       </c>
-      <c r="X89" s="82">
+      <c r="X89" s="89">
         <v>300</v>
       </c>
       <c r="Y89" s="11">
@@ -9485,21 +9517,21 @@
       <c r="AC89" s="11">
         <v>0</v>
       </c>
-      <c r="AD89" s="70">
+      <c r="AD89" s="71">
         <v>239</v>
       </c>
     </row>
     <row r="90" s="11" customFormat="1" ht="14.25" spans="1:30">
-      <c r="A90" s="70">
+      <c r="A90" s="71">
         <v>239005</v>
       </c>
-      <c r="B90" s="71" t="s">
+      <c r="B90" s="72" t="s">
         <v>80</v>
       </c>
-      <c r="C90" s="72" t="s">
+      <c r="C90" s="73" t="s">
         <v>41</v>
       </c>
-      <c r="E90" s="73" t="s">
+      <c r="E90" s="74" t="s">
         <v>42</v>
       </c>
       <c r="G90" s="11">
@@ -9514,7 +9546,7 @@
       <c r="J90" s="11">
         <v>0</v>
       </c>
-      <c r="K90" s="79" t="s">
+      <c r="K90" s="84" t="s">
         <v>81</v>
       </c>
       <c r="L90" s="11">
@@ -9538,7 +9570,7 @@
       <c r="R90" s="11">
         <v>6920</v>
       </c>
-      <c r="T90" s="46">
+      <c r="T90" s="47">
         <v>170057</v>
       </c>
       <c r="U90" s="11">
@@ -9550,7 +9582,7 @@
       <c r="W90" s="1">
         <v>60</v>
       </c>
-      <c r="X90" s="82">
+      <c r="X90" s="89">
         <v>300</v>
       </c>
       <c r="Y90" s="11">
@@ -9565,21 +9597,21 @@
       <c r="AC90" s="11">
         <v>0</v>
       </c>
-      <c r="AD90" s="70">
+      <c r="AD90" s="71">
         <v>239</v>
       </c>
     </row>
     <row r="91" s="11" customFormat="1" ht="14.25" spans="1:30">
-      <c r="A91" s="70">
+      <c r="A91" s="71">
         <v>239006</v>
       </c>
-      <c r="B91" s="71" t="s">
+      <c r="B91" s="72" t="s">
         <v>80</v>
       </c>
-      <c r="C91" s="72" t="s">
+      <c r="C91" s="73" t="s">
         <v>41</v>
       </c>
-      <c r="E91" s="73" t="s">
+      <c r="E91" s="74" t="s">
         <v>42</v>
       </c>
       <c r="G91" s="11">
@@ -9594,7 +9626,7 @@
       <c r="J91" s="11">
         <v>0</v>
       </c>
-      <c r="K91" s="79" t="s">
+      <c r="K91" s="84" t="s">
         <v>81</v>
       </c>
       <c r="L91" s="11">
@@ -9618,7 +9650,7 @@
       <c r="R91" s="11">
         <v>6920</v>
       </c>
-      <c r="T91" s="46">
+      <c r="T91" s="47">
         <v>170057</v>
       </c>
       <c r="U91" s="11">
@@ -9630,7 +9662,7 @@
       <c r="W91" s="1">
         <v>60</v>
       </c>
-      <c r="X91" s="82">
+      <c r="X91" s="89">
         <v>300</v>
       </c>
       <c r="Y91" s="11">
@@ -9645,21 +9677,21 @@
       <c r="AC91" s="11">
         <v>0</v>
       </c>
-      <c r="AD91" s="70">
+      <c r="AD91" s="71">
         <v>239</v>
       </c>
     </row>
     <row r="92" s="11" customFormat="1" ht="14.25" spans="1:30">
-      <c r="A92" s="70">
+      <c r="A92" s="71">
         <v>239007</v>
       </c>
-      <c r="B92" s="71" t="s">
+      <c r="B92" s="72" t="s">
         <v>80</v>
       </c>
-      <c r="C92" s="72" t="s">
+      <c r="C92" s="73" t="s">
         <v>41</v>
       </c>
-      <c r="E92" s="73" t="s">
+      <c r="E92" s="74" t="s">
         <v>42</v>
       </c>
       <c r="G92" s="11">
@@ -9674,7 +9706,7 @@
       <c r="J92" s="11">
         <v>0</v>
       </c>
-      <c r="K92" s="79" t="s">
+      <c r="K92" s="84" t="s">
         <v>81</v>
       </c>
       <c r="L92" s="11">
@@ -9698,7 +9730,7 @@
       <c r="R92" s="11">
         <v>6920</v>
       </c>
-      <c r="T92" s="46">
+      <c r="T92" s="47">
         <v>170057</v>
       </c>
       <c r="U92" s="11">
@@ -9710,7 +9742,7 @@
       <c r="W92" s="1">
         <v>60</v>
       </c>
-      <c r="X92" s="82">
+      <c r="X92" s="89">
         <v>300</v>
       </c>
       <c r="Y92" s="11">
@@ -9725,21 +9757,21 @@
       <c r="AC92" s="11">
         <v>0</v>
       </c>
-      <c r="AD92" s="70">
+      <c r="AD92" s="71">
         <v>239</v>
       </c>
     </row>
     <row r="93" s="12" customFormat="1" ht="14.25" spans="1:30">
-      <c r="A93" s="74">
+      <c r="A93" s="75">
         <v>244001</v>
       </c>
-      <c r="B93" s="75" t="s">
+      <c r="B93" s="76" t="s">
         <v>82</v>
       </c>
-      <c r="C93" s="41" t="s">
+      <c r="C93" s="42" t="s">
         <v>83</v>
       </c>
-      <c r="E93" s="76" t="s">
+      <c r="E93" s="77" t="s">
         <v>42</v>
       </c>
       <c r="G93" s="1">
@@ -9754,7 +9786,7 @@
       <c r="J93" s="12">
         <v>0</v>
       </c>
-      <c r="K93" s="76" t="s">
+      <c r="K93" s="77" t="s">
         <v>84</v>
       </c>
       <c r="L93" s="12">
@@ -9775,10 +9807,10 @@
       <c r="Q93" s="11">
         <v>50</v>
       </c>
-      <c r="R93" s="83">
+      <c r="R93" s="90">
         <v>6919</v>
       </c>
-      <c r="T93" s="46">
+      <c r="T93" s="47">
         <v>170057</v>
       </c>
       <c r="U93" s="12">
@@ -9793,7 +9825,7 @@
       <c r="X93" s="12">
         <v>300</v>
       </c>
-      <c r="Y93" s="83">
+      <c r="Y93" s="90">
         <v>1</v>
       </c>
       <c r="Z93" s="12">
@@ -9810,16 +9842,16 @@
       </c>
     </row>
     <row r="94" s="12" customFormat="1" ht="14.25" spans="1:30">
-      <c r="A94" s="74">
+      <c r="A94" s="75">
         <v>244002</v>
       </c>
-      <c r="B94" s="75" t="s">
+      <c r="B94" s="76" t="s">
         <v>82</v>
       </c>
-      <c r="C94" s="41" t="s">
+      <c r="C94" s="42" t="s">
         <v>83</v>
       </c>
-      <c r="E94" s="76" t="s">
+      <c r="E94" s="77" t="s">
         <v>42</v>
       </c>
       <c r="G94" s="1">
@@ -9834,7 +9866,7 @@
       <c r="J94" s="12">
         <v>0</v>
       </c>
-      <c r="K94" s="76" t="s">
+      <c r="K94" s="77" t="s">
         <v>84</v>
       </c>
       <c r="L94" s="12">
@@ -9855,10 +9887,10 @@
       <c r="Q94" s="11">
         <v>50</v>
       </c>
-      <c r="R94" s="83">
+      <c r="R94" s="90">
         <v>6919</v>
       </c>
-      <c r="T94" s="46">
+      <c r="T94" s="47">
         <v>170057</v>
       </c>
       <c r="U94" s="12">
@@ -9873,7 +9905,7 @@
       <c r="X94" s="12">
         <v>300</v>
       </c>
-      <c r="Y94" s="83">
+      <c r="Y94" s="90">
         <v>1</v>
       </c>
       <c r="Z94" s="12">
@@ -9890,16 +9922,16 @@
       </c>
     </row>
     <row r="95" s="12" customFormat="1" ht="14.25" spans="1:30">
-      <c r="A95" s="74">
+      <c r="A95" s="75">
         <v>244003</v>
       </c>
-      <c r="B95" s="75" t="s">
+      <c r="B95" s="76" t="s">
         <v>82</v>
       </c>
-      <c r="C95" s="41" t="s">
+      <c r="C95" s="42" t="s">
         <v>83</v>
       </c>
-      <c r="E95" s="76" t="s">
+      <c r="E95" s="77" t="s">
         <v>42</v>
       </c>
       <c r="G95" s="1">
@@ -9914,7 +9946,7 @@
       <c r="J95" s="12">
         <v>0</v>
       </c>
-      <c r="K95" s="76" t="s">
+      <c r="K95" s="77" t="s">
         <v>84</v>
       </c>
       <c r="L95" s="12">
@@ -9935,10 +9967,10 @@
       <c r="Q95" s="11">
         <v>50</v>
       </c>
-      <c r="R95" s="83">
+      <c r="R95" s="90">
         <v>6919</v>
       </c>
-      <c r="T95" s="46">
+      <c r="T95" s="47">
         <v>170057</v>
       </c>
       <c r="U95" s="12">
@@ -9953,7 +9985,7 @@
       <c r="X95" s="12">
         <v>300</v>
       </c>
-      <c r="Y95" s="83">
+      <c r="Y95" s="90">
         <v>1</v>
       </c>
       <c r="Z95" s="12">
@@ -9970,16 +10002,16 @@
       </c>
     </row>
     <row r="96" s="12" customFormat="1" ht="14.25" spans="1:30">
-      <c r="A96" s="74">
+      <c r="A96" s="75">
         <v>244004</v>
       </c>
-      <c r="B96" s="75" t="s">
+      <c r="B96" s="76" t="s">
         <v>82</v>
       </c>
-      <c r="C96" s="41" t="s">
+      <c r="C96" s="42" t="s">
         <v>83</v>
       </c>
-      <c r="E96" s="76" t="s">
+      <c r="E96" s="77" t="s">
         <v>42</v>
       </c>
       <c r="G96" s="1">
@@ -9994,7 +10026,7 @@
       <c r="J96" s="12">
         <v>0</v>
       </c>
-      <c r="K96" s="76" t="s">
+      <c r="K96" s="77" t="s">
         <v>84</v>
       </c>
       <c r="L96" s="12">
@@ -10015,10 +10047,10 @@
       <c r="Q96" s="11">
         <v>50</v>
       </c>
-      <c r="R96" s="83">
+      <c r="R96" s="90">
         <v>6919</v>
       </c>
-      <c r="T96" s="46">
+      <c r="T96" s="47">
         <v>170057</v>
       </c>
       <c r="U96" s="12">
@@ -10033,7 +10065,7 @@
       <c r="X96" s="12">
         <v>300</v>
       </c>
-      <c r="Y96" s="83">
+      <c r="Y96" s="90">
         <v>1</v>
       </c>
       <c r="Z96" s="12">
@@ -10050,16 +10082,16 @@
       </c>
     </row>
     <row r="97" s="12" customFormat="1" ht="14.25" spans="1:30">
-      <c r="A97" s="74">
+      <c r="A97" s="75">
         <v>244005</v>
       </c>
-      <c r="B97" s="75" t="s">
+      <c r="B97" s="76" t="s">
         <v>82</v>
       </c>
-      <c r="C97" s="41" t="s">
+      <c r="C97" s="42" t="s">
         <v>83</v>
       </c>
-      <c r="E97" s="76" t="s">
+      <c r="E97" s="77" t="s">
         <v>42</v>
       </c>
       <c r="G97" s="1">
@@ -10074,7 +10106,7 @@
       <c r="J97" s="12">
         <v>0</v>
       </c>
-      <c r="K97" s="76" t="s">
+      <c r="K97" s="77" t="s">
         <v>84</v>
       </c>
       <c r="L97" s="12">
@@ -10095,10 +10127,10 @@
       <c r="Q97" s="11">
         <v>50</v>
       </c>
-      <c r="R97" s="83">
+      <c r="R97" s="90">
         <v>6919</v>
       </c>
-      <c r="T97" s="46">
+      <c r="T97" s="47">
         <v>170057</v>
       </c>
       <c r="U97" s="12">
@@ -10113,7 +10145,7 @@
       <c r="X97" s="12">
         <v>300</v>
       </c>
-      <c r="Y97" s="83">
+      <c r="Y97" s="90">
         <v>1</v>
       </c>
       <c r="Z97" s="12">
@@ -10130,16 +10162,16 @@
       </c>
     </row>
     <row r="98" s="12" customFormat="1" ht="14.25" spans="1:30">
-      <c r="A98" s="74">
+      <c r="A98" s="75">
         <v>244006</v>
       </c>
-      <c r="B98" s="75" t="s">
+      <c r="B98" s="76" t="s">
         <v>82</v>
       </c>
-      <c r="C98" s="41" t="s">
+      <c r="C98" s="42" t="s">
         <v>83</v>
       </c>
-      <c r="E98" s="76" t="s">
+      <c r="E98" s="77" t="s">
         <v>42</v>
       </c>
       <c r="G98" s="1">
@@ -10154,7 +10186,7 @@
       <c r="J98" s="12">
         <v>0</v>
       </c>
-      <c r="K98" s="76" t="s">
+      <c r="K98" s="77" t="s">
         <v>84</v>
       </c>
       <c r="L98" s="12">
@@ -10175,10 +10207,10 @@
       <c r="Q98" s="11">
         <v>50</v>
       </c>
-      <c r="R98" s="83">
+      <c r="R98" s="90">
         <v>6919</v>
       </c>
-      <c r="T98" s="46">
+      <c r="T98" s="47">
         <v>170057</v>
       </c>
       <c r="U98" s="12">
@@ -10193,7 +10225,7 @@
       <c r="X98" s="12">
         <v>300</v>
       </c>
-      <c r="Y98" s="83">
+      <c r="Y98" s="90">
         <v>1</v>
       </c>
       <c r="Z98" s="12">
@@ -10210,16 +10242,16 @@
       </c>
     </row>
     <row r="99" s="12" customFormat="1" ht="14.25" spans="1:30">
-      <c r="A99" s="74">
+      <c r="A99" s="75">
         <v>244007</v>
       </c>
-      <c r="B99" s="75" t="s">
+      <c r="B99" s="76" t="s">
         <v>82</v>
       </c>
-      <c r="C99" s="41" t="s">
+      <c r="C99" s="42" t="s">
         <v>83</v>
       </c>
-      <c r="E99" s="76" t="s">
+      <c r="E99" s="77" t="s">
         <v>42</v>
       </c>
       <c r="G99" s="1">
@@ -10234,7 +10266,7 @@
       <c r="J99" s="12">
         <v>0</v>
       </c>
-      <c r="K99" s="76" t="s">
+      <c r="K99" s="77" t="s">
         <v>84</v>
       </c>
       <c r="L99" s="12">
@@ -10255,10 +10287,10 @@
       <c r="Q99" s="11">
         <v>50</v>
       </c>
-      <c r="R99" s="83">
+      <c r="R99" s="90">
         <v>6919</v>
       </c>
-      <c r="T99" s="46">
+      <c r="T99" s="47">
         <v>170057</v>
       </c>
       <c r="U99" s="12">
@@ -10273,7 +10305,7 @@
       <c r="X99" s="12">
         <v>300</v>
       </c>
-      <c r="Y99" s="83">
+      <c r="Y99" s="90">
         <v>1</v>
       </c>
       <c r="Z99" s="12">
@@ -10286,6 +10318,566 @@
         <v>0</v>
       </c>
       <c r="AD99" s="12">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="100" s="13" customFormat="1" ht="14.25" spans="1:30">
+      <c r="A100" s="78">
+        <v>244008</v>
+      </c>
+      <c r="B100" s="79" t="s">
+        <v>85</v>
+      </c>
+      <c r="C100" s="80" t="s">
+        <v>83</v>
+      </c>
+      <c r="E100" s="80" t="s">
+        <v>42</v>
+      </c>
+      <c r="G100" s="81">
+        <v>191155</v>
+      </c>
+      <c r="H100" s="13">
+        <v>0</v>
+      </c>
+      <c r="I100" s="85">
+        <v>20</v>
+      </c>
+      <c r="J100" s="13">
+        <v>0</v>
+      </c>
+      <c r="K100" s="86">
+        <v>310099</v>
+      </c>
+      <c r="L100" s="13">
+        <v>2</v>
+      </c>
+      <c r="M100" s="85">
+        <v>10</v>
+      </c>
+      <c r="N100" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="O100" s="13">
+        <v>7</v>
+      </c>
+      <c r="P100" s="13">
+        <v>3600</v>
+      </c>
+      <c r="Q100" s="13">
+        <v>50</v>
+      </c>
+      <c r="R100" s="91">
+        <v>6948</v>
+      </c>
+      <c r="T100" s="92">
+        <v>170057</v>
+      </c>
+      <c r="U100" s="13">
+        <v>1</v>
+      </c>
+      <c r="V100" s="13">
+        <v>0</v>
+      </c>
+      <c r="W100" s="13">
+        <v>60</v>
+      </c>
+      <c r="X100" s="13">
+        <v>300</v>
+      </c>
+      <c r="Y100" s="13">
+        <v>1</v>
+      </c>
+      <c r="Z100" s="13">
+        <v>0</v>
+      </c>
+      <c r="AB100" s="13">
+        <v>1</v>
+      </c>
+      <c r="AC100" s="13">
+        <v>0</v>
+      </c>
+      <c r="AD100" s="13">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="101" s="13" customFormat="1" ht="14.25" spans="1:30">
+      <c r="A101" s="78">
+        <v>244009</v>
+      </c>
+      <c r="B101" s="79" t="s">
+        <v>85</v>
+      </c>
+      <c r="C101" s="80" t="s">
+        <v>83</v>
+      </c>
+      <c r="E101" s="80" t="s">
+        <v>42</v>
+      </c>
+      <c r="G101" s="81">
+        <v>191155</v>
+      </c>
+      <c r="H101" s="13">
+        <v>0</v>
+      </c>
+      <c r="I101" s="85">
+        <v>20</v>
+      </c>
+      <c r="J101" s="13">
+        <v>0</v>
+      </c>
+      <c r="K101" s="86">
+        <v>310099</v>
+      </c>
+      <c r="L101" s="13">
+        <v>2</v>
+      </c>
+      <c r="M101" s="85">
+        <v>10</v>
+      </c>
+      <c r="N101" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="O101" s="13">
+        <v>7</v>
+      </c>
+      <c r="P101" s="13">
+        <v>3600</v>
+      </c>
+      <c r="Q101" s="13">
+        <v>50</v>
+      </c>
+      <c r="R101" s="91">
+        <v>6948</v>
+      </c>
+      <c r="T101" s="92">
+        <v>170057</v>
+      </c>
+      <c r="U101" s="13">
+        <v>1</v>
+      </c>
+      <c r="V101" s="13">
+        <v>0</v>
+      </c>
+      <c r="W101" s="13">
+        <v>60</v>
+      </c>
+      <c r="X101" s="13">
+        <v>300</v>
+      </c>
+      <c r="Y101" s="13">
+        <v>1</v>
+      </c>
+      <c r="Z101" s="13">
+        <v>0</v>
+      </c>
+      <c r="AB101" s="13">
+        <v>1</v>
+      </c>
+      <c r="AC101" s="13">
+        <v>0</v>
+      </c>
+      <c r="AD101" s="13">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="102" s="13" customFormat="1" ht="14.25" spans="1:30">
+      <c r="A102" s="78">
+        <v>244010</v>
+      </c>
+      <c r="B102" s="79" t="s">
+        <v>85</v>
+      </c>
+      <c r="C102" s="80" t="s">
+        <v>83</v>
+      </c>
+      <c r="E102" s="80" t="s">
+        <v>42</v>
+      </c>
+      <c r="G102" s="81">
+        <v>191155</v>
+      </c>
+      <c r="H102" s="13">
+        <v>0</v>
+      </c>
+      <c r="I102" s="85">
+        <v>20</v>
+      </c>
+      <c r="J102" s="13">
+        <v>0</v>
+      </c>
+      <c r="K102" s="86">
+        <v>310099</v>
+      </c>
+      <c r="L102" s="13">
+        <v>2</v>
+      </c>
+      <c r="M102" s="85">
+        <v>10</v>
+      </c>
+      <c r="N102" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="O102" s="13">
+        <v>7</v>
+      </c>
+      <c r="P102" s="13">
+        <v>3600</v>
+      </c>
+      <c r="Q102" s="13">
+        <v>50</v>
+      </c>
+      <c r="R102" s="91">
+        <v>6948</v>
+      </c>
+      <c r="T102" s="92">
+        <v>170057</v>
+      </c>
+      <c r="U102" s="13">
+        <v>1</v>
+      </c>
+      <c r="V102" s="13">
+        <v>0</v>
+      </c>
+      <c r="W102" s="13">
+        <v>60</v>
+      </c>
+      <c r="X102" s="13">
+        <v>300</v>
+      </c>
+      <c r="Y102" s="13">
+        <v>1</v>
+      </c>
+      <c r="Z102" s="13">
+        <v>0</v>
+      </c>
+      <c r="AB102" s="13">
+        <v>1</v>
+      </c>
+      <c r="AC102" s="13">
+        <v>0</v>
+      </c>
+      <c r="AD102" s="13">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="103" s="13" customFormat="1" ht="14.25" spans="1:30">
+      <c r="A103" s="78">
+        <v>244011</v>
+      </c>
+      <c r="B103" s="79" t="s">
+        <v>85</v>
+      </c>
+      <c r="C103" s="80" t="s">
+        <v>83</v>
+      </c>
+      <c r="E103" s="80" t="s">
+        <v>42</v>
+      </c>
+      <c r="G103" s="81">
+        <v>191155</v>
+      </c>
+      <c r="H103" s="13">
+        <v>0</v>
+      </c>
+      <c r="I103" s="85">
+        <v>20</v>
+      </c>
+      <c r="J103" s="13">
+        <v>0</v>
+      </c>
+      <c r="K103" s="86">
+        <v>310099</v>
+      </c>
+      <c r="L103" s="13">
+        <v>2</v>
+      </c>
+      <c r="M103" s="85">
+        <v>10</v>
+      </c>
+      <c r="N103" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="O103" s="13">
+        <v>7</v>
+      </c>
+      <c r="P103" s="13">
+        <v>3600</v>
+      </c>
+      <c r="Q103" s="13">
+        <v>50</v>
+      </c>
+      <c r="R103" s="91">
+        <v>6948</v>
+      </c>
+      <c r="T103" s="92">
+        <v>170057</v>
+      </c>
+      <c r="U103" s="13">
+        <v>1</v>
+      </c>
+      <c r="V103" s="13">
+        <v>0</v>
+      </c>
+      <c r="W103" s="13">
+        <v>60</v>
+      </c>
+      <c r="X103" s="13">
+        <v>300</v>
+      </c>
+      <c r="Y103" s="13">
+        <v>1</v>
+      </c>
+      <c r="Z103" s="13">
+        <v>0</v>
+      </c>
+      <c r="AB103" s="13">
+        <v>1</v>
+      </c>
+      <c r="AC103" s="13">
+        <v>0</v>
+      </c>
+      <c r="AD103" s="13">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="104" s="13" customFormat="1" ht="14.25" spans="1:30">
+      <c r="A104" s="78">
+        <v>244012</v>
+      </c>
+      <c r="B104" s="79" t="s">
+        <v>85</v>
+      </c>
+      <c r="C104" s="80" t="s">
+        <v>83</v>
+      </c>
+      <c r="E104" s="80" t="s">
+        <v>42</v>
+      </c>
+      <c r="G104" s="81">
+        <v>191155</v>
+      </c>
+      <c r="H104" s="13">
+        <v>0</v>
+      </c>
+      <c r="I104" s="85">
+        <v>20</v>
+      </c>
+      <c r="J104" s="13">
+        <v>0</v>
+      </c>
+      <c r="K104" s="86">
+        <v>310099</v>
+      </c>
+      <c r="L104" s="13">
+        <v>2</v>
+      </c>
+      <c r="M104" s="85">
+        <v>10</v>
+      </c>
+      <c r="N104" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="O104" s="13">
+        <v>7</v>
+      </c>
+      <c r="P104" s="13">
+        <v>3600</v>
+      </c>
+      <c r="Q104" s="13">
+        <v>50</v>
+      </c>
+      <c r="R104" s="91">
+        <v>6948</v>
+      </c>
+      <c r="T104" s="92">
+        <v>170057</v>
+      </c>
+      <c r="U104" s="13">
+        <v>1</v>
+      </c>
+      <c r="V104" s="13">
+        <v>0</v>
+      </c>
+      <c r="W104" s="13">
+        <v>60</v>
+      </c>
+      <c r="X104" s="13">
+        <v>300</v>
+      </c>
+      <c r="Y104" s="13">
+        <v>1</v>
+      </c>
+      <c r="Z104" s="13">
+        <v>0</v>
+      </c>
+      <c r="AB104" s="13">
+        <v>1</v>
+      </c>
+      <c r="AC104" s="13">
+        <v>0</v>
+      </c>
+      <c r="AD104" s="13">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="105" s="13" customFormat="1" ht="14.25" spans="1:30">
+      <c r="A105" s="78">
+        <v>244013</v>
+      </c>
+      <c r="B105" s="79" t="s">
+        <v>85</v>
+      </c>
+      <c r="C105" s="80" t="s">
+        <v>83</v>
+      </c>
+      <c r="E105" s="80" t="s">
+        <v>42</v>
+      </c>
+      <c r="G105" s="81">
+        <v>191155</v>
+      </c>
+      <c r="H105" s="13">
+        <v>0</v>
+      </c>
+      <c r="I105" s="85">
+        <v>20</v>
+      </c>
+      <c r="J105" s="13">
+        <v>0</v>
+      </c>
+      <c r="K105" s="86">
+        <v>310099</v>
+      </c>
+      <c r="L105" s="13">
+        <v>2</v>
+      </c>
+      <c r="M105" s="85">
+        <v>10</v>
+      </c>
+      <c r="N105" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="O105" s="13">
+        <v>7</v>
+      </c>
+      <c r="P105" s="13">
+        <v>3600</v>
+      </c>
+      <c r="Q105" s="13">
+        <v>50</v>
+      </c>
+      <c r="R105" s="91">
+        <v>6948</v>
+      </c>
+      <c r="T105" s="92">
+        <v>170057</v>
+      </c>
+      <c r="U105" s="13">
+        <v>1</v>
+      </c>
+      <c r="V105" s="13">
+        <v>0</v>
+      </c>
+      <c r="W105" s="13">
+        <v>60</v>
+      </c>
+      <c r="X105" s="13">
+        <v>300</v>
+      </c>
+      <c r="Y105" s="13">
+        <v>1</v>
+      </c>
+      <c r="Z105" s="13">
+        <v>0</v>
+      </c>
+      <c r="AB105" s="13">
+        <v>1</v>
+      </c>
+      <c r="AC105" s="13">
+        <v>0</v>
+      </c>
+      <c r="AD105" s="13">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="106" s="13" customFormat="1" ht="14.25" spans="1:30">
+      <c r="A106" s="78">
+        <v>244014</v>
+      </c>
+      <c r="B106" s="79" t="s">
+        <v>85</v>
+      </c>
+      <c r="C106" s="80" t="s">
+        <v>83</v>
+      </c>
+      <c r="E106" s="80" t="s">
+        <v>42</v>
+      </c>
+      <c r="G106" s="81">
+        <v>191155</v>
+      </c>
+      <c r="H106" s="13">
+        <v>0</v>
+      </c>
+      <c r="I106" s="85">
+        <v>20</v>
+      </c>
+      <c r="J106" s="13">
+        <v>0</v>
+      </c>
+      <c r="K106" s="86">
+        <v>310099</v>
+      </c>
+      <c r="L106" s="13">
+        <v>2</v>
+      </c>
+      <c r="M106" s="85">
+        <v>10</v>
+      </c>
+      <c r="N106" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="O106" s="13">
+        <v>7</v>
+      </c>
+      <c r="P106" s="13">
+        <v>3600</v>
+      </c>
+      <c r="Q106" s="13">
+        <v>50</v>
+      </c>
+      <c r="R106" s="91">
+        <v>6948</v>
+      </c>
+      <c r="T106" s="92">
+        <v>170057</v>
+      </c>
+      <c r="U106" s="13">
+        <v>1</v>
+      </c>
+      <c r="V106" s="13">
+        <v>0</v>
+      </c>
+      <c r="W106" s="13">
+        <v>60</v>
+      </c>
+      <c r="X106" s="13">
+        <v>300</v>
+      </c>
+      <c r="Y106" s="13">
+        <v>1</v>
+      </c>
+      <c r="Z106" s="13">
+        <v>0</v>
+      </c>
+      <c r="AB106" s="13">
+        <v>1</v>
+      </c>
+      <c r="AC106" s="13">
+        <v>0</v>
+      </c>
+      <c r="AD106" s="13">
         <v>244</v>
       </c>
     </row>

--- a/Table/Table_xls/g怪物刷新/定时刷新表.xlsx
+++ b/Table/Table_xls/g怪物刷新/定时刷新表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28080" windowHeight="13065"/>
+    <workbookView windowWidth="23040" windowHeight="9347"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -28,11 +28,10 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t xml:space="preserve">Administrator:
+          <t>Administrator:
 当服务开启时没有通过活动配置表中正常触发开始时间时，以此开始时间来计算开服后下一次刷怪时间</t>
         </r>
       </text>
@@ -42,11 +41,10 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t xml:space="preserve">作者:
+          <t>作者:
 活动开始后间隔多长时间开始刷怪</t>
         </r>
       </text>
@@ -56,11 +54,10 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t xml:space="preserve">作者:
+          <t>作者:
 与首次刷新时间一起填，填此类刷新就不填定时刷新了
 距离上次刷新的间隔时间，秒为单位</t>
         </r>
@@ -71,11 +68,10 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t xml:space="preserve">user:
+          <t>user:
 1-在活动开始后进行间隔刷新时间范围内的触发时间随机
 0/不填-不随机</t>
         </r>
@@ -86,11 +82,10 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t xml:space="preserve">作者:
+          <t>作者:
 对应客户端提示表中ID
 全服系统通告</t>
         </r>
@@ -101,11 +96,10 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t xml:space="preserve">作者:
+          <t>作者:
 0.不填为固定刷新
 1.为补充刷新</t>
         </r>
@@ -116,11 +110,10 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t xml:space="preserve">作者:
+          <t>作者:
 补怪到达上限就不再补怪了</t>
         </r>
       </text>
@@ -130,11 +123,10 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t xml:space="preserve">作者:
+          <t>作者:
 从活动开始补怪持续的时间，之后就不再不怪了</t>
         </r>
       </text>
@@ -144,11 +136,10 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t xml:space="preserve">作者:
+          <t>作者:
 格式:
 刷新的NPC列表
 编号，编号，编号..；编号，编号..</t>
@@ -160,11 +151,10 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t xml:space="preserve">作者:
+          <t>作者:
 随机“刷新列表”组的个数</t>
         </r>
       </text>
@@ -174,11 +164,10 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t xml:space="preserve">Administrator:
+          <t>Administrator:
 计算出怪物总量，然后平均投放到场景中</t>
         </r>
       </text>
@@ -188,11 +177,10 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t xml:space="preserve">作者:
+          <t>作者:
 怪物刷新的场景</t>
         </r>
       </text>
@@ -202,11 +190,10 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t xml:space="preserve">作者:
+          <t>作者:
 从“刷新场景”中随机的场景个数</t>
         </r>
       </text>
@@ -216,11 +203,10 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t xml:space="preserve">作者:
+          <t>作者:
 怪物存在的时间,单位秒</t>
         </r>
       </text>
@@ -230,11 +216,10 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t xml:space="preserve">作者:
+          <t>作者:
 击杀可获得奖励的个数，超过个数后不获得正常奖励</t>
         </r>
       </text>
@@ -244,11 +229,10 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t xml:space="preserve">作者:
+          <t>作者:
 调用奖励表中ID</t>
         </r>
       </text>
@@ -258,11 +242,10 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t xml:space="preserve">user:
+          <t>user:
 1-按照人物等级匹配
 2-按照队伍等级匹配</t>
         </r>
@@ -273,11 +256,10 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t xml:space="preserve">作者:
+          <t>作者:
 1=需要组队</t>
         </r>
       </text>
@@ -287,11 +269,10 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t xml:space="preserve">作者:
+          <t>作者:
 组队要求的人数下限</t>
         </r>
       </text>
@@ -301,7 +282,6 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
@@ -315,11 +295,10 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t xml:space="preserve">Administrator:
+          <t>Administrator:
 上限必须配置</t>
         </r>
       </text>
@@ -329,11 +308,10 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t xml:space="preserve">user:</t>
+          <t>user:</t>
         </r>
       </text>
     </comment>
@@ -342,7 +320,6 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
@@ -359,11 +336,10 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t xml:space="preserve">参数格式:等级下限,等级上限,等级奖励;等级下限,等级上限,等级奖励
+          <t>参数格式:等级下限,等级上限,等级奖励;等级下限,等级上限,等级奖励
 可roll点</t>
         </r>
       </text>
@@ -373,11 +349,10 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t xml:space="preserve">user:
+          <t>user:
 匹配界面</t>
         </r>
       </text>
@@ -387,11 +362,10 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t xml:space="preserve">user:
+          <t>user:
 1代表匹配
 0代表不匹配</t>
         </r>
@@ -402,11 +376,10 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t xml:space="preserve">user:1为个数刷新2为总数刷新</t>
+          <t>user:1为个数刷新2为总数刷新</t>
         </r>
       </text>
     </comment>
@@ -415,11 +388,10 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t xml:space="preserve">作者:
+          <t>作者:
 怪物刷的数量</t>
         </r>
       </text>
@@ -429,11 +401,10 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t xml:space="preserve">user:
+          <t>user:
 延迟刷洗可填写秒数</t>
         </r>
       </text>
@@ -443,7 +414,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="551" uniqueCount="84">
   <si>
     <t>定时活动配置表id</t>
   </si>
@@ -627,19 +598,13 @@
     <t>1614@8;1615@8;1616@8</t>
   </si>
   <si>
-    <t>二十八星宿</t>
-  </si>
-  <si>
-    <t>00:35:00</t>
-  </si>
-  <si>
-    <t>170061,170062,170063,170064,170065,170066,170067</t>
+    <t>新年宝箱</t>
   </si>
   <si>
     <t>爪牙刷新1~29</t>
   </si>
   <si>
-    <t>211107,211108,211109,211110,211111,211123</t>
+    <t>211107,211108,211109,211110,211111,211123,170061,170062,170063,170064,170065,170066,170067</t>
   </si>
   <si>
     <t>1616@1</t>
@@ -726,11 +691,11 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="31">
+  <fonts count="32">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -794,21 +759,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -816,47 +766,22 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -871,12 +796,13 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -884,8 +810,93 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -899,50 +910,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="50">
@@ -961,12 +931,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="2" tint="-0.0999786370433668"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="-0.25"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1044,6 +1008,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="-0.25"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399853511154515"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1068,7 +1038,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1080,7 +1086,109 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1092,151 +1200,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1269,7 +1239,18 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1304,11 +1285,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1330,26 +1317,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1367,152 +1337,152 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="34" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="42" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="22" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="28" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="39" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="38" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="93">
+  <cellXfs count="92">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1522,22 +1492,25 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1">
@@ -1550,9 +1523,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
@@ -1566,7 +1536,7 @@
     <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
@@ -1576,34 +1546,94 @@
     <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="4" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="1" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="7" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="2" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+    <xf numFmtId="3" fontId="1" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="4" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="32" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="32" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="32" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="32" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
@@ -1612,62 +1642,10 @@
     <xf numFmtId="49" fontId="2" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" xfId="32" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="32" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="32" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="32" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="32" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="7" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="2" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="4" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
@@ -1682,25 +1660,19 @@
     <xf numFmtId="49" fontId="0" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="4" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="0" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="49" fontId="0" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="0" fillId="14" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
@@ -1709,14 +1681,14 @@
     <xf numFmtId="49" fontId="0" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
@@ -1724,16 +1696,13 @@
     <xf numFmtId="0" fontId="10" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="19" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="20" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1789,6 +1758,11 @@
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -2115,47 +2089,46 @@
       <a:lstStyle/>
     </a:spDef>
   </a:objectDefaults>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AS106"/>
+  <dimension ref="A1:AX106"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C70" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="H23" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="G100" sqref="G100:G106"/>
+      <selection pane="bottomRight" activeCell="A37" sqref="$A37:$XFD43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="16.7583333333333" customWidth="1"/>
-    <col min="2" max="3" width="17.2416666666667" customWidth="1"/>
+    <col min="1" max="1" width="16.7592592592593" customWidth="1"/>
+    <col min="2" max="3" width="17.2407407407407" customWidth="1"/>
     <col min="4" max="4" width="21" customWidth="1"/>
-    <col min="5" max="5" width="17.2416666666667" customWidth="1"/>
-    <col min="6" max="6" width="12.2416666666667" customWidth="1"/>
-    <col min="7" max="7" width="23.5083333333333" customWidth="1"/>
-    <col min="8" max="9" width="12.125" customWidth="1"/>
-    <col min="10" max="10" width="30.7583333333333" style="14" customWidth="1"/>
-    <col min="11" max="11" width="58.3666666666667" customWidth="1"/>
-    <col min="12" max="12" width="12.2416666666667" customWidth="1"/>
-    <col min="13" max="13" width="21.2416666666667" customWidth="1"/>
-    <col min="14" max="14" width="77.3666666666667" customWidth="1"/>
-    <col min="15" max="15" width="12.5083333333333" customWidth="1"/>
-    <col min="16" max="16" width="13.125" customWidth="1"/>
-    <col min="17" max="17" width="13.5083333333333" customWidth="1"/>
-    <col min="18" max="19" width="21.3666666666667" customWidth="1"/>
-    <col min="20" max="20" width="19.2416666666667" customWidth="1"/>
+    <col min="5" max="5" width="17.2407407407407" customWidth="1"/>
+    <col min="6" max="6" width="12.2407407407407" customWidth="1"/>
+    <col min="7" max="7" width="23.5092592592593" customWidth="1"/>
+    <col min="8" max="9" width="12.1296296296296" customWidth="1"/>
+    <col min="10" max="10" width="30.7592592592593" style="14" customWidth="1"/>
+    <col min="11" max="11" width="58.3703703703704" customWidth="1"/>
+    <col min="12" max="12" width="12.2407407407407" customWidth="1"/>
+    <col min="13" max="13" width="21.2407407407407" customWidth="1"/>
+    <col min="14" max="14" width="77.3703703703704" customWidth="1"/>
+    <col min="15" max="15" width="12.5092592592593" customWidth="1"/>
+    <col min="16" max="16" width="13.1296296296296" customWidth="1"/>
+    <col min="17" max="17" width="13.5092592592593" customWidth="1"/>
+    <col min="18" max="19" width="21.3703703703704" customWidth="1"/>
+    <col min="20" max="20" width="19.2407407407407" customWidth="1"/>
     <col min="21" max="23" width="13" customWidth="1"/>
-    <col min="24" max="24" width="12.3666666666667" customWidth="1"/>
-    <col min="26" max="26" width="12.125" customWidth="1"/>
-    <col min="27" max="27" width="15.2416666666667" customWidth="1"/>
-    <col min="30" max="30" width="12.125" customWidth="1"/>
+    <col min="24" max="24" width="12.3703703703704" customWidth="1"/>
+    <col min="26" max="26" width="12.1296296296296" customWidth="1"/>
+    <col min="27" max="27" width="15.2407407407407" customWidth="1"/>
+    <col min="30" max="30" width="12.1296296296296" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:40">
@@ -2183,10 +2156,10 @@
       <c r="H1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="41" t="s">
+      <c r="I1" s="39" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="41" t="s">
+      <c r="J1" s="39" t="s">
         <v>9</v>
       </c>
       <c r="K1" s="14" t="s">
@@ -2195,7 +2168,7 @@
       <c r="L1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="41" t="s">
+      <c r="M1" s="39" t="s">
         <v>12</v>
       </c>
       <c r="N1" t="s">
@@ -2207,80 +2180,80 @@
       <c r="P1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="41" t="s">
+      <c r="Q1" s="39" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="41" t="s">
+      <c r="R1" s="39" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="41" t="s">
+      <c r="S1" s="39" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="41" t="s">
+      <c r="T1" s="39" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="41" t="s">
+      <c r="U1" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="41" t="s">
+      <c r="V1" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="41" t="s">
+      <c r="W1" s="39" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="41" t="s">
+      <c r="X1" s="39" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="41" t="s">
+      <c r="Y1" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="41" t="s">
+      <c r="Z1" s="39" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" s="41" t="s">
+      <c r="AA1" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" s="41" t="s">
+      <c r="AB1" s="39" t="s">
         <v>27</v>
       </c>
-      <c r="AC1" s="41" t="s">
+      <c r="AC1" s="39" t="s">
         <v>28</v>
       </c>
-      <c r="AD1" s="53" t="s">
+      <c r="AD1" s="52" t="s">
         <v>29</v>
       </c>
-      <c r="AE1" s="54" t="s">
+      <c r="AE1" s="53" t="s">
         <v>30</v>
       </c>
-      <c r="AF1" s="53" t="s">
+      <c r="AF1" s="52" t="s">
         <v>31</v>
       </c>
-      <c r="AG1" s="53" t="s">
+      <c r="AG1" s="52" t="s">
         <v>32</v>
       </c>
-      <c r="AH1" s="53" t="s">
+      <c r="AH1" s="52" t="s">
         <v>33</v>
       </c>
-      <c r="AI1" s="53" t="s">
+      <c r="AI1" s="52" t="s">
         <v>34</v>
       </c>
-      <c r="AJ1" s="53" t="s">
+      <c r="AJ1" s="52" t="s">
         <v>35</v>
       </c>
-      <c r="AK1" s="41" t="s">
+      <c r="AK1" s="39" t="s">
         <v>36</v>
       </c>
       <c r="AL1" s="58" t="s">
         <v>37</v>
       </c>
-      <c r="AM1" s="53" t="s">
+      <c r="AM1" s="52" t="s">
         <v>38</v>
       </c>
-      <c r="AN1" s="53" t="s">
+      <c r="AN1" s="52" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="2" s="1" customFormat="1" ht="14.25" spans="1:30">
+    <row r="2" s="1" customFormat="1" ht="15.6" spans="1:30">
       <c r="A2" s="16">
         <v>200001</v>
       </c>
@@ -2326,7 +2299,7 @@
         <v>1800</v>
       </c>
       <c r="Q2" s="1">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="R2" s="46">
         <v>6916</v>
@@ -2359,11 +2332,11 @@
       <c r="AC2" s="1">
         <v>0</v>
       </c>
-      <c r="AD2" s="55">
+      <c r="AD2" s="54">
         <v>200</v>
       </c>
     </row>
-    <row r="3" s="1" customFormat="1" ht="14.25" spans="1:30">
+    <row r="3" s="1" customFormat="1" ht="15.6" spans="1:30">
       <c r="A3" s="16">
         <v>200002</v>
       </c>
@@ -2409,7 +2382,7 @@
         <v>1800</v>
       </c>
       <c r="Q3" s="1">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="R3" s="46">
         <v>6916</v>
@@ -2442,11 +2415,11 @@
       <c r="AC3" s="1">
         <v>0</v>
       </c>
-      <c r="AD3" s="55">
+      <c r="AD3" s="54">
         <v>200</v>
       </c>
     </row>
-    <row r="4" s="1" customFormat="1" ht="14.25" spans="1:30">
+    <row r="4" s="1" customFormat="1" ht="15.6" spans="1:30">
       <c r="A4" s="16">
         <v>200003</v>
       </c>
@@ -2492,7 +2465,7 @@
         <v>1800</v>
       </c>
       <c r="Q4" s="1">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="R4" s="46">
         <v>6916</v>
@@ -2525,11 +2498,11 @@
       <c r="AC4" s="1">
         <v>0</v>
       </c>
-      <c r="AD4" s="55">
+      <c r="AD4" s="54">
         <v>200</v>
       </c>
     </row>
-    <row r="5" s="1" customFormat="1" ht="14.25" spans="1:30">
+    <row r="5" s="1" customFormat="1" ht="15.6" spans="1:30">
       <c r="A5" s="16">
         <v>200004</v>
       </c>
@@ -2575,7 +2548,7 @@
         <v>1800</v>
       </c>
       <c r="Q5" s="1">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="R5" s="46">
         <v>6916</v>
@@ -2608,11 +2581,11 @@
       <c r="AC5" s="1">
         <v>0</v>
       </c>
-      <c r="AD5" s="55">
+      <c r="AD5" s="54">
         <v>200</v>
       </c>
     </row>
-    <row r="6" s="1" customFormat="1" ht="14.25" spans="1:30">
+    <row r="6" s="1" customFormat="1" ht="15.6" spans="1:30">
       <c r="A6" s="16">
         <v>200005</v>
       </c>
@@ -2658,7 +2631,7 @@
         <v>1800</v>
       </c>
       <c r="Q6" s="1">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="R6" s="46">
         <v>6916</v>
@@ -2691,11 +2664,11 @@
       <c r="AC6" s="1">
         <v>0</v>
       </c>
-      <c r="AD6" s="55">
+      <c r="AD6" s="54">
         <v>200</v>
       </c>
     </row>
-    <row r="7" s="1" customFormat="1" ht="14.25" spans="1:30">
+    <row r="7" s="1" customFormat="1" ht="15.6" spans="1:30">
       <c r="A7" s="16">
         <v>200006</v>
       </c>
@@ -2741,7 +2714,7 @@
         <v>1800</v>
       </c>
       <c r="Q7" s="1">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="R7" s="46">
         <v>6916</v>
@@ -2774,11 +2747,11 @@
       <c r="AC7" s="1">
         <v>0</v>
       </c>
-      <c r="AD7" s="55">
+      <c r="AD7" s="54">
         <v>200</v>
       </c>
     </row>
-    <row r="8" s="1" customFormat="1" ht="14.25" spans="1:30">
+    <row r="8" s="1" customFormat="1" ht="15.6" spans="1:30">
       <c r="A8" s="16">
         <v>200007</v>
       </c>
@@ -2824,7 +2797,7 @@
         <v>1800</v>
       </c>
       <c r="Q8" s="1">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="R8" s="46">
         <v>6916</v>
@@ -2857,11 +2830,11 @@
       <c r="AC8" s="1">
         <v>0</v>
       </c>
-      <c r="AD8" s="55">
+      <c r="AD8" s="54">
         <v>200</v>
       </c>
     </row>
-    <row r="9" s="1" customFormat="1" ht="14.25" spans="1:30">
+    <row r="9" s="1" customFormat="1" ht="15.6" spans="1:30">
       <c r="A9" s="1">
         <v>201001</v>
       </c>
@@ -2888,7 +2861,7 @@
       <c r="J9" s="1">
         <v>0</v>
       </c>
-      <c r="K9" s="42" t="s">
+      <c r="K9" s="40" t="s">
         <v>47</v>
       </c>
       <c r="L9" s="1">
@@ -2907,7 +2880,7 @@
         <v>1800</v>
       </c>
       <c r="Q9" s="1">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="R9" s="48">
         <v>6917</v>
@@ -2940,7 +2913,7 @@
       <c r="AC9" s="1">
         <v>0</v>
       </c>
-      <c r="AD9" s="55">
+      <c r="AD9" s="54">
         <v>201</v>
       </c>
     </row>
@@ -2971,7 +2944,7 @@
       <c r="J10" s="1">
         <v>0</v>
       </c>
-      <c r="K10" s="42" t="s">
+      <c r="K10" s="40" t="s">
         <v>47</v>
       </c>
       <c r="L10" s="1">
@@ -2990,7 +2963,7 @@
         <v>1800</v>
       </c>
       <c r="Q10" s="1">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="R10" s="48">
         <v>6917</v>
@@ -3023,11 +2996,11 @@
       <c r="AC10" s="1">
         <v>0</v>
       </c>
-      <c r="AD10" s="55">
+      <c r="AD10" s="54">
         <v>201</v>
       </c>
     </row>
-    <row r="11" s="1" customFormat="1" ht="14.25" spans="1:30">
+    <row r="11" s="1" customFormat="1" ht="15.6" spans="1:30">
       <c r="A11" s="1">
         <v>201003</v>
       </c>
@@ -3054,7 +3027,7 @@
       <c r="J11" s="1">
         <v>0</v>
       </c>
-      <c r="K11" s="42" t="s">
+      <c r="K11" s="40" t="s">
         <v>47</v>
       </c>
       <c r="L11" s="1">
@@ -3073,7 +3046,7 @@
         <v>1800</v>
       </c>
       <c r="Q11" s="1">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="R11" s="48">
         <v>6917</v>
@@ -3106,11 +3079,11 @@
       <c r="AC11" s="1">
         <v>0</v>
       </c>
-      <c r="AD11" s="55">
+      <c r="AD11" s="54">
         <v>201</v>
       </c>
     </row>
-    <row r="12" s="1" customFormat="1" ht="14.25" spans="1:30">
+    <row r="12" s="1" customFormat="1" ht="15.6" spans="1:30">
       <c r="A12" s="1">
         <v>201004</v>
       </c>
@@ -3137,7 +3110,7 @@
       <c r="J12" s="1">
         <v>0</v>
       </c>
-      <c r="K12" s="42" t="s">
+      <c r="K12" s="40" t="s">
         <v>47</v>
       </c>
       <c r="L12" s="1">
@@ -3156,7 +3129,7 @@
         <v>1800</v>
       </c>
       <c r="Q12" s="1">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="R12" s="48">
         <v>6917</v>
@@ -3189,11 +3162,11 @@
       <c r="AC12" s="1">
         <v>0</v>
       </c>
-      <c r="AD12" s="55">
+      <c r="AD12" s="54">
         <v>201</v>
       </c>
     </row>
-    <row r="13" s="1" customFormat="1" ht="14.25" spans="1:30">
+    <row r="13" s="1" customFormat="1" ht="15.6" spans="1:30">
       <c r="A13" s="1">
         <v>201005</v>
       </c>
@@ -3220,7 +3193,7 @@
       <c r="J13" s="1">
         <v>0</v>
       </c>
-      <c r="K13" s="42" t="s">
+      <c r="K13" s="40" t="s">
         <v>47</v>
       </c>
       <c r="L13" s="1">
@@ -3239,7 +3212,7 @@
         <v>1800</v>
       </c>
       <c r="Q13" s="1">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="R13" s="48">
         <v>6917</v>
@@ -3272,11 +3245,11 @@
       <c r="AC13" s="1">
         <v>0</v>
       </c>
-      <c r="AD13" s="55">
+      <c r="AD13" s="54">
         <v>201</v>
       </c>
     </row>
-    <row r="14" s="1" customFormat="1" ht="14.25" spans="1:30">
+    <row r="14" s="1" customFormat="1" ht="15.6" spans="1:30">
       <c r="A14" s="1">
         <v>201006</v>
       </c>
@@ -3303,7 +3276,7 @@
       <c r="J14" s="1">
         <v>0</v>
       </c>
-      <c r="K14" s="42" t="s">
+      <c r="K14" s="40" t="s">
         <v>47</v>
       </c>
       <c r="L14" s="1">
@@ -3322,7 +3295,7 @@
         <v>1800</v>
       </c>
       <c r="Q14" s="1">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="R14" s="48">
         <v>6917</v>
@@ -3355,11 +3328,11 @@
       <c r="AC14" s="1">
         <v>0</v>
       </c>
-      <c r="AD14" s="55">
+      <c r="AD14" s="54">
         <v>201</v>
       </c>
     </row>
-    <row r="15" s="1" customFormat="1" ht="14.25" spans="1:30">
+    <row r="15" s="1" customFormat="1" ht="15.6" spans="1:30">
       <c r="A15" s="1">
         <v>201007</v>
       </c>
@@ -3386,7 +3359,7 @@
       <c r="J15" s="1">
         <v>0</v>
       </c>
-      <c r="K15" s="42" t="s">
+      <c r="K15" s="40" t="s">
         <v>47</v>
       </c>
       <c r="L15" s="1">
@@ -3405,7 +3378,7 @@
         <v>1800</v>
       </c>
       <c r="Q15" s="1">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="R15" s="48">
         <v>6917</v>
@@ -3438,7 +3411,7 @@
       <c r="AC15" s="1">
         <v>0</v>
       </c>
-      <c r="AD15" s="55">
+      <c r="AD15" s="54">
         <v>201</v>
       </c>
     </row>
@@ -3469,10 +3442,10 @@
       <c r="J16" s="1">
         <v>0</v>
       </c>
-      <c r="K16" s="42" t="s">
+      <c r="K16" s="40" t="s">
         <v>49</v>
       </c>
-      <c r="L16" s="43">
+      <c r="L16" s="41">
         <v>2</v>
       </c>
       <c r="M16" s="1">
@@ -3488,7 +3461,7 @@
         <v>3600</v>
       </c>
       <c r="Q16" s="1">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="R16" s="48">
         <v>6914</v>
@@ -3521,11 +3494,11 @@
       <c r="AC16" s="1">
         <v>0</v>
       </c>
-      <c r="AD16" s="55">
+      <c r="AD16" s="54">
         <v>201</v>
       </c>
     </row>
-    <row r="17" s="1" customFormat="1" ht="14.25" spans="1:30">
+    <row r="17" s="1" customFormat="1" ht="15.6" spans="1:30">
       <c r="A17" s="1">
         <v>201009</v>
       </c>
@@ -3552,7 +3525,7 @@
       <c r="J17" s="1">
         <v>0</v>
       </c>
-      <c r="K17" s="42" t="s">
+      <c r="K17" s="40" t="s">
         <v>49</v>
       </c>
       <c r="L17" s="1">
@@ -3571,7 +3544,7 @@
         <v>3600</v>
       </c>
       <c r="Q17" s="1">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="R17" s="48">
         <v>6914</v>
@@ -3604,11 +3577,11 @@
       <c r="AC17" s="1">
         <v>0</v>
       </c>
-      <c r="AD17" s="55">
+      <c r="AD17" s="54">
         <v>201</v>
       </c>
     </row>
-    <row r="18" s="1" customFormat="1" ht="14.25" spans="1:30">
+    <row r="18" s="1" customFormat="1" ht="15.6" spans="1:30">
       <c r="A18" s="1">
         <v>201010</v>
       </c>
@@ -3635,7 +3608,7 @@
       <c r="J18" s="1">
         <v>0</v>
       </c>
-      <c r="K18" s="42" t="s">
+      <c r="K18" s="40" t="s">
         <v>49</v>
       </c>
       <c r="L18" s="1">
@@ -3654,7 +3627,7 @@
         <v>3600</v>
       </c>
       <c r="Q18" s="1">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="R18" s="48">
         <v>6914</v>
@@ -3687,11 +3660,11 @@
       <c r="AC18" s="1">
         <v>0</v>
       </c>
-      <c r="AD18" s="55">
+      <c r="AD18" s="54">
         <v>201</v>
       </c>
     </row>
-    <row r="19" s="1" customFormat="1" ht="14.25" spans="1:30">
+    <row r="19" s="1" customFormat="1" ht="15.6" spans="1:30">
       <c r="A19" s="1">
         <v>201011</v>
       </c>
@@ -3718,7 +3691,7 @@
       <c r="J19" s="1">
         <v>0</v>
       </c>
-      <c r="K19" s="42" t="s">
+      <c r="K19" s="40" t="s">
         <v>49</v>
       </c>
       <c r="L19" s="1">
@@ -3737,7 +3710,7 @@
         <v>3600</v>
       </c>
       <c r="Q19" s="1">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="R19" s="48">
         <v>6914</v>
@@ -3770,11 +3743,11 @@
       <c r="AC19" s="1">
         <v>0</v>
       </c>
-      <c r="AD19" s="55">
+      <c r="AD19" s="54">
         <v>201</v>
       </c>
     </row>
-    <row r="20" s="1" customFormat="1" ht="14.25" spans="1:30">
+    <row r="20" s="1" customFormat="1" ht="15.6" spans="1:30">
       <c r="A20" s="1">
         <v>201012</v>
       </c>
@@ -3801,7 +3774,7 @@
       <c r="J20" s="1">
         <v>0</v>
       </c>
-      <c r="K20" s="42" t="s">
+      <c r="K20" s="40" t="s">
         <v>49</v>
       </c>
       <c r="L20" s="1">
@@ -3820,7 +3793,7 @@
         <v>3600</v>
       </c>
       <c r="Q20" s="1">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="R20" s="48">
         <v>6914</v>
@@ -3853,11 +3826,11 @@
       <c r="AC20" s="1">
         <v>0</v>
       </c>
-      <c r="AD20" s="55">
+      <c r="AD20" s="54">
         <v>201</v>
       </c>
     </row>
-    <row r="21" s="1" customFormat="1" ht="14.25" spans="1:30">
+    <row r="21" s="1" customFormat="1" ht="15.6" spans="1:30">
       <c r="A21" s="1">
         <v>201013</v>
       </c>
@@ -3884,7 +3857,7 @@
       <c r="J21" s="1">
         <v>0</v>
       </c>
-      <c r="K21" s="42" t="s">
+      <c r="K21" s="40" t="s">
         <v>49</v>
       </c>
       <c r="L21" s="1">
@@ -3903,7 +3876,7 @@
         <v>3600</v>
       </c>
       <c r="Q21" s="1">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="R21" s="48">
         <v>6914</v>
@@ -3936,11 +3909,11 @@
       <c r="AC21" s="1">
         <v>0</v>
       </c>
-      <c r="AD21" s="55">
+      <c r="AD21" s="54">
         <v>201</v>
       </c>
     </row>
-    <row r="22" s="1" customFormat="1" ht="14.25" spans="1:30">
+    <row r="22" s="1" customFormat="1" ht="15.6" spans="1:30">
       <c r="A22" s="1">
         <v>201014</v>
       </c>
@@ -3967,7 +3940,7 @@
       <c r="J22" s="1">
         <v>0</v>
       </c>
-      <c r="K22" s="42" t="s">
+      <c r="K22" s="40" t="s">
         <v>49</v>
       </c>
       <c r="L22" s="1">
@@ -3986,7 +3959,7 @@
         <v>3600</v>
       </c>
       <c r="Q22" s="1">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="R22" s="48">
         <v>6914</v>
@@ -4019,7 +3992,7 @@
       <c r="AC22" s="1">
         <v>0</v>
       </c>
-      <c r="AD22" s="55">
+      <c r="AD22" s="54">
         <v>201</v>
       </c>
     </row>
@@ -4088,7 +4061,7 @@
       <c r="X23" s="2">
         <v>300</v>
       </c>
-      <c r="Y23" s="56">
+      <c r="Y23" s="55">
         <v>0</v>
       </c>
       <c r="Z23" s="2">
@@ -4166,7 +4139,7 @@
       <c r="X24" s="2">
         <v>300</v>
       </c>
-      <c r="Y24" s="56">
+      <c r="Y24" s="55">
         <v>0</v>
       </c>
       <c r="Z24" s="2">
@@ -4246,7 +4219,7 @@
       <c r="X25" s="2">
         <v>300</v>
       </c>
-      <c r="Y25" s="56">
+      <c r="Y25" s="55">
         <v>0</v>
       </c>
       <c r="Z25" s="2">
@@ -4343,7 +4316,7 @@
       <c r="X26" s="2">
         <v>300</v>
       </c>
-      <c r="Y26" s="56">
+      <c r="Y26" s="55">
         <v>0</v>
       </c>
       <c r="Z26" s="2">
@@ -4440,7 +4413,7 @@
       <c r="X27" s="2">
         <v>300</v>
       </c>
-      <c r="Y27" s="56">
+      <c r="Y27" s="55">
         <v>0</v>
       </c>
       <c r="Z27" s="2">
@@ -4537,7 +4510,7 @@
       <c r="X28" s="2">
         <v>300</v>
       </c>
-      <c r="Y28" s="56">
+      <c r="Y28" s="55">
         <v>0</v>
       </c>
       <c r="Z28" s="2">
@@ -4634,7 +4607,7 @@
       <c r="X29" s="2">
         <v>300</v>
       </c>
-      <c r="Y29" s="56">
+      <c r="Y29" s="55">
         <v>0</v>
       </c>
       <c r="Z29" s="2">
@@ -4664,599 +4637,734 @@
       <c r="AR29" s="2"/>
       <c r="AS29" s="2"/>
     </row>
-    <row r="30" s="3" customFormat="1" ht="14.25" spans="1:30">
-      <c r="A30" s="23">
+    <row r="30" s="3" customFormat="1" spans="1:50">
+      <c r="A30" s="19">
         <v>231001</v>
       </c>
-      <c r="B30" s="24" t="s">
+      <c r="B30" s="23" t="s">
         <v>55</v>
       </c>
-      <c r="C30" s="25" t="s">
+      <c r="C30" s="24" t="s">
+        <v>51</v>
+      </c>
+      <c r="D30" s="23"/>
+      <c r="E30" s="24" t="s">
+        <v>52</v>
+      </c>
+      <c r="F30" s="24"/>
+      <c r="G30" s="23">
+        <v>170016</v>
+      </c>
+      <c r="H30" s="23">
+        <v>0</v>
+      </c>
+      <c r="I30" s="23">
+        <v>1</v>
+      </c>
+      <c r="J30" s="23">
+        <v>0</v>
+      </c>
+      <c r="K30" s="42">
+        <v>180320</v>
+      </c>
+      <c r="L30" s="23">
+        <v>1</v>
+      </c>
+      <c r="M30" s="2">
+        <v>50</v>
+      </c>
+      <c r="N30" t="s">
+        <v>54</v>
+      </c>
+      <c r="O30" s="23">
+        <v>3</v>
+      </c>
+      <c r="P30" s="23">
+        <v>0</v>
+      </c>
+      <c r="Q30" s="23">
+        <v>0</v>
+      </c>
+      <c r="R30" s="23">
+        <v>0</v>
+      </c>
+      <c r="S30" s="23"/>
+      <c r="T30" s="23">
+        <v>0</v>
+      </c>
+      <c r="U30" s="23">
+        <v>0</v>
+      </c>
+      <c r="V30" s="23">
+        <v>0</v>
+      </c>
+      <c r="W30" s="23">
+        <v>1</v>
+      </c>
+      <c r="X30" s="23">
+        <v>155</v>
+      </c>
+      <c r="Y30" s="23">
+        <v>0</v>
+      </c>
+      <c r="Z30" s="23">
+        <v>1</v>
+      </c>
+      <c r="AA30" s="23"/>
+      <c r="AB30" s="23">
+        <v>0</v>
+      </c>
+      <c r="AC30" s="56">
+        <v>0</v>
+      </c>
+      <c r="AD30" s="23"/>
+      <c r="AE30" s="23"/>
+      <c r="AF30" s="23"/>
+      <c r="AG30" s="23"/>
+      <c r="AH30" s="23"/>
+      <c r="AI30" s="23"/>
+      <c r="AJ30" s="23"/>
+      <c r="AK30" s="23"/>
+      <c r="AL30" s="23"/>
+      <c r="AM30" s="23"/>
+      <c r="AN30" s="23"/>
+      <c r="AO30" s="23"/>
+      <c r="AP30" s="23"/>
+      <c r="AQ30" s="23"/>
+      <c r="AR30" s="23"/>
+      <c r="AS30" s="23"/>
+      <c r="AT30" s="23"/>
+      <c r="AU30" s="23"/>
+      <c r="AV30" s="23"/>
+      <c r="AW30" s="23"/>
+      <c r="AX30" s="23"/>
+    </row>
+    <row r="31" s="3" customFormat="1" spans="1:48">
+      <c r="A31" s="19">
+        <v>231002</v>
+      </c>
+      <c r="B31" s="23" t="s">
+        <v>55</v>
+      </c>
+      <c r="C31" s="24" t="s">
+        <v>51</v>
+      </c>
+      <c r="D31" s="23"/>
+      <c r="E31" s="24" t="s">
+        <v>52</v>
+      </c>
+      <c r="F31" s="24"/>
+      <c r="G31" s="23">
+        <v>170016</v>
+      </c>
+      <c r="H31" s="23">
+        <v>0</v>
+      </c>
+      <c r="I31" s="23">
+        <v>1</v>
+      </c>
+      <c r="J31" s="23">
+        <v>0</v>
+      </c>
+      <c r="K31" s="42">
+        <v>180320</v>
+      </c>
+      <c r="L31" s="23">
+        <v>1</v>
+      </c>
+      <c r="M31" s="2">
+        <v>50</v>
+      </c>
+      <c r="N31" t="s">
+        <v>54</v>
+      </c>
+      <c r="O31" s="23">
+        <v>3</v>
+      </c>
+      <c r="P31" s="23">
+        <v>0</v>
+      </c>
+      <c r="Q31" s="23">
+        <v>0</v>
+      </c>
+      <c r="R31" s="23">
+        <v>0</v>
+      </c>
+      <c r="S31" s="23"/>
+      <c r="T31" s="23">
+        <v>0</v>
+      </c>
+      <c r="U31" s="23">
+        <v>0</v>
+      </c>
+      <c r="V31" s="23">
+        <v>0</v>
+      </c>
+      <c r="W31" s="23">
+        <v>1</v>
+      </c>
+      <c r="X31" s="23">
+        <v>155</v>
+      </c>
+      <c r="Y31" s="23">
+        <v>0</v>
+      </c>
+      <c r="Z31" s="23">
+        <v>1</v>
+      </c>
+      <c r="AA31" s="23"/>
+      <c r="AB31" s="23">
+        <v>0</v>
+      </c>
+      <c r="AC31" s="56">
+        <v>0</v>
+      </c>
+      <c r="AD31" s="23"/>
+      <c r="AE31" s="23"/>
+      <c r="AF31" s="23"/>
+      <c r="AG31" s="23"/>
+      <c r="AH31" s="23"/>
+      <c r="AI31" s="23"/>
+      <c r="AJ31" s="23"/>
+      <c r="AK31" s="23"/>
+      <c r="AL31" s="23"/>
+      <c r="AM31" s="23"/>
+      <c r="AN31" s="23"/>
+      <c r="AO31" s="23"/>
+      <c r="AP31" s="23"/>
+      <c r="AQ31" s="23"/>
+      <c r="AR31" s="23"/>
+      <c r="AS31" s="23"/>
+      <c r="AT31" s="23"/>
+      <c r="AU31" s="23"/>
+      <c r="AV31" s="23"/>
+    </row>
+    <row r="32" s="3" customFormat="1" spans="1:48">
+      <c r="A32" s="19">
+        <v>231003</v>
+      </c>
+      <c r="B32" s="23" t="s">
+        <v>55</v>
+      </c>
+      <c r="C32" s="24" t="s">
+        <v>51</v>
+      </c>
+      <c r="D32" s="23"/>
+      <c r="E32" s="24" t="s">
+        <v>52</v>
+      </c>
+      <c r="F32" s="24"/>
+      <c r="G32" s="23">
+        <v>170016</v>
+      </c>
+      <c r="H32" s="23">
+        <v>0</v>
+      </c>
+      <c r="I32" s="23">
+        <v>1</v>
+      </c>
+      <c r="J32" s="23">
+        <v>0</v>
+      </c>
+      <c r="K32" s="42">
+        <v>180320</v>
+      </c>
+      <c r="L32" s="23">
+        <v>1</v>
+      </c>
+      <c r="M32" s="2">
+        <v>50</v>
+      </c>
+      <c r="N32" t="s">
+        <v>54</v>
+      </c>
+      <c r="O32" s="23">
+        <v>3</v>
+      </c>
+      <c r="P32" s="23">
+        <v>0</v>
+      </c>
+      <c r="Q32" s="23">
+        <v>0</v>
+      </c>
+      <c r="R32" s="23">
+        <v>0</v>
+      </c>
+      <c r="S32" s="23"/>
+      <c r="T32" s="23">
+        <v>0</v>
+      </c>
+      <c r="U32" s="23">
+        <v>0</v>
+      </c>
+      <c r="V32" s="23">
+        <v>0</v>
+      </c>
+      <c r="W32" s="23">
+        <v>1</v>
+      </c>
+      <c r="X32" s="23">
+        <v>155</v>
+      </c>
+      <c r="Y32" s="23">
+        <v>0</v>
+      </c>
+      <c r="Z32" s="23">
+        <v>1</v>
+      </c>
+      <c r="AA32" s="23"/>
+      <c r="AB32" s="23">
+        <v>0</v>
+      </c>
+      <c r="AC32" s="56">
+        <v>0</v>
+      </c>
+      <c r="AD32" s="23"/>
+      <c r="AE32" s="23"/>
+      <c r="AF32" s="23"/>
+      <c r="AG32" s="23"/>
+      <c r="AH32" s="23"/>
+      <c r="AI32" s="23"/>
+      <c r="AJ32" s="23"/>
+      <c r="AK32" s="23"/>
+      <c r="AL32" s="23"/>
+      <c r="AM32" s="23"/>
+      <c r="AN32" s="23"/>
+      <c r="AO32" s="23"/>
+      <c r="AP32" s="23"/>
+      <c r="AQ32" s="23"/>
+      <c r="AR32" s="23"/>
+      <c r="AS32" s="23"/>
+      <c r="AT32" s="23"/>
+      <c r="AU32" s="23"/>
+      <c r="AV32" s="23"/>
+    </row>
+    <row r="33" s="3" customFormat="1" spans="1:48">
+      <c r="A33" s="19">
+        <v>231004</v>
+      </c>
+      <c r="B33" s="23" t="s">
+        <v>55</v>
+      </c>
+      <c r="C33" s="24" t="s">
+        <v>51</v>
+      </c>
+      <c r="D33" s="23"/>
+      <c r="E33" s="24" t="s">
+        <v>52</v>
+      </c>
+      <c r="F33" s="24"/>
+      <c r="G33" s="23">
+        <v>170016</v>
+      </c>
+      <c r="H33" s="23">
+        <v>0</v>
+      </c>
+      <c r="I33" s="23">
+        <v>1</v>
+      </c>
+      <c r="J33" s="23">
+        <v>0</v>
+      </c>
+      <c r="K33" s="42">
+        <v>180320</v>
+      </c>
+      <c r="L33" s="23">
+        <v>1</v>
+      </c>
+      <c r="M33" s="2">
+        <v>50</v>
+      </c>
+      <c r="N33" t="s">
+        <v>54</v>
+      </c>
+      <c r="O33" s="23">
+        <v>3</v>
+      </c>
+      <c r="P33" s="23">
+        <v>0</v>
+      </c>
+      <c r="Q33" s="23">
+        <v>0</v>
+      </c>
+      <c r="R33" s="23">
+        <v>0</v>
+      </c>
+      <c r="S33" s="23"/>
+      <c r="T33" s="23">
+        <v>0</v>
+      </c>
+      <c r="U33" s="23">
+        <v>0</v>
+      </c>
+      <c r="V33" s="23">
+        <v>0</v>
+      </c>
+      <c r="W33" s="23">
+        <v>1</v>
+      </c>
+      <c r="X33" s="23">
+        <v>155</v>
+      </c>
+      <c r="Y33" s="23">
+        <v>0</v>
+      </c>
+      <c r="Z33" s="23">
+        <v>1</v>
+      </c>
+      <c r="AA33" s="23"/>
+      <c r="AB33" s="23">
+        <v>0</v>
+      </c>
+      <c r="AC33" s="56">
+        <v>0</v>
+      </c>
+      <c r="AD33" s="23"/>
+      <c r="AE33" s="23"/>
+      <c r="AF33" s="23"/>
+      <c r="AG33" s="23"/>
+      <c r="AH33" s="23"/>
+      <c r="AI33" s="23"/>
+      <c r="AJ33" s="23"/>
+      <c r="AK33" s="23"/>
+      <c r="AL33" s="23"/>
+      <c r="AM33" s="23"/>
+      <c r="AN33" s="23"/>
+      <c r="AO33" s="23"/>
+      <c r="AP33" s="23"/>
+      <c r="AQ33" s="23"/>
+      <c r="AR33" s="23"/>
+      <c r="AS33" s="23"/>
+      <c r="AT33" s="23"/>
+      <c r="AU33" s="23"/>
+      <c r="AV33" s="23"/>
+    </row>
+    <row r="34" s="3" customFormat="1" spans="1:48">
+      <c r="A34" s="19">
+        <v>231005</v>
+      </c>
+      <c r="B34" s="23" t="s">
+        <v>55</v>
+      </c>
+      <c r="C34" s="24" t="s">
+        <v>51</v>
+      </c>
+      <c r="D34" s="23"/>
+      <c r="E34" s="24" t="s">
+        <v>52</v>
+      </c>
+      <c r="F34" s="24"/>
+      <c r="G34" s="23">
+        <v>170016</v>
+      </c>
+      <c r="H34" s="23">
+        <v>0</v>
+      </c>
+      <c r="I34" s="23">
+        <v>1</v>
+      </c>
+      <c r="J34" s="23">
+        <v>0</v>
+      </c>
+      <c r="K34" s="42">
+        <v>180320</v>
+      </c>
+      <c r="L34" s="23">
+        <v>1</v>
+      </c>
+      <c r="M34" s="2">
+        <v>50</v>
+      </c>
+      <c r="N34" t="s">
+        <v>54</v>
+      </c>
+      <c r="O34" s="23">
+        <v>3</v>
+      </c>
+      <c r="P34" s="23">
+        <v>0</v>
+      </c>
+      <c r="Q34" s="23">
+        <v>0</v>
+      </c>
+      <c r="R34" s="23">
+        <v>0</v>
+      </c>
+      <c r="S34" s="23"/>
+      <c r="T34" s="23">
+        <v>0</v>
+      </c>
+      <c r="U34" s="23">
+        <v>0</v>
+      </c>
+      <c r="V34" s="23">
+        <v>0</v>
+      </c>
+      <c r="W34" s="23">
+        <v>1</v>
+      </c>
+      <c r="X34" s="23">
+        <v>155</v>
+      </c>
+      <c r="Y34" s="23">
+        <v>0</v>
+      </c>
+      <c r="Z34" s="23">
+        <v>1</v>
+      </c>
+      <c r="AA34" s="23"/>
+      <c r="AB34" s="23">
+        <v>0</v>
+      </c>
+      <c r="AC34" s="56">
+        <v>0</v>
+      </c>
+      <c r="AD34" s="23"/>
+      <c r="AE34" s="23"/>
+      <c r="AF34" s="23"/>
+      <c r="AG34" s="23"/>
+      <c r="AH34" s="23"/>
+      <c r="AI34" s="23"/>
+      <c r="AJ34" s="23"/>
+      <c r="AK34" s="23"/>
+      <c r="AL34" s="23"/>
+      <c r="AM34" s="23"/>
+      <c r="AN34" s="23"/>
+      <c r="AO34" s="23"/>
+      <c r="AP34" s="23"/>
+      <c r="AQ34" s="23"/>
+      <c r="AR34" s="23"/>
+      <c r="AS34" s="23"/>
+      <c r="AT34" s="23"/>
+      <c r="AU34" s="23"/>
+      <c r="AV34" s="23"/>
+    </row>
+    <row r="35" s="3" customFormat="1" spans="1:48">
+      <c r="A35" s="19">
+        <v>231006</v>
+      </c>
+      <c r="B35" s="23" t="s">
+        <v>55</v>
+      </c>
+      <c r="C35" s="24" t="s">
+        <v>51</v>
+      </c>
+      <c r="D35" s="23"/>
+      <c r="E35" s="24" t="s">
+        <v>52</v>
+      </c>
+      <c r="F35" s="24"/>
+      <c r="G35" s="23">
+        <v>170016</v>
+      </c>
+      <c r="H35" s="23">
+        <v>0</v>
+      </c>
+      <c r="I35" s="23">
+        <v>1</v>
+      </c>
+      <c r="J35" s="23">
+        <v>0</v>
+      </c>
+      <c r="K35" s="42">
+        <v>180320</v>
+      </c>
+      <c r="L35" s="23">
+        <v>1</v>
+      </c>
+      <c r="M35" s="2">
+        <v>50</v>
+      </c>
+      <c r="N35" t="s">
+        <v>54</v>
+      </c>
+      <c r="O35" s="23">
+        <v>3</v>
+      </c>
+      <c r="P35" s="23">
+        <v>0</v>
+      </c>
+      <c r="Q35" s="23">
+        <v>0</v>
+      </c>
+      <c r="R35" s="23">
+        <v>0</v>
+      </c>
+      <c r="S35" s="23"/>
+      <c r="T35" s="23">
+        <v>0</v>
+      </c>
+      <c r="U35" s="23">
+        <v>0</v>
+      </c>
+      <c r="V35" s="23">
+        <v>0</v>
+      </c>
+      <c r="W35" s="23">
+        <v>1</v>
+      </c>
+      <c r="X35" s="23">
+        <v>155</v>
+      </c>
+      <c r="Y35" s="23">
+        <v>0</v>
+      </c>
+      <c r="Z35" s="23">
+        <v>1</v>
+      </c>
+      <c r="AA35" s="23"/>
+      <c r="AB35" s="23">
+        <v>0</v>
+      </c>
+      <c r="AC35" s="56">
+        <v>0</v>
+      </c>
+      <c r="AD35" s="23"/>
+      <c r="AE35" s="23"/>
+      <c r="AF35" s="23"/>
+      <c r="AG35" s="23"/>
+      <c r="AH35" s="23"/>
+      <c r="AI35" s="23"/>
+      <c r="AJ35" s="23"/>
+      <c r="AK35" s="23"/>
+      <c r="AL35" s="23"/>
+      <c r="AM35" s="23"/>
+      <c r="AN35" s="23"/>
+      <c r="AO35" s="23"/>
+      <c r="AP35" s="23"/>
+      <c r="AQ35" s="23"/>
+      <c r="AR35" s="23"/>
+      <c r="AS35" s="23"/>
+      <c r="AT35" s="23"/>
+      <c r="AU35" s="23"/>
+      <c r="AV35" s="23"/>
+    </row>
+    <row r="36" s="3" customFormat="1" spans="1:48">
+      <c r="A36" s="19">
+        <v>231007</v>
+      </c>
+      <c r="B36" s="23" t="s">
+        <v>55</v>
+      </c>
+      <c r="C36" s="24" t="s">
+        <v>51</v>
+      </c>
+      <c r="D36" s="23"/>
+      <c r="E36" s="24" t="s">
+        <v>52</v>
+      </c>
+      <c r="F36" s="24"/>
+      <c r="G36" s="23">
+        <v>170016</v>
+      </c>
+      <c r="H36" s="23">
+        <v>0</v>
+      </c>
+      <c r="I36" s="23">
+        <v>1</v>
+      </c>
+      <c r="J36" s="23">
+        <v>0</v>
+      </c>
+      <c r="K36" s="42">
+        <v>180320</v>
+      </c>
+      <c r="L36" s="23">
+        <v>1</v>
+      </c>
+      <c r="M36" s="2">
+        <v>50</v>
+      </c>
+      <c r="N36" t="s">
+        <v>54</v>
+      </c>
+      <c r="O36" s="23">
+        <v>3</v>
+      </c>
+      <c r="P36" s="23">
+        <v>0</v>
+      </c>
+      <c r="Q36" s="23">
+        <v>0</v>
+      </c>
+      <c r="R36" s="23">
+        <v>0</v>
+      </c>
+      <c r="S36" s="23"/>
+      <c r="T36" s="23">
+        <v>0</v>
+      </c>
+      <c r="U36" s="23">
+        <v>0</v>
+      </c>
+      <c r="V36" s="23">
+        <v>0</v>
+      </c>
+      <c r="W36" s="23">
+        <v>1</v>
+      </c>
+      <c r="X36" s="23">
+        <v>155</v>
+      </c>
+      <c r="Y36" s="23">
+        <v>0</v>
+      </c>
+      <c r="Z36" s="23">
+        <v>1</v>
+      </c>
+      <c r="AA36" s="23"/>
+      <c r="AB36" s="23">
+        <v>0</v>
+      </c>
+      <c r="AC36" s="56">
+        <v>0</v>
+      </c>
+      <c r="AD36" s="23"/>
+      <c r="AE36" s="23"/>
+      <c r="AF36" s="23"/>
+      <c r="AG36" s="23"/>
+      <c r="AH36" s="23"/>
+      <c r="AI36" s="23"/>
+      <c r="AJ36" s="23"/>
+      <c r="AK36" s="23"/>
+      <c r="AL36" s="23"/>
+      <c r="AM36" s="23"/>
+      <c r="AN36" s="23"/>
+      <c r="AO36" s="23"/>
+      <c r="AP36" s="23"/>
+      <c r="AQ36" s="23"/>
+      <c r="AR36" s="23"/>
+      <c r="AS36" s="23"/>
+      <c r="AT36" s="23"/>
+      <c r="AU36" s="23"/>
+      <c r="AV36" s="23"/>
+    </row>
+    <row r="37" s="4" customFormat="1" ht="15.6" spans="1:30">
+      <c r="A37" s="25">
+        <v>232001</v>
+      </c>
+      <c r="B37" s="26" t="s">
         <v>56</v>
       </c>
-      <c r="E30" s="26" t="s">
+      <c r="C37" s="27" t="s">
+        <v>51</v>
+      </c>
+      <c r="D37" s="28"/>
+      <c r="E37" s="28" t="s">
         <v>42</v>
       </c>
-      <c r="F30" s="26"/>
-      <c r="G30" s="3">
-        <v>150230</v>
-      </c>
-      <c r="H30" s="3">
-        <v>0</v>
-      </c>
-      <c r="I30" s="3">
-        <v>60</v>
-      </c>
-      <c r="J30" s="3">
-        <v>0</v>
-      </c>
-      <c r="K30" s="25" t="s">
+      <c r="F37" s="28"/>
+      <c r="H37" s="4">
+        <v>0</v>
+      </c>
+      <c r="I37" s="43">
+        <v>60</v>
+      </c>
+      <c r="J37" s="4">
+        <v>0</v>
+      </c>
+      <c r="K37" s="44" t="s">
         <v>57</v>
-      </c>
-      <c r="L30" s="3">
-        <v>28</v>
-      </c>
-      <c r="M30" s="3">
-        <v>20</v>
-      </c>
-      <c r="N30" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="O30" s="3">
-        <v>7</v>
-      </c>
-      <c r="P30" s="3">
-        <v>3600</v>
-      </c>
-      <c r="Q30" s="3">
-        <v>50</v>
-      </c>
-      <c r="R30" s="49">
-        <v>6915</v>
-      </c>
-      <c r="T30" s="47">
-        <v>170057</v>
-      </c>
-      <c r="U30" s="3">
-        <v>1</v>
-      </c>
-      <c r="V30" s="3">
-        <v>0</v>
-      </c>
-      <c r="W30" s="3">
-        <v>1</v>
-      </c>
-      <c r="X30" s="3">
-        <v>300</v>
-      </c>
-      <c r="Y30" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z30" s="3">
-        <v>0</v>
-      </c>
-      <c r="AB30" s="3">
-        <v>0</v>
-      </c>
-      <c r="AC30" s="3">
-        <v>0</v>
-      </c>
-      <c r="AD30" s="3">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="31" s="3" customFormat="1" ht="14.25" spans="1:30">
-      <c r="A31" s="23">
-        <v>231002</v>
-      </c>
-      <c r="B31" s="24" t="s">
-        <v>55</v>
-      </c>
-      <c r="C31" s="25" t="s">
-        <v>56</v>
-      </c>
-      <c r="E31" s="26" t="s">
-        <v>42</v>
-      </c>
-      <c r="F31" s="26"/>
-      <c r="G31" s="3">
-        <v>150230</v>
-      </c>
-      <c r="H31" s="3">
-        <v>0</v>
-      </c>
-      <c r="I31" s="3">
-        <v>60</v>
-      </c>
-      <c r="J31" s="3">
-        <v>0</v>
-      </c>
-      <c r="K31" s="25" t="s">
-        <v>57</v>
-      </c>
-      <c r="L31" s="3">
-        <v>28</v>
-      </c>
-      <c r="M31" s="3">
-        <v>20</v>
-      </c>
-      <c r="N31" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="O31" s="3">
-        <v>7</v>
-      </c>
-      <c r="P31" s="3">
-        <v>3600</v>
-      </c>
-      <c r="Q31" s="3">
-        <v>50</v>
-      </c>
-      <c r="R31" s="49">
-        <v>6915</v>
-      </c>
-      <c r="T31" s="47">
-        <v>170057</v>
-      </c>
-      <c r="U31" s="3">
-        <v>1</v>
-      </c>
-      <c r="V31" s="3">
-        <v>0</v>
-      </c>
-      <c r="W31" s="3">
-        <v>1</v>
-      </c>
-      <c r="X31" s="3">
-        <v>300</v>
-      </c>
-      <c r="Y31" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z31" s="3">
-        <v>0</v>
-      </c>
-      <c r="AB31" s="3">
-        <v>0</v>
-      </c>
-      <c r="AC31" s="3">
-        <v>0</v>
-      </c>
-      <c r="AD31" s="3">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="32" s="3" customFormat="1" ht="14.25" spans="1:30">
-      <c r="A32" s="23">
-        <v>231003</v>
-      </c>
-      <c r="B32" s="24" t="s">
-        <v>55</v>
-      </c>
-      <c r="C32" s="25" t="s">
-        <v>56</v>
-      </c>
-      <c r="E32" s="26" t="s">
-        <v>42</v>
-      </c>
-      <c r="F32" s="26"/>
-      <c r="G32" s="3">
-        <v>150230</v>
-      </c>
-      <c r="H32" s="3">
-        <v>0</v>
-      </c>
-      <c r="I32" s="3">
-        <v>60</v>
-      </c>
-      <c r="J32" s="3">
-        <v>0</v>
-      </c>
-      <c r="K32" s="25" t="s">
-        <v>57</v>
-      </c>
-      <c r="L32" s="3">
-        <v>28</v>
-      </c>
-      <c r="M32" s="3">
-        <v>20</v>
-      </c>
-      <c r="N32" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="O32" s="3">
-        <v>7</v>
-      </c>
-      <c r="P32" s="3">
-        <v>3600</v>
-      </c>
-      <c r="Q32" s="3">
-        <v>50</v>
-      </c>
-      <c r="R32" s="49">
-        <v>6915</v>
-      </c>
-      <c r="T32" s="47">
-        <v>170057</v>
-      </c>
-      <c r="U32" s="3">
-        <v>1</v>
-      </c>
-      <c r="V32" s="3">
-        <v>0</v>
-      </c>
-      <c r="W32" s="3">
-        <v>1</v>
-      </c>
-      <c r="X32" s="3">
-        <v>300</v>
-      </c>
-      <c r="Y32" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z32" s="3">
-        <v>0</v>
-      </c>
-      <c r="AB32" s="3">
-        <v>0</v>
-      </c>
-      <c r="AC32" s="3">
-        <v>0</v>
-      </c>
-      <c r="AD32" s="3">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="33" s="3" customFormat="1" ht="14.25" spans="1:30">
-      <c r="A33" s="23">
-        <v>231004</v>
-      </c>
-      <c r="B33" s="24" t="s">
-        <v>55</v>
-      </c>
-      <c r="C33" s="25" t="s">
-        <v>56</v>
-      </c>
-      <c r="E33" s="26" t="s">
-        <v>42</v>
-      </c>
-      <c r="F33" s="26"/>
-      <c r="G33" s="3">
-        <v>150230</v>
-      </c>
-      <c r="H33" s="3">
-        <v>0</v>
-      </c>
-      <c r="I33" s="3">
-        <v>60</v>
-      </c>
-      <c r="J33" s="3">
-        <v>0</v>
-      </c>
-      <c r="K33" s="25" t="s">
-        <v>57</v>
-      </c>
-      <c r="L33" s="3">
-        <v>28</v>
-      </c>
-      <c r="M33" s="3">
-        <v>20</v>
-      </c>
-      <c r="N33" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="O33" s="3">
-        <v>7</v>
-      </c>
-      <c r="P33" s="3">
-        <v>3600</v>
-      </c>
-      <c r="Q33" s="3">
-        <v>50</v>
-      </c>
-      <c r="R33" s="49">
-        <v>6915</v>
-      </c>
-      <c r="T33" s="47">
-        <v>170057</v>
-      </c>
-      <c r="U33" s="3">
-        <v>1</v>
-      </c>
-      <c r="V33" s="3">
-        <v>0</v>
-      </c>
-      <c r="W33" s="3">
-        <v>1</v>
-      </c>
-      <c r="X33" s="3">
-        <v>300</v>
-      </c>
-      <c r="Y33" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z33" s="3">
-        <v>0</v>
-      </c>
-      <c r="AB33" s="3">
-        <v>0</v>
-      </c>
-      <c r="AC33" s="3">
-        <v>0</v>
-      </c>
-      <c r="AD33" s="3">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="34" s="3" customFormat="1" ht="14.25" spans="1:30">
-      <c r="A34" s="23">
-        <v>231005</v>
-      </c>
-      <c r="B34" s="24" t="s">
-        <v>55</v>
-      </c>
-      <c r="C34" s="25" t="s">
-        <v>56</v>
-      </c>
-      <c r="E34" s="26" t="s">
-        <v>42</v>
-      </c>
-      <c r="F34" s="26"/>
-      <c r="G34" s="3">
-        <v>150230</v>
-      </c>
-      <c r="H34" s="3">
-        <v>0</v>
-      </c>
-      <c r="I34" s="3">
-        <v>60</v>
-      </c>
-      <c r="J34" s="3">
-        <v>0</v>
-      </c>
-      <c r="K34" s="25" t="s">
-        <v>57</v>
-      </c>
-      <c r="L34" s="3">
-        <v>28</v>
-      </c>
-      <c r="M34" s="3">
-        <v>20</v>
-      </c>
-      <c r="N34" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="O34" s="3">
-        <v>7</v>
-      </c>
-      <c r="P34" s="3">
-        <v>3600</v>
-      </c>
-      <c r="Q34" s="3">
-        <v>50</v>
-      </c>
-      <c r="R34" s="49">
-        <v>6915</v>
-      </c>
-      <c r="T34" s="47">
-        <v>170057</v>
-      </c>
-      <c r="U34" s="3">
-        <v>1</v>
-      </c>
-      <c r="V34" s="3">
-        <v>0</v>
-      </c>
-      <c r="W34" s="3">
-        <v>1</v>
-      </c>
-      <c r="X34" s="3">
-        <v>300</v>
-      </c>
-      <c r="Y34" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z34" s="3">
-        <v>0</v>
-      </c>
-      <c r="AB34" s="3">
-        <v>0</v>
-      </c>
-      <c r="AC34" s="3">
-        <v>0</v>
-      </c>
-      <c r="AD34" s="3">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="35" s="3" customFormat="1" ht="14.25" spans="1:30">
-      <c r="A35" s="23">
-        <v>231006</v>
-      </c>
-      <c r="B35" s="24" t="s">
-        <v>55</v>
-      </c>
-      <c r="C35" s="25" t="s">
-        <v>56</v>
-      </c>
-      <c r="E35" s="26" t="s">
-        <v>42</v>
-      </c>
-      <c r="F35" s="26"/>
-      <c r="G35" s="3">
-        <v>150230</v>
-      </c>
-      <c r="H35" s="3">
-        <v>0</v>
-      </c>
-      <c r="I35" s="3">
-        <v>60</v>
-      </c>
-      <c r="J35" s="3">
-        <v>0</v>
-      </c>
-      <c r="K35" s="25" t="s">
-        <v>57</v>
-      </c>
-      <c r="L35" s="3">
-        <v>28</v>
-      </c>
-      <c r="M35" s="3">
-        <v>20</v>
-      </c>
-      <c r="N35" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="O35" s="3">
-        <v>7</v>
-      </c>
-      <c r="P35" s="3">
-        <v>3600</v>
-      </c>
-      <c r="Q35" s="3">
-        <v>50</v>
-      </c>
-      <c r="R35" s="49">
-        <v>6915</v>
-      </c>
-      <c r="T35" s="47">
-        <v>170057</v>
-      </c>
-      <c r="U35" s="3">
-        <v>1</v>
-      </c>
-      <c r="V35" s="3">
-        <v>0</v>
-      </c>
-      <c r="W35" s="3">
-        <v>1</v>
-      </c>
-      <c r="X35" s="3">
-        <v>300</v>
-      </c>
-      <c r="Y35" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z35" s="3">
-        <v>0</v>
-      </c>
-      <c r="AB35" s="3">
-        <v>0</v>
-      </c>
-      <c r="AC35" s="3">
-        <v>0</v>
-      </c>
-      <c r="AD35" s="3">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="36" s="3" customFormat="1" ht="14.25" spans="1:30">
-      <c r="A36" s="23">
-        <v>231007</v>
-      </c>
-      <c r="B36" s="24" t="s">
-        <v>55</v>
-      </c>
-      <c r="C36" s="25" t="s">
-        <v>56</v>
-      </c>
-      <c r="E36" s="26" t="s">
-        <v>42</v>
-      </c>
-      <c r="F36" s="26"/>
-      <c r="G36" s="3">
-        <v>150230</v>
-      </c>
-      <c r="H36" s="3">
-        <v>0</v>
-      </c>
-      <c r="I36" s="3">
-        <v>60</v>
-      </c>
-      <c r="J36" s="3">
-        <v>0</v>
-      </c>
-      <c r="K36" s="25" t="s">
-        <v>57</v>
-      </c>
-      <c r="L36" s="3">
-        <v>28</v>
-      </c>
-      <c r="M36" s="3">
-        <v>20</v>
-      </c>
-      <c r="N36" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="O36" s="3">
-        <v>7</v>
-      </c>
-      <c r="P36" s="3">
-        <v>3600</v>
-      </c>
-      <c r="Q36" s="3">
-        <v>50</v>
-      </c>
-      <c r="R36" s="49">
-        <v>6915</v>
-      </c>
-      <c r="T36" s="47">
-        <v>170057</v>
-      </c>
-      <c r="U36" s="3">
-        <v>1</v>
-      </c>
-      <c r="V36" s="3">
-        <v>0</v>
-      </c>
-      <c r="W36" s="3">
-        <v>1</v>
-      </c>
-      <c r="X36" s="3">
-        <v>300</v>
-      </c>
-      <c r="Y36" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z36" s="3">
-        <v>0</v>
-      </c>
-      <c r="AB36" s="3">
-        <v>0</v>
-      </c>
-      <c r="AC36" s="3">
-        <v>0</v>
-      </c>
-      <c r="AD36" s="3">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="37" s="4" customFormat="1" ht="14.25" spans="1:30">
-      <c r="A37" s="27">
-        <v>232001</v>
-      </c>
-      <c r="B37" s="28" t="s">
-        <v>58</v>
-      </c>
-      <c r="C37" s="29" t="s">
-        <v>51</v>
-      </c>
-      <c r="D37" s="30"/>
-      <c r="E37" s="30" t="s">
-        <v>42</v>
-      </c>
-      <c r="F37" s="30"/>
-      <c r="H37" s="4">
-        <v>0</v>
-      </c>
-      <c r="I37" s="3">
-        <v>60</v>
-      </c>
-      <c r="J37" s="4">
-        <v>0</v>
-      </c>
-      <c r="K37" s="44" t="s">
-        <v>59</v>
       </c>
       <c r="L37" s="4">
         <v>28</v>
@@ -5265,7 +5373,7 @@
         <v>30</v>
       </c>
       <c r="N37" s="4" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="O37" s="4">
         <v>1</v>
@@ -5273,8 +5381,8 @@
       <c r="P37" s="4">
         <v>3300</v>
       </c>
-      <c r="Q37" s="3">
-        <v>50</v>
+      <c r="Q37" s="43">
+        <v>60</v>
       </c>
       <c r="R37" s="4">
         <v>6913</v>
@@ -5288,10 +5396,10 @@
       <c r="V37" s="4">
         <v>0</v>
       </c>
-      <c r="W37" s="50">
+      <c r="W37" s="49">
         <v>25</v>
       </c>
-      <c r="X37" s="50">
+      <c r="X37" s="49">
         <v>300</v>
       </c>
       <c r="Y37" s="4">
@@ -5300,42 +5408,42 @@
       <c r="Z37" s="4">
         <v>0</v>
       </c>
-      <c r="AA37" s="50"/>
+      <c r="AA37" s="49"/>
       <c r="AB37" s="4">
         <v>0</v>
       </c>
       <c r="AC37" s="4">
         <v>0</v>
       </c>
-      <c r="AD37" s="27">
+      <c r="AD37" s="25">
         <v>232</v>
       </c>
     </row>
-    <row r="38" s="4" customFormat="1" ht="14.25" spans="1:30">
-      <c r="A38" s="27">
+    <row r="38" s="4" customFormat="1" ht="15.6" spans="1:30">
+      <c r="A38" s="25">
         <v>232002</v>
       </c>
-      <c r="B38" s="28" t="s">
-        <v>58</v>
-      </c>
-      <c r="C38" s="29" t="s">
+      <c r="B38" s="26" t="s">
+        <v>56</v>
+      </c>
+      <c r="C38" s="27" t="s">
         <v>51</v>
       </c>
-      <c r="E38" s="30" t="s">
+      <c r="E38" s="28" t="s">
         <v>42</v>
       </c>
-      <c r="F38" s="30"/>
+      <c r="F38" s="28"/>
       <c r="H38" s="4">
         <v>0</v>
       </c>
-      <c r="I38" s="3">
+      <c r="I38" s="43">
         <v>60</v>
       </c>
       <c r="J38" s="4">
         <v>0</v>
       </c>
       <c r="K38" s="44" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="L38" s="4">
         <v>28</v>
@@ -5344,7 +5452,7 @@
         <v>30</v>
       </c>
       <c r="N38" s="4" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="O38" s="4">
         <v>1</v>
@@ -5352,8 +5460,8 @@
       <c r="P38" s="4">
         <v>3300</v>
       </c>
-      <c r="Q38" s="3">
-        <v>50</v>
+      <c r="Q38" s="43">
+        <v>60</v>
       </c>
       <c r="R38" s="4">
         <v>6913</v>
@@ -5367,10 +5475,10 @@
       <c r="V38" s="4">
         <v>0</v>
       </c>
-      <c r="W38" s="50">
+      <c r="W38" s="49">
         <v>25</v>
       </c>
-      <c r="X38" s="50">
+      <c r="X38" s="49">
         <v>300</v>
       </c>
       <c r="Y38" s="4">
@@ -5379,42 +5487,42 @@
       <c r="Z38" s="4">
         <v>0</v>
       </c>
-      <c r="AA38" s="50"/>
+      <c r="AA38" s="49"/>
       <c r="AB38" s="4">
         <v>0</v>
       </c>
       <c r="AC38" s="4">
         <v>0</v>
       </c>
-      <c r="AD38" s="27">
+      <c r="AD38" s="25">
         <v>232</v>
       </c>
     </row>
-    <row r="39" s="4" customFormat="1" ht="14.25" spans="1:30">
-      <c r="A39" s="27">
+    <row r="39" s="4" customFormat="1" ht="15.6" spans="1:30">
+      <c r="A39" s="25">
         <v>232003</v>
       </c>
-      <c r="B39" s="28" t="s">
-        <v>58</v>
-      </c>
-      <c r="C39" s="29" t="s">
+      <c r="B39" s="26" t="s">
+        <v>56</v>
+      </c>
+      <c r="C39" s="27" t="s">
         <v>51</v>
       </c>
-      <c r="E39" s="30" t="s">
+      <c r="E39" s="28" t="s">
         <v>42</v>
       </c>
-      <c r="F39" s="30"/>
+      <c r="F39" s="28"/>
       <c r="H39" s="4">
         <v>0</v>
       </c>
-      <c r="I39" s="3">
+      <c r="I39" s="43">
         <v>60</v>
       </c>
       <c r="J39" s="4">
         <v>0</v>
       </c>
       <c r="K39" s="44" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="L39" s="4">
         <v>28</v>
@@ -5423,7 +5531,7 @@
         <v>30</v>
       </c>
       <c r="N39" s="4" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="O39" s="4">
         <v>1</v>
@@ -5431,8 +5539,8 @@
       <c r="P39" s="4">
         <v>3300</v>
       </c>
-      <c r="Q39" s="3">
-        <v>50</v>
+      <c r="Q39" s="43">
+        <v>60</v>
       </c>
       <c r="R39" s="4">
         <v>6913</v>
@@ -5446,10 +5554,10 @@
       <c r="V39" s="4">
         <v>0</v>
       </c>
-      <c r="W39" s="50">
+      <c r="W39" s="49">
         <v>25</v>
       </c>
-      <c r="X39" s="50">
+      <c r="X39" s="49">
         <v>300</v>
       </c>
       <c r="Y39" s="4">
@@ -5458,42 +5566,42 @@
       <c r="Z39" s="4">
         <v>0</v>
       </c>
-      <c r="AA39" s="50"/>
+      <c r="AA39" s="49"/>
       <c r="AB39" s="4">
         <v>0</v>
       </c>
       <c r="AC39" s="4">
         <v>0</v>
       </c>
-      <c r="AD39" s="27">
+      <c r="AD39" s="25">
         <v>232</v>
       </c>
     </row>
-    <row r="40" s="4" customFormat="1" ht="14.25" spans="1:30">
-      <c r="A40" s="27">
+    <row r="40" s="4" customFormat="1" ht="15.6" spans="1:30">
+      <c r="A40" s="25">
         <v>232004</v>
       </c>
-      <c r="B40" s="28" t="s">
-        <v>58</v>
-      </c>
-      <c r="C40" s="29" t="s">
+      <c r="B40" s="26" t="s">
+        <v>56</v>
+      </c>
+      <c r="C40" s="27" t="s">
         <v>51</v>
       </c>
-      <c r="E40" s="30" t="s">
+      <c r="E40" s="28" t="s">
         <v>42</v>
       </c>
-      <c r="F40" s="30"/>
+      <c r="F40" s="28"/>
       <c r="H40" s="4">
         <v>0</v>
       </c>
-      <c r="I40" s="3">
+      <c r="I40" s="43">
         <v>60</v>
       </c>
       <c r="J40" s="4">
         <v>0</v>
       </c>
       <c r="K40" s="44" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="L40" s="4">
         <v>28</v>
@@ -5502,7 +5610,7 @@
         <v>30</v>
       </c>
       <c r="N40" s="4" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="O40" s="4">
         <v>1</v>
@@ -5510,8 +5618,8 @@
       <c r="P40" s="4">
         <v>3300</v>
       </c>
-      <c r="Q40" s="3">
-        <v>50</v>
+      <c r="Q40" s="43">
+        <v>60</v>
       </c>
       <c r="R40" s="4">
         <v>6913</v>
@@ -5525,10 +5633,10 @@
       <c r="V40" s="4">
         <v>0</v>
       </c>
-      <c r="W40" s="50">
+      <c r="W40" s="49">
         <v>25</v>
       </c>
-      <c r="X40" s="50">
+      <c r="X40" s="49">
         <v>300</v>
       </c>
       <c r="Y40" s="4">
@@ -5537,42 +5645,42 @@
       <c r="Z40" s="4">
         <v>0</v>
       </c>
-      <c r="AA40" s="50"/>
+      <c r="AA40" s="49"/>
       <c r="AB40" s="4">
         <v>0</v>
       </c>
       <c r="AC40" s="4">
         <v>0</v>
       </c>
-      <c r="AD40" s="27">
+      <c r="AD40" s="25">
         <v>232</v>
       </c>
     </row>
-    <row r="41" s="4" customFormat="1" ht="14.25" spans="1:30">
-      <c r="A41" s="27">
+    <row r="41" s="4" customFormat="1" ht="15.6" spans="1:30">
+      <c r="A41" s="25">
         <v>232005</v>
       </c>
-      <c r="B41" s="28" t="s">
-        <v>58</v>
-      </c>
-      <c r="C41" s="29" t="s">
+      <c r="B41" s="26" t="s">
+        <v>56</v>
+      </c>
+      <c r="C41" s="27" t="s">
         <v>51</v>
       </c>
-      <c r="E41" s="30" t="s">
+      <c r="E41" s="28" t="s">
         <v>42</v>
       </c>
-      <c r="F41" s="30"/>
+      <c r="F41" s="28"/>
       <c r="H41" s="4">
         <v>0</v>
       </c>
-      <c r="I41" s="3">
+      <c r="I41" s="43">
         <v>60</v>
       </c>
       <c r="J41" s="4">
         <v>0</v>
       </c>
       <c r="K41" s="44" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="L41" s="4">
         <v>28</v>
@@ -5581,7 +5689,7 @@
         <v>30</v>
       </c>
       <c r="N41" s="4" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="O41" s="4">
         <v>1</v>
@@ -5589,8 +5697,8 @@
       <c r="P41" s="4">
         <v>3300</v>
       </c>
-      <c r="Q41" s="3">
-        <v>50</v>
+      <c r="Q41" s="43">
+        <v>60</v>
       </c>
       <c r="R41" s="4">
         <v>6913</v>
@@ -5604,10 +5712,10 @@
       <c r="V41" s="4">
         <v>0</v>
       </c>
-      <c r="W41" s="50">
+      <c r="W41" s="49">
         <v>25</v>
       </c>
-      <c r="X41" s="50">
+      <c r="X41" s="49">
         <v>300</v>
       </c>
       <c r="Y41" s="4">
@@ -5616,42 +5724,42 @@
       <c r="Z41" s="4">
         <v>0</v>
       </c>
-      <c r="AA41" s="50"/>
+      <c r="AA41" s="49"/>
       <c r="AB41" s="4">
         <v>0</v>
       </c>
       <c r="AC41" s="4">
         <v>0</v>
       </c>
-      <c r="AD41" s="27">
+      <c r="AD41" s="25">
         <v>232</v>
       </c>
     </row>
-    <row r="42" s="4" customFormat="1" ht="14.25" spans="1:30">
-      <c r="A42" s="27">
+    <row r="42" s="4" customFormat="1" ht="15.6" spans="1:30">
+      <c r="A42" s="25">
         <v>232006</v>
       </c>
-      <c r="B42" s="28" t="s">
-        <v>58</v>
-      </c>
-      <c r="C42" s="29" t="s">
+      <c r="B42" s="26" t="s">
+        <v>56</v>
+      </c>
+      <c r="C42" s="27" t="s">
         <v>51</v>
       </c>
-      <c r="E42" s="30" t="s">
+      <c r="E42" s="28" t="s">
         <v>42</v>
       </c>
-      <c r="F42" s="30"/>
+      <c r="F42" s="28"/>
       <c r="H42" s="4">
         <v>0</v>
       </c>
-      <c r="I42" s="3">
+      <c r="I42" s="43">
         <v>60</v>
       </c>
       <c r="J42" s="4">
         <v>0</v>
       </c>
       <c r="K42" s="44" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="L42" s="4">
         <v>28</v>
@@ -5660,7 +5768,7 @@
         <v>30</v>
       </c>
       <c r="N42" s="4" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="O42" s="4">
         <v>1</v>
@@ -5668,8 +5776,8 @@
       <c r="P42" s="4">
         <v>3300</v>
       </c>
-      <c r="Q42" s="3">
-        <v>50</v>
+      <c r="Q42" s="43">
+        <v>60</v>
       </c>
       <c r="R42" s="4">
         <v>6913</v>
@@ -5683,10 +5791,10 @@
       <c r="V42" s="4">
         <v>0</v>
       </c>
-      <c r="W42" s="50">
+      <c r="W42" s="49">
         <v>25</v>
       </c>
-      <c r="X42" s="50">
+      <c r="X42" s="49">
         <v>300</v>
       </c>
       <c r="Y42" s="4">
@@ -5695,42 +5803,42 @@
       <c r="Z42" s="4">
         <v>0</v>
       </c>
-      <c r="AA42" s="50"/>
+      <c r="AA42" s="49"/>
       <c r="AB42" s="4">
         <v>0</v>
       </c>
       <c r="AC42" s="4">
         <v>0</v>
       </c>
-      <c r="AD42" s="27">
+      <c r="AD42" s="25">
         <v>232</v>
       </c>
     </row>
-    <row r="43" s="4" customFormat="1" ht="14.25" spans="1:30">
-      <c r="A43" s="27">
+    <row r="43" s="4" customFormat="1" ht="15.6" spans="1:30">
+      <c r="A43" s="25">
         <v>232007</v>
       </c>
-      <c r="B43" s="28" t="s">
-        <v>58</v>
-      </c>
-      <c r="C43" s="29" t="s">
+      <c r="B43" s="26" t="s">
+        <v>56</v>
+      </c>
+      <c r="C43" s="27" t="s">
         <v>51</v>
       </c>
-      <c r="E43" s="30" t="s">
+      <c r="E43" s="28" t="s">
         <v>42</v>
       </c>
-      <c r="F43" s="30"/>
+      <c r="F43" s="28"/>
       <c r="H43" s="4">
         <v>0</v>
       </c>
-      <c r="I43" s="3">
+      <c r="I43" s="43">
         <v>60</v>
       </c>
       <c r="J43" s="4">
         <v>0</v>
       </c>
       <c r="K43" s="44" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="L43" s="4">
         <v>28</v>
@@ -5739,7 +5847,7 @@
         <v>30</v>
       </c>
       <c r="N43" s="4" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="O43" s="4">
         <v>1</v>
@@ -5747,8 +5855,8 @@
       <c r="P43" s="4">
         <v>3300</v>
       </c>
-      <c r="Q43" s="3">
-        <v>50</v>
+      <c r="Q43" s="43">
+        <v>60</v>
       </c>
       <c r="R43" s="4">
         <v>6913</v>
@@ -5762,10 +5870,10 @@
       <c r="V43" s="4">
         <v>0</v>
       </c>
-      <c r="W43" s="50">
+      <c r="W43" s="49">
         <v>25</v>
       </c>
-      <c r="X43" s="50">
+      <c r="X43" s="49">
         <v>300</v>
       </c>
       <c r="Y43" s="4">
@@ -5774,31 +5882,31 @@
       <c r="Z43" s="4">
         <v>0</v>
       </c>
-      <c r="AA43" s="50"/>
+      <c r="AA43" s="49"/>
       <c r="AB43" s="4">
         <v>0</v>
       </c>
       <c r="AC43" s="4">
         <v>0</v>
       </c>
-      <c r="AD43" s="27">
+      <c r="AD43" s="25">
         <v>232</v>
       </c>
     </row>
-    <row r="44" s="5" customFormat="1" ht="14.25" spans="1:30">
-      <c r="A44" s="31">
+    <row r="44" s="5" customFormat="1" ht="15.6" spans="1:30">
+      <c r="A44" s="29">
         <v>245001</v>
       </c>
-      <c r="B44" s="32" t="s">
-        <v>61</v>
-      </c>
-      <c r="C44" s="33" t="s">
-        <v>62</v>
-      </c>
-      <c r="E44" s="34" t="s">
+      <c r="B44" s="30" t="s">
+        <v>59</v>
+      </c>
+      <c r="C44" s="31" t="s">
+        <v>60</v>
+      </c>
+      <c r="E44" s="32" t="s">
         <v>42</v>
       </c>
-      <c r="F44" s="34"/>
+      <c r="F44" s="32"/>
       <c r="G44" s="5">
         <v>191061</v>
       </c>
@@ -5811,8 +5919,8 @@
       <c r="J44" s="5">
         <v>0</v>
       </c>
-      <c r="K44" s="33" t="s">
-        <v>63</v>
+      <c r="K44" s="31" t="s">
+        <v>61</v>
       </c>
       <c r="L44" s="5">
         <v>2</v>
@@ -5830,9 +5938,9 @@
         <v>3600</v>
       </c>
       <c r="Q44" s="5">
-        <v>30</v>
-      </c>
-      <c r="R44" s="51">
+        <v>40</v>
+      </c>
+      <c r="R44" s="50">
         <v>6922</v>
       </c>
       <c r="T44" s="47">
@@ -5863,24 +5971,24 @@
       <c r="AC44" s="5">
         <v>0</v>
       </c>
-      <c r="AD44" s="31">
+      <c r="AD44" s="29">
         <v>245</v>
       </c>
     </row>
-    <row r="45" s="5" customFormat="1" ht="14.25" spans="1:30">
-      <c r="A45" s="31">
+    <row r="45" s="5" customFormat="1" ht="15.6" spans="1:30">
+      <c r="A45" s="29">
         <v>245002</v>
       </c>
-      <c r="B45" s="32" t="s">
-        <v>61</v>
-      </c>
-      <c r="C45" s="33" t="s">
-        <v>62</v>
-      </c>
-      <c r="E45" s="34" t="s">
+      <c r="B45" s="30" t="s">
+        <v>59</v>
+      </c>
+      <c r="C45" s="31" t="s">
+        <v>60</v>
+      </c>
+      <c r="E45" s="32" t="s">
         <v>42</v>
       </c>
-      <c r="F45" s="34"/>
+      <c r="F45" s="32"/>
       <c r="G45" s="5">
         <v>191061</v>
       </c>
@@ -5893,8 +6001,8 @@
       <c r="J45" s="5">
         <v>0</v>
       </c>
-      <c r="K45" s="33" t="s">
-        <v>63</v>
+      <c r="K45" s="31" t="s">
+        <v>61</v>
       </c>
       <c r="L45" s="5">
         <v>2</v>
@@ -5912,9 +6020,9 @@
         <v>3600</v>
       </c>
       <c r="Q45" s="5">
-        <v>30</v>
-      </c>
-      <c r="R45" s="51">
+        <v>40</v>
+      </c>
+      <c r="R45" s="50">
         <v>6922</v>
       </c>
       <c r="T45" s="47">
@@ -5945,24 +6053,24 @@
       <c r="AC45" s="5">
         <v>0</v>
       </c>
-      <c r="AD45" s="31">
+      <c r="AD45" s="29">
         <v>245</v>
       </c>
     </row>
-    <row r="46" s="5" customFormat="1" ht="14.25" spans="1:30">
-      <c r="A46" s="31">
+    <row r="46" s="5" customFormat="1" ht="15.6" spans="1:30">
+      <c r="A46" s="29">
         <v>245003</v>
       </c>
-      <c r="B46" s="32" t="s">
-        <v>61</v>
-      </c>
-      <c r="C46" s="33" t="s">
-        <v>62</v>
-      </c>
-      <c r="E46" s="34" t="s">
+      <c r="B46" s="30" t="s">
+        <v>59</v>
+      </c>
+      <c r="C46" s="31" t="s">
+        <v>60</v>
+      </c>
+      <c r="E46" s="32" t="s">
         <v>42</v>
       </c>
-      <c r="F46" s="34"/>
+      <c r="F46" s="32"/>
       <c r="G46" s="5">
         <v>191061</v>
       </c>
@@ -5975,8 +6083,8 @@
       <c r="J46" s="5">
         <v>0</v>
       </c>
-      <c r="K46" s="33" t="s">
-        <v>63</v>
+      <c r="K46" s="31" t="s">
+        <v>61</v>
       </c>
       <c r="L46" s="5">
         <v>2</v>
@@ -5994,9 +6102,9 @@
         <v>3600</v>
       </c>
       <c r="Q46" s="5">
-        <v>30</v>
-      </c>
-      <c r="R46" s="51">
+        <v>40</v>
+      </c>
+      <c r="R46" s="50">
         <v>6922</v>
       </c>
       <c r="T46" s="47">
@@ -6027,24 +6135,24 @@
       <c r="AC46" s="5">
         <v>0</v>
       </c>
-      <c r="AD46" s="31">
+      <c r="AD46" s="29">
         <v>245</v>
       </c>
     </row>
-    <row r="47" s="5" customFormat="1" ht="14.25" spans="1:30">
-      <c r="A47" s="31">
+    <row r="47" s="5" customFormat="1" ht="15.6" spans="1:30">
+      <c r="A47" s="29">
         <v>245004</v>
       </c>
-      <c r="B47" s="32" t="s">
-        <v>61</v>
-      </c>
-      <c r="C47" s="33" t="s">
-        <v>62</v>
-      </c>
-      <c r="E47" s="34" t="s">
+      <c r="B47" s="30" t="s">
+        <v>59</v>
+      </c>
+      <c r="C47" s="31" t="s">
+        <v>60</v>
+      </c>
+      <c r="E47" s="32" t="s">
         <v>42</v>
       </c>
-      <c r="F47" s="34"/>
+      <c r="F47" s="32"/>
       <c r="G47" s="5">
         <v>191061</v>
       </c>
@@ -6057,8 +6165,8 @@
       <c r="J47" s="5">
         <v>0</v>
       </c>
-      <c r="K47" s="33" t="s">
-        <v>63</v>
+      <c r="K47" s="31" t="s">
+        <v>61</v>
       </c>
       <c r="L47" s="5">
         <v>2</v>
@@ -6076,9 +6184,9 @@
         <v>3600</v>
       </c>
       <c r="Q47" s="5">
-        <v>30</v>
-      </c>
-      <c r="R47" s="51">
+        <v>40</v>
+      </c>
+      <c r="R47" s="50">
         <v>6922</v>
       </c>
       <c r="T47" s="47">
@@ -6109,24 +6217,24 @@
       <c r="AC47" s="5">
         <v>0</v>
       </c>
-      <c r="AD47" s="31">
+      <c r="AD47" s="29">
         <v>245</v>
       </c>
     </row>
-    <row r="48" s="5" customFormat="1" ht="14.25" spans="1:30">
-      <c r="A48" s="31">
+    <row r="48" s="5" customFormat="1" ht="15.6" spans="1:30">
+      <c r="A48" s="29">
         <v>245005</v>
       </c>
-      <c r="B48" s="32" t="s">
-        <v>61</v>
-      </c>
-      <c r="C48" s="33" t="s">
-        <v>62</v>
-      </c>
-      <c r="E48" s="34" t="s">
+      <c r="B48" s="30" t="s">
+        <v>59</v>
+      </c>
+      <c r="C48" s="31" t="s">
+        <v>60</v>
+      </c>
+      <c r="E48" s="32" t="s">
         <v>42</v>
       </c>
-      <c r="F48" s="34"/>
+      <c r="F48" s="32"/>
       <c r="G48" s="5">
         <v>191061</v>
       </c>
@@ -6139,8 +6247,8 @@
       <c r="J48" s="5">
         <v>0</v>
       </c>
-      <c r="K48" s="33" t="s">
-        <v>63</v>
+      <c r="K48" s="31" t="s">
+        <v>61</v>
       </c>
       <c r="L48" s="5">
         <v>2</v>
@@ -6158,9 +6266,9 @@
         <v>3600</v>
       </c>
       <c r="Q48" s="5">
-        <v>30</v>
-      </c>
-      <c r="R48" s="51">
+        <v>40</v>
+      </c>
+      <c r="R48" s="50">
         <v>6922</v>
       </c>
       <c r="T48" s="47">
@@ -6191,24 +6299,24 @@
       <c r="AC48" s="5">
         <v>0</v>
       </c>
-      <c r="AD48" s="31">
+      <c r="AD48" s="29">
         <v>245</v>
       </c>
     </row>
-    <row r="49" s="5" customFormat="1" ht="14.25" spans="1:30">
-      <c r="A49" s="31">
+    <row r="49" s="5" customFormat="1" ht="15.6" spans="1:30">
+      <c r="A49" s="29">
         <v>245006</v>
       </c>
-      <c r="B49" s="32" t="s">
-        <v>61</v>
-      </c>
-      <c r="C49" s="33" t="s">
-        <v>62</v>
-      </c>
-      <c r="E49" s="34" t="s">
+      <c r="B49" s="30" t="s">
+        <v>59</v>
+      </c>
+      <c r="C49" s="31" t="s">
+        <v>60</v>
+      </c>
+      <c r="E49" s="32" t="s">
         <v>42</v>
       </c>
-      <c r="F49" s="34"/>
+      <c r="F49" s="32"/>
       <c r="G49" s="5">
         <v>191061</v>
       </c>
@@ -6221,8 +6329,8 @@
       <c r="J49" s="5">
         <v>0</v>
       </c>
-      <c r="K49" s="33" t="s">
-        <v>63</v>
+      <c r="K49" s="31" t="s">
+        <v>61</v>
       </c>
       <c r="L49" s="5">
         <v>2</v>
@@ -6240,9 +6348,9 @@
         <v>3600</v>
       </c>
       <c r="Q49" s="5">
-        <v>30</v>
-      </c>
-      <c r="R49" s="51">
+        <v>40</v>
+      </c>
+      <c r="R49" s="50">
         <v>6922</v>
       </c>
       <c r="T49" s="47">
@@ -6273,24 +6381,24 @@
       <c r="AC49" s="5">
         <v>0</v>
       </c>
-      <c r="AD49" s="31">
+      <c r="AD49" s="29">
         <v>245</v>
       </c>
     </row>
-    <row r="50" s="5" customFormat="1" ht="14.25" spans="1:30">
-      <c r="A50" s="31">
+    <row r="50" s="5" customFormat="1" ht="15.6" spans="1:30">
+      <c r="A50" s="29">
         <v>245007</v>
       </c>
-      <c r="B50" s="32" t="s">
-        <v>61</v>
-      </c>
-      <c r="C50" s="33" t="s">
-        <v>62</v>
-      </c>
-      <c r="E50" s="34" t="s">
+      <c r="B50" s="30" t="s">
+        <v>59</v>
+      </c>
+      <c r="C50" s="31" t="s">
+        <v>60</v>
+      </c>
+      <c r="E50" s="32" t="s">
         <v>42</v>
       </c>
-      <c r="F50" s="34"/>
+      <c r="F50" s="32"/>
       <c r="G50" s="5">
         <v>191061</v>
       </c>
@@ -6303,8 +6411,8 @@
       <c r="J50" s="5">
         <v>0</v>
       </c>
-      <c r="K50" s="33" t="s">
-        <v>63</v>
+      <c r="K50" s="31" t="s">
+        <v>61</v>
       </c>
       <c r="L50" s="5">
         <v>2</v>
@@ -6322,9 +6430,9 @@
         <v>3600</v>
       </c>
       <c r="Q50" s="5">
-        <v>30</v>
-      </c>
-      <c r="R50" s="51">
+        <v>40</v>
+      </c>
+      <c r="R50" s="50">
         <v>6922</v>
       </c>
       <c r="T50" s="47">
@@ -6355,25 +6463,25 @@
       <c r="AC50" s="5">
         <v>0</v>
       </c>
-      <c r="AD50" s="31">
+      <c r="AD50" s="29">
         <v>245</v>
       </c>
     </row>
-    <row r="51" s="6" customFormat="1" ht="14.25" spans="1:30">
-      <c r="A51" s="35">
+    <row r="51" s="6" customFormat="1" ht="15.6" spans="1:30">
+      <c r="A51" s="33">
         <v>234001</v>
       </c>
       <c r="B51" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="C51" s="36" t="s">
-        <v>65</v>
-      </c>
-      <c r="D51" s="36"/>
-      <c r="E51" s="36" t="s">
+        <v>62</v>
+      </c>
+      <c r="C51" s="34" t="s">
+        <v>63</v>
+      </c>
+      <c r="D51" s="34"/>
+      <c r="E51" s="34" t="s">
         <v>42</v>
       </c>
-      <c r="F51" s="36"/>
+      <c r="F51" s="34"/>
       <c r="G51" s="6">
         <v>191060</v>
       </c>
@@ -6386,8 +6494,8 @@
       <c r="J51" s="6">
         <v>0</v>
       </c>
-      <c r="K51" s="36" t="s">
-        <v>66</v>
+      <c r="K51" s="34" t="s">
+        <v>64</v>
       </c>
       <c r="L51" s="6">
         <v>2</v>
@@ -6405,12 +6513,12 @@
         <v>3600</v>
       </c>
       <c r="Q51" s="6">
-        <v>60</v>
-      </c>
-      <c r="R51" s="52">
+        <v>70</v>
+      </c>
+      <c r="R51" s="51">
         <v>6918</v>
       </c>
-      <c r="S51" s="52"/>
+      <c r="S51" s="51"/>
       <c r="T51" s="47">
         <v>170057</v>
       </c>
@@ -6438,25 +6546,25 @@
       <c r="AC51" s="6">
         <v>0</v>
       </c>
-      <c r="AD51" s="35">
+      <c r="AD51" s="33">
         <v>234</v>
       </c>
     </row>
-    <row r="52" s="6" customFormat="1" ht="14.25" spans="1:30">
-      <c r="A52" s="35">
+    <row r="52" s="6" customFormat="1" ht="15.6" spans="1:30">
+      <c r="A52" s="33">
         <v>234002</v>
       </c>
       <c r="B52" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="C52" s="36" t="s">
-        <v>65</v>
-      </c>
-      <c r="D52" s="36"/>
-      <c r="E52" s="36" t="s">
+        <v>62</v>
+      </c>
+      <c r="C52" s="34" t="s">
+        <v>63</v>
+      </c>
+      <c r="D52" s="34"/>
+      <c r="E52" s="34" t="s">
         <v>42</v>
       </c>
-      <c r="F52" s="36"/>
+      <c r="F52" s="34"/>
       <c r="G52" s="6">
         <v>191060</v>
       </c>
@@ -6469,8 +6577,8 @@
       <c r="J52" s="6">
         <v>0</v>
       </c>
-      <c r="K52" s="36" t="s">
-        <v>66</v>
+      <c r="K52" s="34" t="s">
+        <v>64</v>
       </c>
       <c r="L52" s="45">
         <v>2</v>
@@ -6488,12 +6596,12 @@
         <v>3600</v>
       </c>
       <c r="Q52" s="6">
-        <v>60</v>
-      </c>
-      <c r="R52" s="52">
+        <v>70</v>
+      </c>
+      <c r="R52" s="51">
         <v>6918</v>
       </c>
-      <c r="S52" s="52"/>
+      <c r="S52" s="51"/>
       <c r="T52" s="47">
         <v>170057</v>
       </c>
@@ -6521,25 +6629,25 @@
       <c r="AC52" s="6">
         <v>0</v>
       </c>
-      <c r="AD52" s="35">
+      <c r="AD52" s="33">
         <v>234</v>
       </c>
     </row>
-    <row r="53" s="6" customFormat="1" ht="14.25" spans="1:30">
-      <c r="A53" s="35">
+    <row r="53" s="6" customFormat="1" ht="15.6" spans="1:30">
+      <c r="A53" s="33">
         <v>234003</v>
       </c>
       <c r="B53" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="C53" s="36" t="s">
-        <v>65</v>
-      </c>
-      <c r="D53" s="36"/>
-      <c r="E53" s="36" t="s">
+        <v>62</v>
+      </c>
+      <c r="C53" s="34" t="s">
+        <v>63</v>
+      </c>
+      <c r="D53" s="34"/>
+      <c r="E53" s="34" t="s">
         <v>42</v>
       </c>
-      <c r="F53" s="36"/>
+      <c r="F53" s="34"/>
       <c r="G53" s="6">
         <v>191060</v>
       </c>
@@ -6552,8 +6660,8 @@
       <c r="J53" s="6">
         <v>0</v>
       </c>
-      <c r="K53" s="36" t="s">
-        <v>66</v>
+      <c r="K53" s="34" t="s">
+        <v>64</v>
       </c>
       <c r="L53" s="6">
         <v>2</v>
@@ -6571,12 +6679,12 @@
         <v>3600</v>
       </c>
       <c r="Q53" s="6">
-        <v>60</v>
-      </c>
-      <c r="R53" s="52">
+        <v>70</v>
+      </c>
+      <c r="R53" s="51">
         <v>6918</v>
       </c>
-      <c r="S53" s="52"/>
+      <c r="S53" s="51"/>
       <c r="T53" s="47">
         <v>170057</v>
       </c>
@@ -6604,25 +6712,25 @@
       <c r="AC53" s="6">
         <v>0</v>
       </c>
-      <c r="AD53" s="35">
+      <c r="AD53" s="33">
         <v>234</v>
       </c>
     </row>
-    <row r="54" s="6" customFormat="1" ht="14.25" spans="1:30">
-      <c r="A54" s="35">
+    <row r="54" s="6" customFormat="1" ht="15.6" spans="1:30">
+      <c r="A54" s="33">
         <v>234004</v>
       </c>
       <c r="B54" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="C54" s="36" t="s">
-        <v>65</v>
-      </c>
-      <c r="D54" s="36"/>
-      <c r="E54" s="36" t="s">
+        <v>62</v>
+      </c>
+      <c r="C54" s="34" t="s">
+        <v>63</v>
+      </c>
+      <c r="D54" s="34"/>
+      <c r="E54" s="34" t="s">
         <v>42</v>
       </c>
-      <c r="F54" s="36"/>
+      <c r="F54" s="34"/>
       <c r="G54" s="6">
         <v>191060</v>
       </c>
@@ -6635,8 +6743,8 @@
       <c r="J54" s="6">
         <v>0</v>
       </c>
-      <c r="K54" s="36" t="s">
-        <v>66</v>
+      <c r="K54" s="34" t="s">
+        <v>64</v>
       </c>
       <c r="L54" s="6">
         <v>2</v>
@@ -6654,12 +6762,12 @@
         <v>3600</v>
       </c>
       <c r="Q54" s="6">
-        <v>60</v>
-      </c>
-      <c r="R54" s="52">
+        <v>70</v>
+      </c>
+      <c r="R54" s="51">
         <v>6918</v>
       </c>
-      <c r="S54" s="52"/>
+      <c r="S54" s="51"/>
       <c r="T54" s="47">
         <v>170057</v>
       </c>
@@ -6687,25 +6795,25 @@
       <c r="AC54" s="6">
         <v>0</v>
       </c>
-      <c r="AD54" s="35">
+      <c r="AD54" s="33">
         <v>234</v>
       </c>
     </row>
-    <row r="55" s="6" customFormat="1" ht="14.25" spans="1:30">
-      <c r="A55" s="35">
+    <row r="55" s="6" customFormat="1" ht="15.6" spans="1:30">
+      <c r="A55" s="33">
         <v>234005</v>
       </c>
       <c r="B55" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="C55" s="36" t="s">
-        <v>65</v>
-      </c>
-      <c r="D55" s="36"/>
-      <c r="E55" s="36" t="s">
+        <v>62</v>
+      </c>
+      <c r="C55" s="34" t="s">
+        <v>63</v>
+      </c>
+      <c r="D55" s="34"/>
+      <c r="E55" s="34" t="s">
         <v>42</v>
       </c>
-      <c r="F55" s="36"/>
+      <c r="F55" s="34"/>
       <c r="G55" s="6">
         <v>191060</v>
       </c>
@@ -6718,8 +6826,8 @@
       <c r="J55" s="6">
         <v>0</v>
       </c>
-      <c r="K55" s="36" t="s">
-        <v>66</v>
+      <c r="K55" s="34" t="s">
+        <v>64</v>
       </c>
       <c r="L55" s="6">
         <v>2</v>
@@ -6737,12 +6845,12 @@
         <v>3600</v>
       </c>
       <c r="Q55" s="6">
-        <v>60</v>
-      </c>
-      <c r="R55" s="52">
+        <v>70</v>
+      </c>
+      <c r="R55" s="51">
         <v>6918</v>
       </c>
-      <c r="S55" s="52"/>
+      <c r="S55" s="51"/>
       <c r="T55" s="47">
         <v>170057</v>
       </c>
@@ -6770,25 +6878,25 @@
       <c r="AC55" s="6">
         <v>0</v>
       </c>
-      <c r="AD55" s="35">
+      <c r="AD55" s="33">
         <v>234</v>
       </c>
     </row>
-    <row r="56" s="6" customFormat="1" ht="14.25" spans="1:30">
-      <c r="A56" s="35">
+    <row r="56" s="6" customFormat="1" ht="15.6" spans="1:30">
+      <c r="A56" s="33">
         <v>234006</v>
       </c>
       <c r="B56" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="C56" s="36" t="s">
-        <v>65</v>
-      </c>
-      <c r="D56" s="36"/>
-      <c r="E56" s="36" t="s">
+        <v>62</v>
+      </c>
+      <c r="C56" s="34" t="s">
+        <v>63</v>
+      </c>
+      <c r="D56" s="34"/>
+      <c r="E56" s="34" t="s">
         <v>42</v>
       </c>
-      <c r="F56" s="36"/>
+      <c r="F56" s="34"/>
       <c r="G56" s="6">
         <v>191060</v>
       </c>
@@ -6801,8 +6909,8 @@
       <c r="J56" s="6">
         <v>0</v>
       </c>
-      <c r="K56" s="36" t="s">
-        <v>66</v>
+      <c r="K56" s="34" t="s">
+        <v>64</v>
       </c>
       <c r="L56" s="6">
         <v>2</v>
@@ -6820,12 +6928,12 @@
         <v>3600</v>
       </c>
       <c r="Q56" s="6">
-        <v>60</v>
-      </c>
-      <c r="R56" s="52">
+        <v>70</v>
+      </c>
+      <c r="R56" s="51">
         <v>6918</v>
       </c>
-      <c r="S56" s="52"/>
+      <c r="S56" s="51"/>
       <c r="T56" s="47">
         <v>170057</v>
       </c>
@@ -6853,25 +6961,25 @@
       <c r="AC56" s="6">
         <v>0</v>
       </c>
-      <c r="AD56" s="35">
+      <c r="AD56" s="33">
         <v>234</v>
       </c>
     </row>
-    <row r="57" s="6" customFormat="1" ht="14.25" spans="1:30">
-      <c r="A57" s="35">
+    <row r="57" s="6" customFormat="1" ht="15.6" spans="1:30">
+      <c r="A57" s="33">
         <v>234007</v>
       </c>
       <c r="B57" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="C57" s="36" t="s">
-        <v>65</v>
-      </c>
-      <c r="D57" s="36"/>
-      <c r="E57" s="36" t="s">
+        <v>62</v>
+      </c>
+      <c r="C57" s="34" t="s">
+        <v>63</v>
+      </c>
+      <c r="D57" s="34"/>
+      <c r="E57" s="34" t="s">
         <v>42</v>
       </c>
-      <c r="F57" s="36"/>
+      <c r="F57" s="34"/>
       <c r="G57" s="6">
         <v>191060</v>
       </c>
@@ -6884,8 +6992,8 @@
       <c r="J57" s="6">
         <v>0</v>
       </c>
-      <c r="K57" s="36" t="s">
-        <v>66</v>
+      <c r="K57" s="34" t="s">
+        <v>64</v>
       </c>
       <c r="L57" s="6">
         <v>2</v>
@@ -6903,12 +7011,12 @@
         <v>3600</v>
       </c>
       <c r="Q57" s="6">
-        <v>60</v>
-      </c>
-      <c r="R57" s="52">
+        <v>70</v>
+      </c>
+      <c r="R57" s="51">
         <v>6918</v>
       </c>
-      <c r="S57" s="52"/>
+      <c r="S57" s="51"/>
       <c r="T57" s="47">
         <v>170057</v>
       </c>
@@ -6936,24 +7044,24 @@
       <c r="AC57" s="6">
         <v>0</v>
       </c>
-      <c r="AD57" s="35">
+      <c r="AD57" s="33">
         <v>234</v>
       </c>
     </row>
-    <row r="58" s="7" customFormat="1" ht="14.25" spans="1:30">
-      <c r="A58" s="37">
+    <row r="58" s="7" customFormat="1" ht="15.6" spans="1:30">
+      <c r="A58" s="35">
         <v>235001</v>
       </c>
-      <c r="B58" s="38" t="s">
-        <v>67</v>
-      </c>
-      <c r="C58" s="39" t="s">
-        <v>68</v>
-      </c>
-      <c r="E58" s="40" t="s">
+      <c r="B58" s="36" t="s">
+        <v>65</v>
+      </c>
+      <c r="C58" s="37" t="s">
+        <v>66</v>
+      </c>
+      <c r="E58" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="F58" s="40"/>
+      <c r="F58" s="38"/>
       <c r="G58" s="7">
         <v>191057</v>
       </c>
@@ -6966,8 +7074,8 @@
       <c r="J58" s="7">
         <v>0</v>
       </c>
-      <c r="K58" s="40" t="s">
-        <v>69</v>
+      <c r="K58" s="38" t="s">
+        <v>67</v>
       </c>
       <c r="L58" s="7">
         <v>2</v>
@@ -6984,8 +7092,8 @@
       <c r="P58" s="7">
         <v>3300</v>
       </c>
-      <c r="Q58" s="7">
-        <v>60</v>
+      <c r="Q58" s="6">
+        <v>70</v>
       </c>
       <c r="R58" s="7">
         <v>6921</v>
@@ -7017,24 +7125,24 @@
       <c r="AC58" s="7">
         <v>0</v>
       </c>
-      <c r="AD58" s="37">
+      <c r="AD58" s="35">
         <v>235</v>
       </c>
     </row>
-    <row r="59" s="7" customFormat="1" ht="14.25" spans="1:30">
-      <c r="A59" s="37">
+    <row r="59" s="7" customFormat="1" ht="15.6" spans="1:30">
+      <c r="A59" s="35">
         <v>235002</v>
       </c>
-      <c r="B59" s="38" t="s">
-        <v>67</v>
-      </c>
-      <c r="C59" s="39" t="s">
-        <v>68</v>
-      </c>
-      <c r="E59" s="40" t="s">
+      <c r="B59" s="36" t="s">
+        <v>65</v>
+      </c>
+      <c r="C59" s="37" t="s">
+        <v>66</v>
+      </c>
+      <c r="E59" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="F59" s="40"/>
+      <c r="F59" s="38"/>
       <c r="G59" s="7">
         <v>191057</v>
       </c>
@@ -7047,8 +7155,8 @@
       <c r="J59" s="7">
         <v>0</v>
       </c>
-      <c r="K59" s="40" t="s">
-        <v>69</v>
+      <c r="K59" s="38" t="s">
+        <v>67</v>
       </c>
       <c r="L59" s="7">
         <v>2</v>
@@ -7065,8 +7173,8 @@
       <c r="P59" s="7">
         <v>3300</v>
       </c>
-      <c r="Q59" s="7">
-        <v>60</v>
+      <c r="Q59" s="6">
+        <v>70</v>
       </c>
       <c r="R59" s="7">
         <v>6921</v>
@@ -7098,24 +7206,24 @@
       <c r="AC59" s="7">
         <v>0</v>
       </c>
-      <c r="AD59" s="37">
+      <c r="AD59" s="35">
         <v>235</v>
       </c>
     </row>
-    <row r="60" s="7" customFormat="1" ht="14.25" spans="1:30">
-      <c r="A60" s="37">
+    <row r="60" s="7" customFormat="1" ht="15.6" spans="1:30">
+      <c r="A60" s="35">
         <v>235003</v>
       </c>
-      <c r="B60" s="38" t="s">
-        <v>67</v>
-      </c>
-      <c r="C60" s="39" t="s">
-        <v>68</v>
-      </c>
-      <c r="E60" s="40" t="s">
+      <c r="B60" s="36" t="s">
+        <v>65</v>
+      </c>
+      <c r="C60" s="37" t="s">
+        <v>66</v>
+      </c>
+      <c r="E60" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="F60" s="40"/>
+      <c r="F60" s="38"/>
       <c r="G60" s="7">
         <v>191057</v>
       </c>
@@ -7128,8 +7236,8 @@
       <c r="J60" s="7">
         <v>0</v>
       </c>
-      <c r="K60" s="40" t="s">
-        <v>69</v>
+      <c r="K60" s="38" t="s">
+        <v>67</v>
       </c>
       <c r="L60" s="7">
         <v>2</v>
@@ -7146,8 +7254,8 @@
       <c r="P60" s="7">
         <v>3300</v>
       </c>
-      <c r="Q60" s="7">
-        <v>60</v>
+      <c r="Q60" s="6">
+        <v>70</v>
       </c>
       <c r="R60" s="7">
         <v>6921</v>
@@ -7179,24 +7287,24 @@
       <c r="AC60" s="7">
         <v>0</v>
       </c>
-      <c r="AD60" s="37">
+      <c r="AD60" s="35">
         <v>235</v>
       </c>
     </row>
-    <row r="61" s="7" customFormat="1" ht="14.25" spans="1:30">
-      <c r="A61" s="37">
+    <row r="61" s="7" customFormat="1" ht="15.6" spans="1:30">
+      <c r="A61" s="35">
         <v>235004</v>
       </c>
-      <c r="B61" s="38" t="s">
-        <v>67</v>
-      </c>
-      <c r="C61" s="39" t="s">
-        <v>68</v>
-      </c>
-      <c r="E61" s="40" t="s">
+      <c r="B61" s="36" t="s">
+        <v>65</v>
+      </c>
+      <c r="C61" s="37" t="s">
+        <v>66</v>
+      </c>
+      <c r="E61" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="F61" s="40"/>
+      <c r="F61" s="38"/>
       <c r="G61" s="7">
         <v>191057</v>
       </c>
@@ -7209,8 +7317,8 @@
       <c r="J61" s="7">
         <v>0</v>
       </c>
-      <c r="K61" s="40" t="s">
-        <v>69</v>
+      <c r="K61" s="38" t="s">
+        <v>67</v>
       </c>
       <c r="L61" s="7">
         <v>2</v>
@@ -7227,8 +7335,8 @@
       <c r="P61" s="7">
         <v>3300</v>
       </c>
-      <c r="Q61" s="7">
-        <v>60</v>
+      <c r="Q61" s="6">
+        <v>70</v>
       </c>
       <c r="R61" s="7">
         <v>6921</v>
@@ -7260,24 +7368,24 @@
       <c r="AC61" s="7">
         <v>0</v>
       </c>
-      <c r="AD61" s="37">
+      <c r="AD61" s="35">
         <v>235</v>
       </c>
     </row>
-    <row r="62" s="7" customFormat="1" ht="14.25" spans="1:30">
-      <c r="A62" s="37">
+    <row r="62" s="7" customFormat="1" ht="15.6" spans="1:30">
+      <c r="A62" s="35">
         <v>235005</v>
       </c>
-      <c r="B62" s="38" t="s">
-        <v>67</v>
-      </c>
-      <c r="C62" s="39" t="s">
-        <v>68</v>
-      </c>
-      <c r="E62" s="40" t="s">
+      <c r="B62" s="36" t="s">
+        <v>65</v>
+      </c>
+      <c r="C62" s="37" t="s">
+        <v>66</v>
+      </c>
+      <c r="E62" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="F62" s="40"/>
+      <c r="F62" s="38"/>
       <c r="G62" s="7">
         <v>191057</v>
       </c>
@@ -7290,8 +7398,8 @@
       <c r="J62" s="7">
         <v>0</v>
       </c>
-      <c r="K62" s="40" t="s">
-        <v>69</v>
+      <c r="K62" s="38" t="s">
+        <v>67</v>
       </c>
       <c r="L62" s="7">
         <v>2</v>
@@ -7308,8 +7416,8 @@
       <c r="P62" s="7">
         <v>3300</v>
       </c>
-      <c r="Q62" s="7">
-        <v>60</v>
+      <c r="Q62" s="6">
+        <v>70</v>
       </c>
       <c r="R62" s="7">
         <v>6921</v>
@@ -7341,24 +7449,24 @@
       <c r="AC62" s="7">
         <v>0</v>
       </c>
-      <c r="AD62" s="37">
+      <c r="AD62" s="35">
         <v>235</v>
       </c>
     </row>
-    <row r="63" s="7" customFormat="1" ht="14.25" spans="1:30">
-      <c r="A63" s="37">
+    <row r="63" s="7" customFormat="1" ht="15.6" spans="1:30">
+      <c r="A63" s="35">
         <v>235006</v>
       </c>
-      <c r="B63" s="38" t="s">
-        <v>67</v>
-      </c>
-      <c r="C63" s="39" t="s">
-        <v>68</v>
-      </c>
-      <c r="E63" s="40" t="s">
+      <c r="B63" s="36" t="s">
+        <v>65</v>
+      </c>
+      <c r="C63" s="37" t="s">
+        <v>66</v>
+      </c>
+      <c r="E63" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="F63" s="40"/>
+      <c r="F63" s="38"/>
       <c r="G63" s="7">
         <v>191057</v>
       </c>
@@ -7371,8 +7479,8 @@
       <c r="J63" s="7">
         <v>0</v>
       </c>
-      <c r="K63" s="40" t="s">
-        <v>69</v>
+      <c r="K63" s="38" t="s">
+        <v>67</v>
       </c>
       <c r="L63" s="7">
         <v>2</v>
@@ -7389,8 +7497,8 @@
       <c r="P63" s="7">
         <v>3300</v>
       </c>
-      <c r="Q63" s="7">
-        <v>60</v>
+      <c r="Q63" s="6">
+        <v>70</v>
       </c>
       <c r="R63" s="7">
         <v>6921</v>
@@ -7422,24 +7530,24 @@
       <c r="AC63" s="7">
         <v>0</v>
       </c>
-      <c r="AD63" s="37">
+      <c r="AD63" s="35">
         <v>235</v>
       </c>
     </row>
-    <row r="64" s="7" customFormat="1" ht="14.25" spans="1:30">
-      <c r="A64" s="37">
+    <row r="64" s="7" customFormat="1" ht="15.6" spans="1:30">
+      <c r="A64" s="35">
         <v>235007</v>
       </c>
-      <c r="B64" s="38" t="s">
-        <v>67</v>
-      </c>
-      <c r="C64" s="39" t="s">
-        <v>68</v>
-      </c>
-      <c r="E64" s="40" t="s">
+      <c r="B64" s="36" t="s">
+        <v>65</v>
+      </c>
+      <c r="C64" s="37" t="s">
+        <v>66</v>
+      </c>
+      <c r="E64" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="F64" s="40"/>
+      <c r="F64" s="38"/>
       <c r="G64" s="7">
         <v>191057</v>
       </c>
@@ -7452,8 +7560,8 @@
       <c r="J64" s="7">
         <v>0</v>
       </c>
-      <c r="K64" s="40" t="s">
-        <v>69</v>
+      <c r="K64" s="38" t="s">
+        <v>67</v>
       </c>
       <c r="L64" s="7">
         <v>2</v>
@@ -7470,8 +7578,8 @@
       <c r="P64" s="7">
         <v>3300</v>
       </c>
-      <c r="Q64" s="7">
-        <v>60</v>
+      <c r="Q64" s="6">
+        <v>70</v>
       </c>
       <c r="R64" s="7">
         <v>6921</v>
@@ -7503,19 +7611,19 @@
       <c r="AC64" s="7">
         <v>0</v>
       </c>
-      <c r="AD64" s="37">
+      <c r="AD64" s="35">
         <v>235</v>
       </c>
     </row>
-    <row r="65" s="8" customFormat="1" ht="14.25" spans="1:30">
+    <row r="65" s="8" customFormat="1" ht="15.6" spans="1:30">
       <c r="A65" s="59">
         <v>236001</v>
       </c>
       <c r="B65" s="60" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C65" s="61" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E65" s="62" t="s">
         <v>42</v>
@@ -7534,7 +7642,7 @@
         <v>0</v>
       </c>
       <c r="K65" s="62" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="L65" s="8">
         <v>2</v>
@@ -7552,7 +7660,7 @@
         <v>3300</v>
       </c>
       <c r="Q65" s="8">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="R65" s="8">
         <v>6923</v>
@@ -7588,15 +7696,15 @@
         <v>236</v>
       </c>
     </row>
-    <row r="66" s="8" customFormat="1" ht="14.25" spans="1:30">
+    <row r="66" s="8" customFormat="1" ht="15.6" spans="1:30">
       <c r="A66" s="59">
         <v>236002</v>
       </c>
       <c r="B66" s="60" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C66" s="61" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E66" s="62" t="s">
         <v>42</v>
@@ -7615,7 +7723,7 @@
         <v>0</v>
       </c>
       <c r="K66" s="62" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="L66" s="8">
         <v>2</v>
@@ -7633,7 +7741,7 @@
         <v>3300</v>
       </c>
       <c r="Q66" s="8">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="R66" s="8">
         <v>6923</v>
@@ -7669,15 +7777,15 @@
         <v>236</v>
       </c>
     </row>
-    <row r="67" s="8" customFormat="1" ht="14.25" spans="1:30">
+    <row r="67" s="8" customFormat="1" ht="15.6" spans="1:30">
       <c r="A67" s="59">
         <v>236003</v>
       </c>
       <c r="B67" s="60" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C67" s="61" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E67" s="62" t="s">
         <v>42</v>
@@ -7696,7 +7804,7 @@
         <v>0</v>
       </c>
       <c r="K67" s="62" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="L67" s="8">
         <v>2</v>
@@ -7714,7 +7822,7 @@
         <v>3300</v>
       </c>
       <c r="Q67" s="8">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="R67" s="8">
         <v>6923</v>
@@ -7750,15 +7858,15 @@
         <v>236</v>
       </c>
     </row>
-    <row r="68" s="8" customFormat="1" ht="14.25" spans="1:30">
+    <row r="68" s="8" customFormat="1" ht="15.6" spans="1:30">
       <c r="A68" s="59">
         <v>236004</v>
       </c>
       <c r="B68" s="60" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C68" s="61" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E68" s="62" t="s">
         <v>42</v>
@@ -7777,7 +7885,7 @@
         <v>0</v>
       </c>
       <c r="K68" s="62" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="L68" s="8">
         <v>2</v>
@@ -7795,7 +7903,7 @@
         <v>3300</v>
       </c>
       <c r="Q68" s="8">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="R68" s="8">
         <v>6923</v>
@@ -7831,15 +7939,15 @@
         <v>236</v>
       </c>
     </row>
-    <row r="69" s="8" customFormat="1" ht="14.25" spans="1:30">
+    <row r="69" s="8" customFormat="1" ht="15.6" spans="1:30">
       <c r="A69" s="59">
         <v>236005</v>
       </c>
       <c r="B69" s="60" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C69" s="61" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E69" s="62" t="s">
         <v>42</v>
@@ -7858,7 +7966,7 @@
         <v>0</v>
       </c>
       <c r="K69" s="62" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="L69" s="8">
         <v>2</v>
@@ -7876,7 +7984,7 @@
         <v>3300</v>
       </c>
       <c r="Q69" s="8">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="R69" s="8">
         <v>6923</v>
@@ -7912,15 +8020,15 @@
         <v>236</v>
       </c>
     </row>
-    <row r="70" s="8" customFormat="1" ht="14.25" spans="1:30">
+    <row r="70" s="8" customFormat="1" ht="15.6" spans="1:30">
       <c r="A70" s="59">
         <v>236006</v>
       </c>
       <c r="B70" s="60" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C70" s="61" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E70" s="62" t="s">
         <v>42</v>
@@ -7939,7 +8047,7 @@
         <v>0</v>
       </c>
       <c r="K70" s="62" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="L70" s="8">
         <v>2</v>
@@ -7957,7 +8065,7 @@
         <v>3300</v>
       </c>
       <c r="Q70" s="8">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="R70" s="8">
         <v>6923</v>
@@ -7993,15 +8101,15 @@
         <v>236</v>
       </c>
     </row>
-    <row r="71" s="8" customFormat="1" ht="14.25" spans="1:30">
+    <row r="71" s="8" customFormat="1" ht="15.6" spans="1:30">
       <c r="A71" s="59">
         <v>236007</v>
       </c>
       <c r="B71" s="60" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C71" s="61" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E71" s="62" t="s">
         <v>42</v>
@@ -8020,7 +8128,7 @@
         <v>0</v>
       </c>
       <c r="K71" s="62" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="L71" s="8">
         <v>2</v>
@@ -8038,7 +8146,7 @@
         <v>3300</v>
       </c>
       <c r="Q71" s="8">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="R71" s="8">
         <v>6923</v>
@@ -8074,15 +8182,15 @@
         <v>236</v>
       </c>
     </row>
-    <row r="72" s="9" customFormat="1" ht="14.25" spans="1:30">
+    <row r="72" s="9" customFormat="1" ht="15.6" spans="1:30">
       <c r="A72" s="63">
         <v>237001</v>
       </c>
       <c r="B72" s="64" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C72" s="65" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E72" s="66" t="s">
         <v>42</v>
@@ -8100,8 +8208,8 @@
       <c r="J72" s="9">
         <v>0</v>
       </c>
-      <c r="K72" s="82" t="s">
-        <v>75</v>
+      <c r="K72" s="81" t="s">
+        <v>73</v>
       </c>
       <c r="L72" s="9">
         <v>2</v>
@@ -8119,7 +8227,7 @@
         <v>3300</v>
       </c>
       <c r="Q72" s="8">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="R72" s="9">
         <v>6924</v>
@@ -8136,7 +8244,7 @@
       <c r="W72" s="1">
         <v>60</v>
       </c>
-      <c r="X72" s="87">
+      <c r="X72" s="86">
         <v>300</v>
       </c>
       <c r="Y72" s="9">
@@ -8155,15 +8263,15 @@
         <v>237</v>
       </c>
     </row>
-    <row r="73" s="9" customFormat="1" ht="14.25" spans="1:30">
+    <row r="73" s="9" customFormat="1" ht="15.6" spans="1:30">
       <c r="A73" s="63">
         <v>237002</v>
       </c>
       <c r="B73" s="64" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C73" s="65" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E73" s="66" t="s">
         <v>42</v>
@@ -8181,8 +8289,8 @@
       <c r="J73" s="9">
         <v>0</v>
       </c>
-      <c r="K73" s="82" t="s">
-        <v>75</v>
+      <c r="K73" s="81" t="s">
+        <v>73</v>
       </c>
       <c r="L73" s="9">
         <v>2</v>
@@ -8200,7 +8308,7 @@
         <v>3300</v>
       </c>
       <c r="Q73" s="8">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="R73" s="9">
         <v>6924</v>
@@ -8217,7 +8325,7 @@
       <c r="W73" s="1">
         <v>60</v>
       </c>
-      <c r="X73" s="87">
+      <c r="X73" s="86">
         <v>300</v>
       </c>
       <c r="Y73" s="9">
@@ -8236,15 +8344,15 @@
         <v>237</v>
       </c>
     </row>
-    <row r="74" s="9" customFormat="1" ht="14.25" spans="1:30">
+    <row r="74" s="9" customFormat="1" ht="15.6" spans="1:30">
       <c r="A74" s="63">
         <v>237003</v>
       </c>
       <c r="B74" s="64" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C74" s="65" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E74" s="66" t="s">
         <v>42</v>
@@ -8262,8 +8370,8 @@
       <c r="J74" s="9">
         <v>0</v>
       </c>
-      <c r="K74" s="82" t="s">
-        <v>75</v>
+      <c r="K74" s="81" t="s">
+        <v>73</v>
       </c>
       <c r="L74" s="9">
         <v>2</v>
@@ -8281,7 +8389,7 @@
         <v>3300</v>
       </c>
       <c r="Q74" s="8">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="R74" s="9">
         <v>6924</v>
@@ -8298,7 +8406,7 @@
       <c r="W74" s="1">
         <v>60</v>
       </c>
-      <c r="X74" s="87">
+      <c r="X74" s="86">
         <v>300</v>
       </c>
       <c r="Y74" s="9">
@@ -8317,15 +8425,15 @@
         <v>237</v>
       </c>
     </row>
-    <row r="75" s="9" customFormat="1" ht="14.25" spans="1:30">
+    <row r="75" s="9" customFormat="1" ht="15.6" spans="1:30">
       <c r="A75" s="63">
         <v>237004</v>
       </c>
       <c r="B75" s="64" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C75" s="65" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E75" s="66" t="s">
         <v>42</v>
@@ -8343,8 +8451,8 @@
       <c r="J75" s="9">
         <v>0</v>
       </c>
-      <c r="K75" s="82" t="s">
-        <v>75</v>
+      <c r="K75" s="81" t="s">
+        <v>73</v>
       </c>
       <c r="L75" s="9">
         <v>2</v>
@@ -8362,7 +8470,7 @@
         <v>3300</v>
       </c>
       <c r="Q75" s="8">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="R75" s="9">
         <v>6924</v>
@@ -8379,7 +8487,7 @@
       <c r="W75" s="1">
         <v>60</v>
       </c>
-      <c r="X75" s="87">
+      <c r="X75" s="86">
         <v>300</v>
       </c>
       <c r="Y75" s="9">
@@ -8398,15 +8506,15 @@
         <v>237</v>
       </c>
     </row>
-    <row r="76" s="9" customFormat="1" ht="14.25" spans="1:30">
+    <row r="76" s="9" customFormat="1" ht="15.6" spans="1:30">
       <c r="A76" s="63">
         <v>237005</v>
       </c>
       <c r="B76" s="64" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C76" s="65" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E76" s="66" t="s">
         <v>42</v>
@@ -8424,8 +8532,8 @@
       <c r="J76" s="9">
         <v>0</v>
       </c>
-      <c r="K76" s="82" t="s">
-        <v>75</v>
+      <c r="K76" s="81" t="s">
+        <v>73</v>
       </c>
       <c r="L76" s="9">
         <v>2</v>
@@ -8443,7 +8551,7 @@
         <v>3300</v>
       </c>
       <c r="Q76" s="8">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="R76" s="9">
         <v>6924</v>
@@ -8460,7 +8568,7 @@
       <c r="W76" s="1">
         <v>60</v>
       </c>
-      <c r="X76" s="87">
+      <c r="X76" s="86">
         <v>300</v>
       </c>
       <c r="Y76" s="9">
@@ -8479,15 +8587,15 @@
         <v>237</v>
       </c>
     </row>
-    <row r="77" s="9" customFormat="1" ht="14.25" spans="1:30">
+    <row r="77" s="9" customFormat="1" ht="15.6" spans="1:30">
       <c r="A77" s="63">
         <v>237006</v>
       </c>
       <c r="B77" s="64" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C77" s="65" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E77" s="66" t="s">
         <v>42</v>
@@ -8505,8 +8613,8 @@
       <c r="J77" s="9">
         <v>0</v>
       </c>
-      <c r="K77" s="82" t="s">
-        <v>75</v>
+      <c r="K77" s="81" t="s">
+        <v>73</v>
       </c>
       <c r="L77" s="9">
         <v>2</v>
@@ -8524,7 +8632,7 @@
         <v>3300</v>
       </c>
       <c r="Q77" s="8">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="R77" s="9">
         <v>6924</v>
@@ -8541,7 +8649,7 @@
       <c r="W77" s="1">
         <v>60</v>
       </c>
-      <c r="X77" s="87">
+      <c r="X77" s="86">
         <v>300</v>
       </c>
       <c r="Y77" s="9">
@@ -8560,15 +8668,15 @@
         <v>237</v>
       </c>
     </row>
-    <row r="78" s="9" customFormat="1" ht="14.25" spans="1:30">
+    <row r="78" s="9" customFormat="1" ht="15.6" spans="1:30">
       <c r="A78" s="63">
         <v>237007</v>
       </c>
       <c r="B78" s="64" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C78" s="65" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E78" s="66" t="s">
         <v>42</v>
@@ -8586,8 +8694,8 @@
       <c r="J78" s="9">
         <v>0</v>
       </c>
-      <c r="K78" s="82" t="s">
-        <v>75</v>
+      <c r="K78" s="81" t="s">
+        <v>73</v>
       </c>
       <c r="L78" s="9">
         <v>2</v>
@@ -8605,7 +8713,7 @@
         <v>3300</v>
       </c>
       <c r="Q78" s="8">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="R78" s="9">
         <v>6924</v>
@@ -8622,7 +8730,7 @@
       <c r="W78" s="1">
         <v>60</v>
       </c>
-      <c r="X78" s="87">
+      <c r="X78" s="86">
         <v>300</v>
       </c>
       <c r="Y78" s="9">
@@ -8641,18 +8749,18 @@
         <v>237</v>
       </c>
     </row>
-    <row r="79" s="10" customFormat="1" ht="14.25" spans="1:30">
+    <row r="79" s="10" customFormat="1" ht="15.6" spans="1:30">
       <c r="A79" s="67">
         <v>238001</v>
       </c>
       <c r="B79" s="68" t="s">
+        <v>74</v>
+      </c>
+      <c r="C79" s="69" t="s">
+        <v>75</v>
+      </c>
+      <c r="E79" s="70" t="s">
         <v>76</v>
-      </c>
-      <c r="C79" s="69" t="s">
-        <v>77</v>
-      </c>
-      <c r="E79" s="70" t="s">
-        <v>78</v>
       </c>
       <c r="G79" s="10">
         <v>191056</v>
@@ -8666,8 +8774,8 @@
       <c r="J79" s="10">
         <v>0</v>
       </c>
-      <c r="K79" s="83" t="s">
-        <v>79</v>
+      <c r="K79" s="82" t="s">
+        <v>77</v>
       </c>
       <c r="L79" s="10">
         <v>2</v>
@@ -8685,7 +8793,7 @@
         <v>3300</v>
       </c>
       <c r="Q79" s="8">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="R79" s="10">
         <v>6925</v>
@@ -8702,7 +8810,7 @@
       <c r="W79" s="1">
         <v>60</v>
       </c>
-      <c r="X79" s="88">
+      <c r="X79" s="87">
         <v>300</v>
       </c>
       <c r="Y79" s="10">
@@ -8721,18 +8829,18 @@
         <v>238</v>
       </c>
     </row>
-    <row r="80" s="10" customFormat="1" ht="14.25" spans="1:30">
+    <row r="80" s="10" customFormat="1" ht="15.6" spans="1:30">
       <c r="A80" s="67">
         <v>238002</v>
       </c>
       <c r="B80" s="68" t="s">
+        <v>74</v>
+      </c>
+      <c r="C80" s="69" t="s">
+        <v>75</v>
+      </c>
+      <c r="E80" s="70" t="s">
         <v>76</v>
-      </c>
-      <c r="C80" s="69" t="s">
-        <v>77</v>
-      </c>
-      <c r="E80" s="70" t="s">
-        <v>78</v>
       </c>
       <c r="G80" s="10">
         <v>191056</v>
@@ -8746,8 +8854,8 @@
       <c r="J80" s="10">
         <v>0</v>
       </c>
-      <c r="K80" s="83" t="s">
-        <v>79</v>
+      <c r="K80" s="82" t="s">
+        <v>77</v>
       </c>
       <c r="L80" s="10">
         <v>2</v>
@@ -8765,7 +8873,7 @@
         <v>3300</v>
       </c>
       <c r="Q80" s="8">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="R80" s="10">
         <v>6925</v>
@@ -8782,7 +8890,7 @@
       <c r="W80" s="1">
         <v>60</v>
       </c>
-      <c r="X80" s="88">
+      <c r="X80" s="87">
         <v>300</v>
       </c>
       <c r="Y80" s="10">
@@ -8801,18 +8909,18 @@
         <v>238</v>
       </c>
     </row>
-    <row r="81" s="10" customFormat="1" ht="14.25" spans="1:30">
+    <row r="81" s="10" customFormat="1" ht="15.6" spans="1:30">
       <c r="A81" s="67">
         <v>238003</v>
       </c>
       <c r="B81" s="68" t="s">
+        <v>74</v>
+      </c>
+      <c r="C81" s="69" t="s">
+        <v>75</v>
+      </c>
+      <c r="E81" s="70" t="s">
         <v>76</v>
-      </c>
-      <c r="C81" s="69" t="s">
-        <v>77</v>
-      </c>
-      <c r="E81" s="70" t="s">
-        <v>78</v>
       </c>
       <c r="G81" s="10">
         <v>191056</v>
@@ -8826,8 +8934,8 @@
       <c r="J81" s="10">
         <v>0</v>
       </c>
-      <c r="K81" s="83" t="s">
-        <v>79</v>
+      <c r="K81" s="82" t="s">
+        <v>77</v>
       </c>
       <c r="L81" s="10">
         <v>2</v>
@@ -8845,7 +8953,7 @@
         <v>3300</v>
       </c>
       <c r="Q81" s="8">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="R81" s="10">
         <v>6925</v>
@@ -8862,7 +8970,7 @@
       <c r="W81" s="1">
         <v>60</v>
       </c>
-      <c r="X81" s="88">
+      <c r="X81" s="87">
         <v>300</v>
       </c>
       <c r="Y81" s="10">
@@ -8881,18 +8989,18 @@
         <v>238</v>
       </c>
     </row>
-    <row r="82" s="10" customFormat="1" ht="14.25" spans="1:30">
+    <row r="82" s="10" customFormat="1" ht="15.6" spans="1:30">
       <c r="A82" s="67">
         <v>238004</v>
       </c>
       <c r="B82" s="68" t="s">
+        <v>74</v>
+      </c>
+      <c r="C82" s="69" t="s">
+        <v>75</v>
+      </c>
+      <c r="E82" s="70" t="s">
         <v>76</v>
-      </c>
-      <c r="C82" s="69" t="s">
-        <v>77</v>
-      </c>
-      <c r="E82" s="70" t="s">
-        <v>78</v>
       </c>
       <c r="G82" s="10">
         <v>191056</v>
@@ -8906,8 +9014,8 @@
       <c r="J82" s="10">
         <v>0</v>
       </c>
-      <c r="K82" s="83" t="s">
-        <v>79</v>
+      <c r="K82" s="82" t="s">
+        <v>77</v>
       </c>
       <c r="L82" s="10">
         <v>2</v>
@@ -8925,7 +9033,7 @@
         <v>3300</v>
       </c>
       <c r="Q82" s="8">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="R82" s="10">
         <v>6925</v>
@@ -8942,7 +9050,7 @@
       <c r="W82" s="1">
         <v>60</v>
       </c>
-      <c r="X82" s="88">
+      <c r="X82" s="87">
         <v>300</v>
       </c>
       <c r="Y82" s="10">
@@ -8961,18 +9069,18 @@
         <v>238</v>
       </c>
     </row>
-    <row r="83" s="10" customFormat="1" ht="14.25" spans="1:30">
+    <row r="83" s="10" customFormat="1" ht="15.6" spans="1:30">
       <c r="A83" s="67">
         <v>238005</v>
       </c>
       <c r="B83" s="68" t="s">
+        <v>74</v>
+      </c>
+      <c r="C83" s="69" t="s">
+        <v>75</v>
+      </c>
+      <c r="E83" s="70" t="s">
         <v>76</v>
-      </c>
-      <c r="C83" s="69" t="s">
-        <v>77</v>
-      </c>
-      <c r="E83" s="70" t="s">
-        <v>78</v>
       </c>
       <c r="G83" s="10">
         <v>191056</v>
@@ -8986,8 +9094,8 @@
       <c r="J83" s="10">
         <v>0</v>
       </c>
-      <c r="K83" s="83" t="s">
-        <v>79</v>
+      <c r="K83" s="82" t="s">
+        <v>77</v>
       </c>
       <c r="L83" s="10">
         <v>2</v>
@@ -9005,7 +9113,7 @@
         <v>3300</v>
       </c>
       <c r="Q83" s="8">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="R83" s="10">
         <v>6925</v>
@@ -9022,7 +9130,7 @@
       <c r="W83" s="1">
         <v>60</v>
       </c>
-      <c r="X83" s="88">
+      <c r="X83" s="87">
         <v>300</v>
       </c>
       <c r="Y83" s="10">
@@ -9041,18 +9149,18 @@
         <v>238</v>
       </c>
     </row>
-    <row r="84" s="10" customFormat="1" ht="14.25" spans="1:30">
+    <row r="84" s="10" customFormat="1" ht="15.6" spans="1:30">
       <c r="A84" s="67">
         <v>238006</v>
       </c>
       <c r="B84" s="68" t="s">
+        <v>74</v>
+      </c>
+      <c r="C84" s="69" t="s">
+        <v>75</v>
+      </c>
+      <c r="E84" s="70" t="s">
         <v>76</v>
-      </c>
-      <c r="C84" s="69" t="s">
-        <v>77</v>
-      </c>
-      <c r="E84" s="70" t="s">
-        <v>78</v>
       </c>
       <c r="G84" s="10">
         <v>191056</v>
@@ -9066,8 +9174,8 @@
       <c r="J84" s="10">
         <v>0</v>
       </c>
-      <c r="K84" s="83" t="s">
-        <v>79</v>
+      <c r="K84" s="82" t="s">
+        <v>77</v>
       </c>
       <c r="L84" s="10">
         <v>2</v>
@@ -9085,7 +9193,7 @@
         <v>3300</v>
       </c>
       <c r="Q84" s="8">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="R84" s="10">
         <v>6925</v>
@@ -9102,7 +9210,7 @@
       <c r="W84" s="1">
         <v>60</v>
       </c>
-      <c r="X84" s="88">
+      <c r="X84" s="87">
         <v>300</v>
       </c>
       <c r="Y84" s="10">
@@ -9121,18 +9229,18 @@
         <v>238</v>
       </c>
     </row>
-    <row r="85" s="10" customFormat="1" ht="14.25" spans="1:30">
+    <row r="85" s="10" customFormat="1" ht="15.6" spans="1:30">
       <c r="A85" s="67">
         <v>238007</v>
       </c>
       <c r="B85" s="68" t="s">
+        <v>74</v>
+      </c>
+      <c r="C85" s="69" t="s">
+        <v>75</v>
+      </c>
+      <c r="E85" s="70" t="s">
         <v>76</v>
-      </c>
-      <c r="C85" s="69" t="s">
-        <v>77</v>
-      </c>
-      <c r="E85" s="70" t="s">
-        <v>78</v>
       </c>
       <c r="G85" s="10">
         <v>191056</v>
@@ -9146,8 +9254,8 @@
       <c r="J85" s="10">
         <v>0</v>
       </c>
-      <c r="K85" s="83" t="s">
-        <v>79</v>
+      <c r="K85" s="82" t="s">
+        <v>77</v>
       </c>
       <c r="L85" s="10">
         <v>2</v>
@@ -9165,7 +9273,7 @@
         <v>3300</v>
       </c>
       <c r="Q85" s="8">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="R85" s="10">
         <v>6925</v>
@@ -9182,7 +9290,7 @@
       <c r="W85" s="1">
         <v>60</v>
       </c>
-      <c r="X85" s="88">
+      <c r="X85" s="87">
         <v>300</v>
       </c>
       <c r="Y85" s="10">
@@ -9201,12 +9309,12 @@
         <v>238</v>
       </c>
     </row>
-    <row r="86" s="11" customFormat="1" ht="14.25" spans="1:30">
+    <row r="86" s="11" customFormat="1" ht="15.6" spans="1:30">
       <c r="A86" s="71">
         <v>239001</v>
       </c>
       <c r="B86" s="72" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C86" s="73" t="s">
         <v>41</v>
@@ -9226,8 +9334,8 @@
       <c r="J86" s="11">
         <v>0</v>
       </c>
-      <c r="K86" s="84" t="s">
-        <v>81</v>
+      <c r="K86" s="83" t="s">
+        <v>79</v>
       </c>
       <c r="L86" s="11">
         <v>2</v>
@@ -9245,7 +9353,7 @@
         <v>3300</v>
       </c>
       <c r="Q86" s="11">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="R86" s="11">
         <v>6920</v>
@@ -9262,7 +9370,7 @@
       <c r="W86" s="1">
         <v>60</v>
       </c>
-      <c r="X86" s="89">
+      <c r="X86" s="88">
         <v>300</v>
       </c>
       <c r="Y86" s="11">
@@ -9281,12 +9389,12 @@
         <v>239</v>
       </c>
     </row>
-    <row r="87" s="11" customFormat="1" ht="14.25" spans="1:30">
+    <row r="87" s="11" customFormat="1" ht="15.6" spans="1:30">
       <c r="A87" s="71">
         <v>239002</v>
       </c>
       <c r="B87" s="72" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C87" s="73" t="s">
         <v>41</v>
@@ -9306,8 +9414,8 @@
       <c r="J87" s="11">
         <v>0</v>
       </c>
-      <c r="K87" s="84" t="s">
-        <v>81</v>
+      <c r="K87" s="83" t="s">
+        <v>79</v>
       </c>
       <c r="L87" s="11">
         <v>2</v>
@@ -9325,7 +9433,7 @@
         <v>3300</v>
       </c>
       <c r="Q87" s="11">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="R87" s="11">
         <v>6920</v>
@@ -9342,7 +9450,7 @@
       <c r="W87" s="1">
         <v>60</v>
       </c>
-      <c r="X87" s="89">
+      <c r="X87" s="88">
         <v>300</v>
       </c>
       <c r="Y87" s="11">
@@ -9361,12 +9469,12 @@
         <v>239</v>
       </c>
     </row>
-    <row r="88" s="11" customFormat="1" ht="14.25" spans="1:30">
+    <row r="88" s="11" customFormat="1" ht="15.6" spans="1:30">
       <c r="A88" s="71">
         <v>239003</v>
       </c>
       <c r="B88" s="72" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C88" s="73" t="s">
         <v>41</v>
@@ -9386,8 +9494,8 @@
       <c r="J88" s="11">
         <v>0</v>
       </c>
-      <c r="K88" s="84" t="s">
-        <v>81</v>
+      <c r="K88" s="83" t="s">
+        <v>79</v>
       </c>
       <c r="L88" s="11">
         <v>2</v>
@@ -9405,7 +9513,7 @@
         <v>3300</v>
       </c>
       <c r="Q88" s="11">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="R88" s="11">
         <v>6920</v>
@@ -9422,7 +9530,7 @@
       <c r="W88" s="1">
         <v>60</v>
       </c>
-      <c r="X88" s="89">
+      <c r="X88" s="88">
         <v>300</v>
       </c>
       <c r="Y88" s="11">
@@ -9441,12 +9549,12 @@
         <v>239</v>
       </c>
     </row>
-    <row r="89" s="11" customFormat="1" ht="14.25" spans="1:30">
+    <row r="89" s="11" customFormat="1" ht="15.6" spans="1:30">
       <c r="A89" s="71">
         <v>239004</v>
       </c>
       <c r="B89" s="72" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C89" s="73" t="s">
         <v>41</v>
@@ -9466,8 +9574,8 @@
       <c r="J89" s="11">
         <v>0</v>
       </c>
-      <c r="K89" s="84" t="s">
-        <v>81</v>
+      <c r="K89" s="83" t="s">
+        <v>79</v>
       </c>
       <c r="L89" s="11">
         <v>2</v>
@@ -9485,7 +9593,7 @@
         <v>3300</v>
       </c>
       <c r="Q89" s="11">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="R89" s="11">
         <v>6920</v>
@@ -9502,7 +9610,7 @@
       <c r="W89" s="1">
         <v>60</v>
       </c>
-      <c r="X89" s="89">
+      <c r="X89" s="88">
         <v>300</v>
       </c>
       <c r="Y89" s="11">
@@ -9521,12 +9629,12 @@
         <v>239</v>
       </c>
     </row>
-    <row r="90" s="11" customFormat="1" ht="14.25" spans="1:30">
+    <row r="90" s="11" customFormat="1" ht="15.6" spans="1:30">
       <c r="A90" s="71">
         <v>239005</v>
       </c>
       <c r="B90" s="72" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C90" s="73" t="s">
         <v>41</v>
@@ -9546,8 +9654,8 @@
       <c r="J90" s="11">
         <v>0</v>
       </c>
-      <c r="K90" s="84" t="s">
-        <v>81</v>
+      <c r="K90" s="83" t="s">
+        <v>79</v>
       </c>
       <c r="L90" s="11">
         <v>2</v>
@@ -9565,7 +9673,7 @@
         <v>3300</v>
       </c>
       <c r="Q90" s="11">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="R90" s="11">
         <v>6920</v>
@@ -9582,7 +9690,7 @@
       <c r="W90" s="1">
         <v>60</v>
       </c>
-      <c r="X90" s="89">
+      <c r="X90" s="88">
         <v>300</v>
       </c>
       <c r="Y90" s="11">
@@ -9601,12 +9709,12 @@
         <v>239</v>
       </c>
     </row>
-    <row r="91" s="11" customFormat="1" ht="14.25" spans="1:30">
+    <row r="91" s="11" customFormat="1" ht="15.6" spans="1:30">
       <c r="A91" s="71">
         <v>239006</v>
       </c>
       <c r="B91" s="72" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C91" s="73" t="s">
         <v>41</v>
@@ -9626,8 +9734,8 @@
       <c r="J91" s="11">
         <v>0</v>
       </c>
-      <c r="K91" s="84" t="s">
-        <v>81</v>
+      <c r="K91" s="83" t="s">
+        <v>79</v>
       </c>
       <c r="L91" s="11">
         <v>2</v>
@@ -9645,7 +9753,7 @@
         <v>3300</v>
       </c>
       <c r="Q91" s="11">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="R91" s="11">
         <v>6920</v>
@@ -9662,7 +9770,7 @@
       <c r="W91" s="1">
         <v>60</v>
       </c>
-      <c r="X91" s="89">
+      <c r="X91" s="88">
         <v>300</v>
       </c>
       <c r="Y91" s="11">
@@ -9681,12 +9789,12 @@
         <v>239</v>
       </c>
     </row>
-    <row r="92" s="11" customFormat="1" ht="14.25" spans="1:30">
+    <row r="92" s="11" customFormat="1" ht="15.6" spans="1:30">
       <c r="A92" s="71">
         <v>239007</v>
       </c>
       <c r="B92" s="72" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C92" s="73" t="s">
         <v>41</v>
@@ -9706,8 +9814,8 @@
       <c r="J92" s="11">
         <v>0</v>
       </c>
-      <c r="K92" s="84" t="s">
-        <v>81</v>
+      <c r="K92" s="83" t="s">
+        <v>79</v>
       </c>
       <c r="L92" s="11">
         <v>2</v>
@@ -9725,7 +9833,7 @@
         <v>3300</v>
       </c>
       <c r="Q92" s="11">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="R92" s="11">
         <v>6920</v>
@@ -9742,7 +9850,7 @@
       <c r="W92" s="1">
         <v>60</v>
       </c>
-      <c r="X92" s="89">
+      <c r="X92" s="88">
         <v>300</v>
       </c>
       <c r="Y92" s="11">
@@ -9761,15 +9869,15 @@
         <v>239</v>
       </c>
     </row>
-    <row r="93" s="12" customFormat="1" ht="14.25" spans="1:30">
+    <row r="93" s="12" customFormat="1" ht="15.6" spans="1:30">
       <c r="A93" s="75">
         <v>244001</v>
       </c>
       <c r="B93" s="76" t="s">
-        <v>82</v>
-      </c>
-      <c r="C93" s="42" t="s">
-        <v>83</v>
+        <v>80</v>
+      </c>
+      <c r="C93" s="40" t="s">
+        <v>81</v>
       </c>
       <c r="E93" s="77" t="s">
         <v>42</v>
@@ -9787,7 +9895,7 @@
         <v>0</v>
       </c>
       <c r="K93" s="77" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="L93" s="12">
         <v>2</v>
@@ -9805,9 +9913,9 @@
         <v>3600</v>
       </c>
       <c r="Q93" s="11">
-        <v>50</v>
-      </c>
-      <c r="R93" s="90">
+        <v>60</v>
+      </c>
+      <c r="R93" s="89">
         <v>6919</v>
       </c>
       <c r="T93" s="47">
@@ -9825,7 +9933,7 @@
       <c r="X93" s="12">
         <v>300</v>
       </c>
-      <c r="Y93" s="90">
+      <c r="Y93" s="89">
         <v>1</v>
       </c>
       <c r="Z93" s="12">
@@ -9841,15 +9949,15 @@
         <v>244</v>
       </c>
     </row>
-    <row r="94" s="12" customFormat="1" ht="14.25" spans="1:30">
+    <row r="94" s="12" customFormat="1" ht="15.6" spans="1:30">
       <c r="A94" s="75">
         <v>244002</v>
       </c>
       <c r="B94" s="76" t="s">
-        <v>82</v>
-      </c>
-      <c r="C94" s="42" t="s">
-        <v>83</v>
+        <v>80</v>
+      </c>
+      <c r="C94" s="40" t="s">
+        <v>81</v>
       </c>
       <c r="E94" s="77" t="s">
         <v>42</v>
@@ -9867,7 +9975,7 @@
         <v>0</v>
       </c>
       <c r="K94" s="77" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="L94" s="12">
         <v>2</v>
@@ -9885,9 +9993,9 @@
         <v>3600</v>
       </c>
       <c r="Q94" s="11">
-        <v>50</v>
-      </c>
-      <c r="R94" s="90">
+        <v>60</v>
+      </c>
+      <c r="R94" s="89">
         <v>6919</v>
       </c>
       <c r="T94" s="47">
@@ -9905,7 +10013,7 @@
       <c r="X94" s="12">
         <v>300</v>
       </c>
-      <c r="Y94" s="90">
+      <c r="Y94" s="89">
         <v>1</v>
       </c>
       <c r="Z94" s="12">
@@ -9921,15 +10029,15 @@
         <v>244</v>
       </c>
     </row>
-    <row r="95" s="12" customFormat="1" ht="14.25" spans="1:30">
+    <row r="95" s="12" customFormat="1" ht="15.6" spans="1:30">
       <c r="A95" s="75">
         <v>244003</v>
       </c>
       <c r="B95" s="76" t="s">
-        <v>82</v>
-      </c>
-      <c r="C95" s="42" t="s">
-        <v>83</v>
+        <v>80</v>
+      </c>
+      <c r="C95" s="40" t="s">
+        <v>81</v>
       </c>
       <c r="E95" s="77" t="s">
         <v>42</v>
@@ -9947,7 +10055,7 @@
         <v>0</v>
       </c>
       <c r="K95" s="77" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="L95" s="12">
         <v>2</v>
@@ -9965,9 +10073,9 @@
         <v>3600</v>
       </c>
       <c r="Q95" s="11">
-        <v>50</v>
-      </c>
-      <c r="R95" s="90">
+        <v>60</v>
+      </c>
+      <c r="R95" s="89">
         <v>6919</v>
       </c>
       <c r="T95" s="47">
@@ -9985,7 +10093,7 @@
       <c r="X95" s="12">
         <v>300</v>
       </c>
-      <c r="Y95" s="90">
+      <c r="Y95" s="89">
         <v>1</v>
       </c>
       <c r="Z95" s="12">
@@ -10001,15 +10109,15 @@
         <v>244</v>
       </c>
     </row>
-    <row r="96" s="12" customFormat="1" ht="14.25" spans="1:30">
+    <row r="96" s="12" customFormat="1" ht="15.6" spans="1:30">
       <c r="A96" s="75">
         <v>244004</v>
       </c>
       <c r="B96" s="76" t="s">
-        <v>82</v>
-      </c>
-      <c r="C96" s="42" t="s">
-        <v>83</v>
+        <v>80</v>
+      </c>
+      <c r="C96" s="40" t="s">
+        <v>81</v>
       </c>
       <c r="E96" s="77" t="s">
         <v>42</v>
@@ -10027,7 +10135,7 @@
         <v>0</v>
       </c>
       <c r="K96" s="77" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="L96" s="12">
         <v>2</v>
@@ -10045,9 +10153,9 @@
         <v>3600</v>
       </c>
       <c r="Q96" s="11">
-        <v>50</v>
-      </c>
-      <c r="R96" s="90">
+        <v>60</v>
+      </c>
+      <c r="R96" s="89">
         <v>6919</v>
       </c>
       <c r="T96" s="47">
@@ -10065,7 +10173,7 @@
       <c r="X96" s="12">
         <v>300</v>
       </c>
-      <c r="Y96" s="90">
+      <c r="Y96" s="89">
         <v>1</v>
       </c>
       <c r="Z96" s="12">
@@ -10081,15 +10189,15 @@
         <v>244</v>
       </c>
     </row>
-    <row r="97" s="12" customFormat="1" ht="14.25" spans="1:30">
+    <row r="97" s="12" customFormat="1" ht="15.6" spans="1:30">
       <c r="A97" s="75">
         <v>244005</v>
       </c>
       <c r="B97" s="76" t="s">
-        <v>82</v>
-      </c>
-      <c r="C97" s="42" t="s">
-        <v>83</v>
+        <v>80</v>
+      </c>
+      <c r="C97" s="40" t="s">
+        <v>81</v>
       </c>
       <c r="E97" s="77" t="s">
         <v>42</v>
@@ -10107,7 +10215,7 @@
         <v>0</v>
       </c>
       <c r="K97" s="77" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="L97" s="12">
         <v>2</v>
@@ -10125,9 +10233,9 @@
         <v>3600</v>
       </c>
       <c r="Q97" s="11">
-        <v>50</v>
-      </c>
-      <c r="R97" s="90">
+        <v>60</v>
+      </c>
+      <c r="R97" s="89">
         <v>6919</v>
       </c>
       <c r="T97" s="47">
@@ -10145,7 +10253,7 @@
       <c r="X97" s="12">
         <v>300</v>
       </c>
-      <c r="Y97" s="90">
+      <c r="Y97" s="89">
         <v>1</v>
       </c>
       <c r="Z97" s="12">
@@ -10161,15 +10269,15 @@
         <v>244</v>
       </c>
     </row>
-    <row r="98" s="12" customFormat="1" ht="14.25" spans="1:30">
+    <row r="98" s="12" customFormat="1" ht="15.6" spans="1:30">
       <c r="A98" s="75">
         <v>244006</v>
       </c>
       <c r="B98" s="76" t="s">
-        <v>82</v>
-      </c>
-      <c r="C98" s="42" t="s">
-        <v>83</v>
+        <v>80</v>
+      </c>
+      <c r="C98" s="40" t="s">
+        <v>81</v>
       </c>
       <c r="E98" s="77" t="s">
         <v>42</v>
@@ -10187,7 +10295,7 @@
         <v>0</v>
       </c>
       <c r="K98" s="77" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="L98" s="12">
         <v>2</v>
@@ -10205,9 +10313,9 @@
         <v>3600</v>
       </c>
       <c r="Q98" s="11">
-        <v>50</v>
-      </c>
-      <c r="R98" s="90">
+        <v>60</v>
+      </c>
+      <c r="R98" s="89">
         <v>6919</v>
       </c>
       <c r="T98" s="47">
@@ -10225,7 +10333,7 @@
       <c r="X98" s="12">
         <v>300</v>
       </c>
-      <c r="Y98" s="90">
+      <c r="Y98" s="89">
         <v>1</v>
       </c>
       <c r="Z98" s="12">
@@ -10241,15 +10349,15 @@
         <v>244</v>
       </c>
     </row>
-    <row r="99" s="12" customFormat="1" ht="14.25" spans="1:30">
+    <row r="99" s="12" customFormat="1" ht="15.6" spans="1:30">
       <c r="A99" s="75">
         <v>244007</v>
       </c>
       <c r="B99" s="76" t="s">
-        <v>82</v>
-      </c>
-      <c r="C99" s="42" t="s">
-        <v>83</v>
+        <v>80</v>
+      </c>
+      <c r="C99" s="40" t="s">
+        <v>81</v>
       </c>
       <c r="E99" s="77" t="s">
         <v>42</v>
@@ -10267,7 +10375,7 @@
         <v>0</v>
       </c>
       <c r="K99" s="77" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="L99" s="12">
         <v>2</v>
@@ -10285,9 +10393,9 @@
         <v>3600</v>
       </c>
       <c r="Q99" s="11">
-        <v>50</v>
-      </c>
-      <c r="R99" s="90">
+        <v>60</v>
+      </c>
+      <c r="R99" s="89">
         <v>6919</v>
       </c>
       <c r="T99" s="47">
@@ -10305,7 +10413,7 @@
       <c r="X99" s="12">
         <v>300</v>
       </c>
-      <c r="Y99" s="90">
+      <c r="Y99" s="89">
         <v>1</v>
       </c>
       <c r="Z99" s="12">
@@ -10321,38 +10429,38 @@
         <v>244</v>
       </c>
     </row>
-    <row r="100" s="13" customFormat="1" ht="14.25" spans="1:30">
+    <row r="100" s="13" customFormat="1" ht="15.6" spans="1:30">
       <c r="A100" s="78">
         <v>244008</v>
       </c>
       <c r="B100" s="79" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C100" s="80" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E100" s="80" t="s">
         <v>42</v>
       </c>
-      <c r="G100" s="81">
+      <c r="G100" s="47">
         <v>191155</v>
       </c>
       <c r="H100" s="13">
         <v>0</v>
       </c>
-      <c r="I100" s="85">
+      <c r="I100" s="84">
         <v>20</v>
       </c>
       <c r="J100" s="13">
         <v>0</v>
       </c>
-      <c r="K100" s="86">
+      <c r="K100" s="85">
         <v>310099</v>
       </c>
       <c r="L100" s="13">
         <v>2</v>
       </c>
-      <c r="M100" s="85">
+      <c r="M100" s="84">
         <v>10</v>
       </c>
       <c r="N100" s="13" t="s">
@@ -10364,13 +10472,13 @@
       <c r="P100" s="13">
         <v>3600</v>
       </c>
-      <c r="Q100" s="13">
-        <v>50</v>
-      </c>
-      <c r="R100" s="91">
+      <c r="Q100" s="11">
+        <v>60</v>
+      </c>
+      <c r="R100" s="90">
         <v>6948</v>
       </c>
-      <c r="T100" s="92">
+      <c r="T100" s="91">
         <v>170057</v>
       </c>
       <c r="U100" s="13">
@@ -10401,38 +10509,38 @@
         <v>244</v>
       </c>
     </row>
-    <row r="101" s="13" customFormat="1" ht="14.25" spans="1:30">
+    <row r="101" s="13" customFormat="1" ht="15.6" spans="1:30">
       <c r="A101" s="78">
         <v>244009</v>
       </c>
       <c r="B101" s="79" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C101" s="80" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E101" s="80" t="s">
         <v>42</v>
       </c>
-      <c r="G101" s="81">
+      <c r="G101" s="47">
         <v>191155</v>
       </c>
       <c r="H101" s="13">
         <v>0</v>
       </c>
-      <c r="I101" s="85">
+      <c r="I101" s="84">
         <v>20</v>
       </c>
       <c r="J101" s="13">
         <v>0</v>
       </c>
-      <c r="K101" s="86">
+      <c r="K101" s="85">
         <v>310099</v>
       </c>
       <c r="L101" s="13">
         <v>2</v>
       </c>
-      <c r="M101" s="85">
+      <c r="M101" s="84">
         <v>10</v>
       </c>
       <c r="N101" s="13" t="s">
@@ -10444,13 +10552,13 @@
       <c r="P101" s="13">
         <v>3600</v>
       </c>
-      <c r="Q101" s="13">
-        <v>50</v>
-      </c>
-      <c r="R101" s="91">
+      <c r="Q101" s="11">
+        <v>60</v>
+      </c>
+      <c r="R101" s="90">
         <v>6948</v>
       </c>
-      <c r="T101" s="92">
+      <c r="T101" s="91">
         <v>170057</v>
       </c>
       <c r="U101" s="13">
@@ -10481,38 +10589,38 @@
         <v>244</v>
       </c>
     </row>
-    <row r="102" s="13" customFormat="1" ht="14.25" spans="1:30">
+    <row r="102" s="13" customFormat="1" ht="15.6" spans="1:30">
       <c r="A102" s="78">
         <v>244010</v>
       </c>
       <c r="B102" s="79" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C102" s="80" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E102" s="80" t="s">
         <v>42</v>
       </c>
-      <c r="G102" s="81">
+      <c r="G102" s="47">
         <v>191155</v>
       </c>
       <c r="H102" s="13">
         <v>0</v>
       </c>
-      <c r="I102" s="85">
+      <c r="I102" s="84">
         <v>20</v>
       </c>
       <c r="J102" s="13">
         <v>0</v>
       </c>
-      <c r="K102" s="86">
+      <c r="K102" s="85">
         <v>310099</v>
       </c>
       <c r="L102" s="13">
         <v>2</v>
       </c>
-      <c r="M102" s="85">
+      <c r="M102" s="84">
         <v>10</v>
       </c>
       <c r="N102" s="13" t="s">
@@ -10524,13 +10632,13 @@
       <c r="P102" s="13">
         <v>3600</v>
       </c>
-      <c r="Q102" s="13">
-        <v>50</v>
-      </c>
-      <c r="R102" s="91">
+      <c r="Q102" s="11">
+        <v>60</v>
+      </c>
+      <c r="R102" s="90">
         <v>6948</v>
       </c>
-      <c r="T102" s="92">
+      <c r="T102" s="91">
         <v>170057</v>
       </c>
       <c r="U102" s="13">
@@ -10561,38 +10669,38 @@
         <v>244</v>
       </c>
     </row>
-    <row r="103" s="13" customFormat="1" ht="14.25" spans="1:30">
+    <row r="103" s="13" customFormat="1" ht="15.6" spans="1:30">
       <c r="A103" s="78">
         <v>244011</v>
       </c>
       <c r="B103" s="79" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C103" s="80" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E103" s="80" t="s">
         <v>42</v>
       </c>
-      <c r="G103" s="81">
+      <c r="G103" s="47">
         <v>191155</v>
       </c>
       <c r="H103" s="13">
         <v>0</v>
       </c>
-      <c r="I103" s="85">
+      <c r="I103" s="84">
         <v>20</v>
       </c>
       <c r="J103" s="13">
         <v>0</v>
       </c>
-      <c r="K103" s="86">
+      <c r="K103" s="85">
         <v>310099</v>
       </c>
       <c r="L103" s="13">
         <v>2</v>
       </c>
-      <c r="M103" s="85">
+      <c r="M103" s="84">
         <v>10</v>
       </c>
       <c r="N103" s="13" t="s">
@@ -10604,13 +10712,13 @@
       <c r="P103" s="13">
         <v>3600</v>
       </c>
-      <c r="Q103" s="13">
-        <v>50</v>
-      </c>
-      <c r="R103" s="91">
+      <c r="Q103" s="11">
+        <v>60</v>
+      </c>
+      <c r="R103" s="90">
         <v>6948</v>
       </c>
-      <c r="T103" s="92">
+      <c r="T103" s="91">
         <v>170057</v>
       </c>
       <c r="U103" s="13">
@@ -10641,38 +10749,38 @@
         <v>244</v>
       </c>
     </row>
-    <row r="104" s="13" customFormat="1" ht="14.25" spans="1:30">
+    <row r="104" s="13" customFormat="1" ht="15.6" spans="1:30">
       <c r="A104" s="78">
         <v>244012</v>
       </c>
       <c r="B104" s="79" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C104" s="80" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E104" s="80" t="s">
         <v>42</v>
       </c>
-      <c r="G104" s="81">
+      <c r="G104" s="47">
         <v>191155</v>
       </c>
       <c r="H104" s="13">
         <v>0</v>
       </c>
-      <c r="I104" s="85">
+      <c r="I104" s="84">
         <v>20</v>
       </c>
       <c r="J104" s="13">
         <v>0</v>
       </c>
-      <c r="K104" s="86">
+      <c r="K104" s="85">
         <v>310099</v>
       </c>
       <c r="L104" s="13">
         <v>2</v>
       </c>
-      <c r="M104" s="85">
+      <c r="M104" s="84">
         <v>10</v>
       </c>
       <c r="N104" s="13" t="s">
@@ -10684,13 +10792,13 @@
       <c r="P104" s="13">
         <v>3600</v>
       </c>
-      <c r="Q104" s="13">
-        <v>50</v>
-      </c>
-      <c r="R104" s="91">
+      <c r="Q104" s="11">
+        <v>60</v>
+      </c>
+      <c r="R104" s="90">
         <v>6948</v>
       </c>
-      <c r="T104" s="92">
+      <c r="T104" s="91">
         <v>170057</v>
       </c>
       <c r="U104" s="13">
@@ -10721,38 +10829,38 @@
         <v>244</v>
       </c>
     </row>
-    <row r="105" s="13" customFormat="1" ht="14.25" spans="1:30">
+    <row r="105" s="13" customFormat="1" ht="15.6" spans="1:30">
       <c r="A105" s="78">
         <v>244013</v>
       </c>
       <c r="B105" s="79" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C105" s="80" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E105" s="80" t="s">
         <v>42</v>
       </c>
-      <c r="G105" s="81">
+      <c r="G105" s="47">
         <v>191155</v>
       </c>
       <c r="H105" s="13">
         <v>0</v>
       </c>
-      <c r="I105" s="85">
+      <c r="I105" s="84">
         <v>20</v>
       </c>
       <c r="J105" s="13">
         <v>0</v>
       </c>
-      <c r="K105" s="86">
+      <c r="K105" s="85">
         <v>310099</v>
       </c>
       <c r="L105" s="13">
         <v>2</v>
       </c>
-      <c r="M105" s="85">
+      <c r="M105" s="84">
         <v>10</v>
       </c>
       <c r="N105" s="13" t="s">
@@ -10764,13 +10872,13 @@
       <c r="P105" s="13">
         <v>3600</v>
       </c>
-      <c r="Q105" s="13">
-        <v>50</v>
-      </c>
-      <c r="R105" s="91">
+      <c r="Q105" s="11">
+        <v>60</v>
+      </c>
+      <c r="R105" s="90">
         <v>6948</v>
       </c>
-      <c r="T105" s="92">
+      <c r="T105" s="91">
         <v>170057</v>
       </c>
       <c r="U105" s="13">
@@ -10801,38 +10909,38 @@
         <v>244</v>
       </c>
     </row>
-    <row r="106" s="13" customFormat="1" ht="14.25" spans="1:30">
+    <row r="106" s="13" customFormat="1" ht="15.6" spans="1:30">
       <c r="A106" s="78">
         <v>244014</v>
       </c>
       <c r="B106" s="79" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C106" s="80" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E106" s="80" t="s">
         <v>42</v>
       </c>
-      <c r="G106" s="81">
+      <c r="G106" s="47">
         <v>191155</v>
       </c>
       <c r="H106" s="13">
         <v>0</v>
       </c>
-      <c r="I106" s="85">
+      <c r="I106" s="84">
         <v>20</v>
       </c>
       <c r="J106" s="13">
         <v>0</v>
       </c>
-      <c r="K106" s="86">
+      <c r="K106" s="85">
         <v>310099</v>
       </c>
       <c r="L106" s="13">
         <v>2</v>
       </c>
-      <c r="M106" s="85">
+      <c r="M106" s="84">
         <v>10</v>
       </c>
       <c r="N106" s="13" t="s">
@@ -10844,13 +10952,13 @@
       <c r="P106" s="13">
         <v>3600</v>
       </c>
-      <c r="Q106" s="13">
-        <v>50</v>
-      </c>
-      <c r="R106" s="91">
+      <c r="Q106" s="11">
+        <v>60</v>
+      </c>
+      <c r="R106" s="90">
         <v>6948</v>
       </c>
-      <c r="T106" s="92">
+      <c r="T106" s="91">
         <v>170057</v>
       </c>
       <c r="U106" s="13">
@@ -10890,7 +10998,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
@@ -10898,7 +11006,7 @@
       <selection activeCell="H16" sqref="$A1:$XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <sheetData/>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300"/>
@@ -10907,7 +11015,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
@@ -10915,7 +11023,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <sheetData/>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300"/>
